--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6747,8 +6747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19346,7 +19346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28280" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2445,10 +2445,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>1.11.0-rc3</t>
-  </si>
-  <si>
     <t>default</t>
+  </si>
+  <si>
+    <t>1.12.4</t>
   </si>
 </sst>
 </file>
@@ -6748,7 +6748,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6806,7 +6806,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6817,7 +6817,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="819">
   <si>
     <t>type</t>
   </si>
@@ -2238,33 +2238,9 @@
     <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
   <si>
-    <t>Ngrid Add Monthly Utility Data</t>
-  </si>
-  <si>
-    <t>NGridAddMonthlyUtilityData</t>
-  </si>
-  <si>
-    <t>Path to electric JSON</t>
-  </si>
-  <si>
-    <t>electric_json</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>../../../lib/calibration_data/electric_billed_usages.json</t>
-  </si>
-  <si>
-    <t>Path to gas JSON</t>
-  </si>
-  <si>
-    <t>gas_json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas_billed_usages.json</t>
-  </si>
-  <si>
     <t>Start date</t>
   </si>
   <si>
@@ -2449,6 +2425,78 @@
   </si>
   <si>
     <t>1.12.4</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
@@ -6747,21 +6795,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6770,7 +6818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6779,51 +6827,51 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.25" customHeight="1">
+    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6842,7 +6890,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6861,7 +6909,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6874,7 +6922,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6883,40 +6931,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6927,7 +6975,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>461</v>
       </c>
@@ -6938,7 +6986,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>462</v>
       </c>
@@ -6949,7 +6997,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>464</v>
       </c>
@@ -6960,7 +7008,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
@@ -6973,7 +7021,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>449</v>
       </c>
@@ -6981,11 +7029,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>448</v>
       </c>
@@ -7002,7 +7050,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="31" customFormat="1">
+    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>568</v>
       </c>
@@ -7014,7 +7062,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" s="31" customFormat="1">
+    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>4</v>
       </c>
@@ -7026,55 +7074,55 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" s="31" customFormat="1">
+    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="30"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="30"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" s="31" customFormat="1">
+    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>32</v>
       </c>
@@ -7087,15 +7135,15 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>29</v>
       </c>
@@ -7112,7 +7160,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>31</v>
       </c>
@@ -7120,11 +7168,11 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>34</v>
       </c>
@@ -7139,7 +7187,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>644</v>
       </c>
@@ -7147,10 +7195,10 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7178,39 +7226,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z186"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="31"/>
-    <col min="17" max="17" width="11.5" style="31" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="31"/>
+    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
     <col min="18" max="18" width="23" style="31" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.1640625" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.5" style="31"/>
+    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="31"/>
     <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.5" style="31"/>
+    <col min="25" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18">
+    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7246,7 +7294,7 @@
       <c r="Y1" s="66"/>
       <c r="Z1" s="66"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7263,7 +7311,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7280,7 +7328,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7340,18 +7388,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1">
+    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>732</v>
+        <v>795</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>733</v>
+        <v>796</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>733</v>
+        <v>796</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7359,1010 +7407,977 @@
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>734</v>
+        <v>797</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>735</v>
+        <v>798</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>737</v>
+        <v>799</v>
       </c>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B6" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>738</v>
+        <v>800</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>739</v>
+        <v>164</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="31" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>740</v>
+        <v>801</v>
       </c>
       <c r="J6" s="31"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B7" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>741</v>
+        <v>802</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>742</v>
+        <v>803</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
-        <v>736</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>773</v>
+        <v>732</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>804</v>
       </c>
       <c r="J7" s="31"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>743</v>
+        <v>805</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>744</v>
+        <v>806</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>736</v>
       </c>
-      <c r="I8" s="48" t="s">
-        <v>774</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" s="37" customFormat="1">
-      <c r="A9" s="37" t="b">
+      <c r="F11" s="64"/>
+      <c r="G11" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I11" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="48" t="s">
+        <v>812</v>
+      </c>
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B13" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>796</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B14" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>798</v>
+      </c>
+      <c r="F14" s="64"/>
+      <c r="G14" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="64"/>
+      <c r="G15" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>802</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="F17" s="64"/>
+      <c r="G17" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>807</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>817</v>
+      </c>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>733</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>734</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>765</v>
+      </c>
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>735</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" s="64"/>
+      <c r="G20" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-    </row>
-    <row r="10" spans="1:26" s="45" customFormat="1">
-      <c r="A10" s="45" t="b">
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D23" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E23" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="30" customFormat="1">
-      <c r="B11" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="30" t="s">
+    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="30" t="s">
+      <c r="F24" s="64"/>
+      <c r="G24" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="I24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="J24" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" s="40" customFormat="1" ht="15">
-      <c r="B12" s="40" t="s">
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D25" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="42">
+      <c r="F25" s="50"/>
+      <c r="G25" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="40">
+        <v>0</v>
+      </c>
+      <c r="K25" s="42">
+        <v>0</v>
+      </c>
+      <c r="L25" s="42">
         <v>100</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M25" s="42">
         <v>15</v>
       </c>
-      <c r="N12" s="42">
-        <f>(L12-K12)/6</f>
+      <c r="N25" s="42">
+        <f>(L25-K25)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O25" s="42">
         <v>1</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R25" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="30" customFormat="1">
-      <c r="B13" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="30" t="s">
+    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E26" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="F26" s="64"/>
+      <c r="G26" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="56" customFormat="1">
-      <c r="B14" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="57" t="s">
+    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E27" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="56">
-        <v>0</v>
-      </c>
-      <c r="K14" s="58">
-        <v>0</v>
-      </c>
-      <c r="L14" s="58">
+      <c r="F27" s="64"/>
+      <c r="G27" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="56">
+        <v>0</v>
+      </c>
+      <c r="K27" s="58">
+        <v>0</v>
+      </c>
+      <c r="L27" s="58">
         <v>0.1</v>
       </c>
-      <c r="M14" s="58">
+      <c r="M27" s="58">
         <v>0.05</v>
       </c>
-      <c r="N14" s="58">
-        <f>(L14-K14)/6</f>
+      <c r="N27" s="58">
+        <f>(L27-K27)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O14" s="58">
+      <c r="O27" s="58">
         <v>0.01</v>
       </c>
-      <c r="R14" s="56" t="s">
+      <c r="R27" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="30" customFormat="1">
-      <c r="B15" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="30" t="s">
+    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E28" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="30" customFormat="1" ht="15">
-      <c r="B16" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="30" t="s">
+      <c r="F28" s="64"/>
+      <c r="G28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>680</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>679</v>
-      </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B17" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B18" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="65"/>
-      <c r="G19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1</v>
-      </c>
-      <c r="P19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" s="46" customFormat="1">
-      <c r="A20" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="Q21" s="39"/>
-    </row>
-    <row r="22" spans="1:18" s="52" customFormat="1" ht="15">
-      <c r="B22" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>655</v>
-      </c>
-      <c r="E22" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I22" s="52">
-        <v>0</v>
-      </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="54">
-        <v>-40</v>
-      </c>
-      <c r="L22" s="54">
-        <v>40</v>
-      </c>
-      <c r="M22" s="54">
-        <v>0</v>
-      </c>
-      <c r="N22" s="54">
-        <f>(L22-K22)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O22" s="54">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="52" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="65"/>
-      <c r="G23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="Q23" s="39"/>
-    </row>
-    <row r="24" spans="1:18" ht="15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="Q24" s="39"/>
-    </row>
-    <row r="25" spans="1:18" ht="15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="Q25" s="39"/>
-    </row>
-    <row r="26" spans="1:18" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="Q26" s="39"/>
-    </row>
-    <row r="27" spans="1:18" ht="15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30">
-        <v>15</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="Q27" s="39"/>
-    </row>
-    <row r="28" spans="1:18" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="Q28" s="39"/>
-    </row>
-    <row r="29" spans="1:18" ht="15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F29" s="65"/>
       <c r="G29" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="30"/>
+        <v>62</v>
+      </c>
       <c r="I29" s="30">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="Q29" s="39"/>
-    </row>
-    <row r="30" spans="1:18" s="46" customFormat="1">
-      <c r="A30" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="65"/>
+      <c r="G30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F31" s="65"/>
       <c r="G31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="65"/>
+      <c r="G32" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="30">
+        <v>1</v>
+      </c>
+      <c r="P32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="65"/>
+      <c r="G34" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="H34" s="30"/>
+      <c r="I34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="J34" s="30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B32" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>658</v>
-      </c>
-      <c r="E32" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F32" s="50"/>
-      <c r="G32" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I32" s="40">
-        <v>0</v>
-      </c>
-      <c r="J32" s="43"/>
-      <c r="K32" s="42">
-        <v>-80</v>
-      </c>
-      <c r="L32" s="42">
-        <v>80</v>
-      </c>
-      <c r="M32" s="42">
-        <v>0</v>
-      </c>
-      <c r="N32" s="42">
-        <f>(L32-K32)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O32" s="42">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="39"/>
+    </row>
+    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>655</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="52">
+        <v>0</v>
+      </c>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="54">
+        <v>40</v>
+      </c>
+      <c r="M35" s="54">
+        <v>0</v>
+      </c>
+      <c r="N35" s="54">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="54">
         <v>1</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="Q35" s="55"/>
+      <c r="R35" s="52" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E33" s="30" t="s">
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H33" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I33" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="30" customFormat="1">
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E34" s="30" t="s">
+      <c r="F36" s="65"/>
+      <c r="G36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="39"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="64"/>
-      <c r="G34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I34" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="30" customFormat="1">
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E35" s="30" t="s">
+      <c r="F37" s="65"/>
+      <c r="G37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="Q37" s="39"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="30" t="s">
+      <c r="F38" s="65"/>
+      <c r="G38" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I35" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="30" customFormat="1">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="H38" s="30"/>
+      <c r="I38" s="30">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="Q38" s="39"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="30" t="s">
         <v>52</v>
-      </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="30" customFormat="1">
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H37" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I37" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="30" customFormat="1">
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="64"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I38" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>58</v>
       </c>
       <c r="F39" s="65"/>
       <c r="G39" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="Q39" s="39"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I39" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B40" s="46" t="s">
-        <v>769</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="D40" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="E40" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="30" customFormat="1" ht="15">
+      <c r="H40" s="30"/>
+      <c r="I40" s="30">
+        <v>15</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="Q40" s="39"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="30"/>
       <c r="B41" s="30" t="s">
         <v>21</v>
       </c>
+      <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>342</v>
+        <v>55</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="F41" s="65"/>
       <c r="G41" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="Q41" s="39"/>
+    </row>
+    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="Q42" s="39"/>
+    </row>
+    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="65"/>
+      <c r="G44" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I41" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B42" s="40" t="s">
+      <c r="I44" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>771</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="F42" s="50"/>
-      <c r="G42" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="40" t="s">
+      <c r="D45" s="40" t="s">
+        <v>658</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I42" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="42">
-        <v>0.78</v>
-      </c>
-      <c r="L42" s="42">
-        <v>0.98</v>
-      </c>
-      <c r="M42" s="42">
-        <v>0.8</v>
-      </c>
-      <c r="N42" s="42">
-        <f>(L42-K42)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O42" s="42">
+      <c r="I45" s="40">
+        <v>0</v>
+      </c>
+      <c r="J45" s="43"/>
+      <c r="K45" s="42">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="42">
+        <v>80</v>
+      </c>
+      <c r="M45" s="42">
+        <v>0</v>
+      </c>
+      <c r="N45" s="42">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="42">
         <v>1</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R45" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="30" customFormat="1">
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="30" customFormat="1">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="30" t="s">
+      <c r="E46" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I44" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="30" customFormat="1">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+      <c r="I46" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="30" t="s">
+      <c r="F47" s="64"/>
+      <c r="G47" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="30" customFormat="1">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+      <c r="I47" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E48" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I47" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F48" s="65"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="30" t="s">
         <v>63</v>
       </c>
@@ -8370,41 +8385,38 @@
         <v>663</v>
       </c>
       <c r="I48" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="65"/>
+        <v>52</v>
+      </c>
+      <c r="F49" s="64"/>
       <c r="G49" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I49" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="F50" s="64"/>
       <c r="G50" s="30" t="s">
         <v>63</v>
       </c>
@@ -8412,198 +8424,201 @@
         <v>663</v>
       </c>
       <c r="I50" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A51" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B51" s="46" t="s">
-        <v>776</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>775</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="64"/>
+      <c r="G51" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I51" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>777</v>
+        <v>667</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F52" s="65"/>
       <c r="G52" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J52" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B53" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>778</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>779</v>
-      </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I53" s="40">
-        <v>4</v>
-      </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42">
-        <v>2</v>
-      </c>
-      <c r="L53" s="42">
-        <v>5</v>
-      </c>
-      <c r="M53" s="42">
-        <v>4</v>
-      </c>
-      <c r="N53" s="42">
-        <f>(L53-K53)/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="O53" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="R53" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>63</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I52" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="E53" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B54" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="F54" s="65"/>
       <c r="G54" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>764</v>
+      </c>
+      <c r="F55" s="50"/>
+      <c r="G55" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="43"/>
+      <c r="K55" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="42">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="42">
+        <v>1</v>
+      </c>
+      <c r="R55" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="31"/>
+      <c r="G56" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
+      <c r="I56" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E57" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="30" t="s">
+      <c r="F57" s="31"/>
+      <c r="G57" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
+      <c r="I57" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="30" t="s">
         <v>661</v>
       </c>
-      <c r="E56" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="30" t="s">
+      <c r="F58" s="31"/>
+      <c r="G58" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I56" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="I58" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="30" t="s">
         <v>662</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E59" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I57" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
         <v>63</v>
       </c>
@@ -8611,39 +8626,36 @@
         <v>663</v>
       </c>
       <c r="I59" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F60" s="65"/>
       <c r="G60" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I60" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F61" s="65"/>
       <c r="G61" s="30" t="s">
@@ -8653,177 +8665,157 @@
         <v>663</v>
       </c>
       <c r="I61" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A62" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B62" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="65"/>
+      <c r="G62" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I62" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B63" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>209</v>
+        <v>667</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F63" s="65"/>
       <c r="G63" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I63" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="E64" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="65"/>
+      <c r="G65" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="51" t="s">
+      <c r="I65" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J63" s="30" t="s">
+      <c r="J65" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B64" s="40" t="s">
+    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="40" t="s">
-        <v>780</v>
-      </c>
-      <c r="E64" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F64" s="50"/>
-      <c r="G64" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" s="40" t="s">
+      <c r="D66" s="40" t="s">
+        <v>770</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>771</v>
+      </c>
+      <c r="F66" s="50"/>
+      <c r="G66" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I64" s="40">
-        <v>0</v>
-      </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L64" s="42">
-        <v>14</v>
-      </c>
-      <c r="M64" s="42">
-        <v>0</v>
-      </c>
-      <c r="N64" s="42">
-        <f>(L64-K64)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O64" s="42">
-        <v>1</v>
-      </c>
-      <c r="R64" s="40" t="s">
+      <c r="I66" s="40">
+        <v>4</v>
+      </c>
+      <c r="J66" s="43"/>
+      <c r="K66" s="42">
+        <v>2</v>
+      </c>
+      <c r="L66" s="42">
+        <v>5</v>
+      </c>
+      <c r="M66" s="42">
+        <v>4</v>
+      </c>
+      <c r="N66" s="42">
+        <f>(L66-K66)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="O66" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="R66" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B65" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D65" s="40" t="s">
-        <v>781</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>782</v>
-      </c>
-      <c r="F65" s="50"/>
-      <c r="G65" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H65" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I65" s="40">
-        <v>0</v>
-      </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="42">
-        <v>-25</v>
-      </c>
-      <c r="L65" s="42">
-        <v>30</v>
-      </c>
-      <c r="M65" s="42">
-        <v>0</v>
-      </c>
-      <c r="N65" s="42">
-        <f>(L65-K65)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O65" s="42">
-        <v>1</v>
-      </c>
-      <c r="R65" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
+    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E67" s="30" t="s">
         <v>89</v>
-      </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I66" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>126</v>
       </c>
       <c r="F67" s="65"/>
       <c r="G67" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I67" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15">
+        <v>61</v>
+      </c>
+      <c r="I67" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B68" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F68" s="65"/>
       <c r="G68" s="30" t="s">
@@ -8836,1073 +8828,1376 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15">
+    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="65"/>
       <c r="G69" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I69" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F70" s="65"/>
+      <c r="G70" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H70" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I70" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="30" t="s">
         <v>664</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E71" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="F70" s="64"/>
-      <c r="G70" s="30" t="s">
+      <c r="F71" s="65"/>
+      <c r="G71" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I70" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="I71" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="30" t="s">
         <v>665</v>
       </c>
-      <c r="E71" s="30" t="s">
+      <c r="E72" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="F71" s="64"/>
-      <c r="G71" s="30" t="s">
+      <c r="F72" s="65"/>
+      <c r="G72" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H72" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I71" s="30">
+      <c r="I72" s="30">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="30" customFormat="1">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="30" t="s">
         <v>666</v>
       </c>
-      <c r="E72" s="30" t="s">
+      <c r="E73" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="30" t="s">
+      <c r="F73" s="65"/>
+      <c r="G73" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H73" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I72" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
+      <c r="I73" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E74" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F73" s="64"/>
-      <c r="G73" s="30" t="s">
+      <c r="F74" s="65"/>
+      <c r="G74" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
+      <c r="H74" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I73" s="30">
+      <c r="I74" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="46" customFormat="1">
-      <c r="A74" s="46" t="b">
+    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B75" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="46" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="65"/>
+      <c r="G76" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="30" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>772</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="50"/>
+      <c r="G77" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H77" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I77" s="40">
+        <v>0</v>
+      </c>
+      <c r="J77" s="43"/>
+      <c r="K77" s="42">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="42">
+        <v>14</v>
+      </c>
+      <c r="M77" s="42">
+        <v>0</v>
+      </c>
+      <c r="N77" s="42">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="42">
+        <v>1</v>
+      </c>
+      <c r="R77" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="F78" s="50"/>
+      <c r="G78" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I78" s="40">
+        <v>0</v>
+      </c>
+      <c r="J78" s="43"/>
+      <c r="K78" s="42">
+        <v>-25</v>
+      </c>
+      <c r="L78" s="42">
+        <v>30</v>
+      </c>
+      <c r="M78" s="42">
+        <v>0</v>
+      </c>
+      <c r="N78" s="42">
+        <f>(L78-K78)/6</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="O78" s="42">
+        <v>1</v>
+      </c>
+      <c r="R78" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="65"/>
+      <c r="G79" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="65"/>
+      <c r="G80" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I80" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="65"/>
+      <c r="G81" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I81" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F82" s="65"/>
+      <c r="G82" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I83" s="30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>665</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="64"/>
+      <c r="G84" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I84" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85" s="64"/>
+      <c r="G85" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H85" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I85" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F86" s="64"/>
+      <c r="G86" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I86" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="46" t="s">
+      <c r="C87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D74" s="46" t="s">
+      <c r="D87" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E74" s="46" t="s">
+      <c r="E87" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B75" s="40" t="s">
+    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>669</v>
       </c>
-      <c r="E75" s="40" t="s">
+      <c r="E88" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="F75" s="50"/>
-      <c r="G75" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H75" s="40" t="s">
+      <c r="F88" s="50"/>
+      <c r="G88" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H88" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="I75" s="40">
-        <v>0</v>
-      </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="42">
+      <c r="I88" s="40">
+        <v>0</v>
+      </c>
+      <c r="J88" s="43"/>
+      <c r="K88" s="42">
         <v>-6</v>
       </c>
-      <c r="L75" s="42">
-        <v>2</v>
-      </c>
-      <c r="M75" s="42">
-        <v>0</v>
-      </c>
-      <c r="N75" s="42">
-        <f>(L75-K75)/6</f>
+      <c r="L88" s="42">
+        <v>2</v>
+      </c>
+      <c r="M88" s="42">
+        <v>0</v>
+      </c>
+      <c r="N88" s="42">
+        <f>(L88-K88)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O75" s="42">
+      <c r="O88" s="42">
         <v>1</v>
       </c>
-      <c r="R75" s="40" t="s">
+      <c r="R88" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="40" customFormat="1" ht="15">
-      <c r="B76" s="40" t="s">
+    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="40" t="s">
+      <c r="D89" s="40" t="s">
         <v>671</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E89" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H76" s="40" t="s">
+      <c r="F89" s="50"/>
+      <c r="G89" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="40" t="s">
         <v>670</v>
       </c>
-      <c r="I76" s="40">
-        <v>0</v>
-      </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="42">
+      <c r="I89" s="40">
+        <v>0</v>
+      </c>
+      <c r="J89" s="43"/>
+      <c r="K89" s="42">
         <v>-6</v>
       </c>
-      <c r="L76" s="42">
+      <c r="L89" s="42">
         <v>3.9</v>
       </c>
-      <c r="M76" s="42">
-        <v>0</v>
-      </c>
-      <c r="N76" s="42">
-        <f>(L76-K76)/6</f>
+      <c r="M89" s="42">
+        <v>0</v>
+      </c>
+      <c r="N89" s="42">
+        <f>(L89-K89)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O76" s="42">
+      <c r="O89" s="42">
         <v>1</v>
       </c>
-      <c r="R76" s="40" t="s">
+      <c r="R89" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
-      <c r="B77" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="31" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E77" s="31" t="s">
+      <c r="E90" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F77" s="64"/>
-      <c r="G77" s="31" t="s">
+      <c r="F90" s="64"/>
+      <c r="G90" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I77" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="1:18" ht="15">
-      <c r="A78" s="49" t="b">
+      <c r="I90" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
-        <v>751</v>
-      </c>
-      <c r="C78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="D78" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="46" t="s">
+      <c r="B91" s="49" t="s">
+        <v>743</v>
+      </c>
+      <c r="C91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="D91" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="E91" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F78" s="46"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="49"/>
-      <c r="K78" s="49"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="46"/>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="46"/>
-    </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A79" s="40"/>
-      <c r="B79" s="50" t="s">
+      <c r="F91" s="46"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+    </row>
+    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="E79" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="50"/>
-      <c r="I79" s="50">
+      <c r="C92" s="50"/>
+      <c r="D92" s="50" t="s">
+        <v>737</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="50"/>
+      <c r="I92" s="50">
         <v>1</v>
       </c>
-      <c r="J79" s="50"/>
-      <c r="K79" s="50">
+      <c r="J92" s="50"/>
+      <c r="K92" s="50">
         <v>0.5</v>
       </c>
-      <c r="L79" s="50">
+      <c r="L92" s="50">
         <v>4.5</v>
       </c>
-      <c r="M79" s="42">
+      <c r="M92" s="42">
         <v>1.75</v>
       </c>
-      <c r="N79" s="40">
+      <c r="N92" s="40">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O79" s="50">
+      <c r="O92" s="50">
         <v>0.1</v>
       </c>
-      <c r="P79" s="40"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40" t="s">
+      <c r="P92" s="40"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50" t="s">
+    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="50"/>
+      <c r="B93" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50" t="s">
+      <c r="C93" s="50"/>
+      <c r="D93" s="50" t="s">
+        <v>739</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50">
+        <v>1</v>
+      </c>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="L93" s="50">
+        <v>4.5</v>
+      </c>
+      <c r="M93" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N93" s="50">
+        <v>0.25</v>
+      </c>
+      <c r="O93" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="50"/>
+      <c r="B94" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F94" s="50"/>
+      <c r="G94" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="50"/>
+      <c r="I94" s="50">
+        <v>1</v>
+      </c>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L94" s="50">
+        <v>3</v>
+      </c>
+      <c r="M94" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T94" s="31"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="C95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="D95" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="46"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="40"/>
+      <c r="B96" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" s="50"/>
+      <c r="D96" s="50" t="s">
         <v>747</v>
       </c>
-      <c r="E80" s="50" t="s">
-        <v>748</v>
-      </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="50"/>
-      <c r="I80" s="50">
+      <c r="E96" s="50" t="s">
+        <v>738</v>
+      </c>
+      <c r="F96" s="50"/>
+      <c r="G96" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H96" s="50"/>
+      <c r="I96" s="50">
         <v>1</v>
       </c>
-      <c r="J80" s="50"/>
-      <c r="K80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="L80" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M80" s="42">
+      <c r="J96" s="50"/>
+      <c r="K96" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L96" s="50">
+        <v>4</v>
+      </c>
+      <c r="M96" s="42">
         <v>1.75</v>
       </c>
-      <c r="N80" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O80" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50" t="s">
-        <v>749</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>750</v>
-      </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="50"/>
-      <c r="I81" s="50">
-        <v>1</v>
-      </c>
-      <c r="J81" s="50"/>
-      <c r="K81" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L81" s="50">
-        <v>3</v>
-      </c>
-      <c r="M81" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N81" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O81" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P81" s="42"/>
-      <c r="Q81" s="42"/>
-      <c r="R81" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="T81" s="31"/>
-    </row>
-    <row r="82" spans="1:20" ht="15">
-      <c r="A82" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B82" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="C82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="D82" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="E82" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
-      <c r="I82" s="49"/>
-      <c r="J82" s="49"/>
-      <c r="K82" s="49"/>
-      <c r="L82" s="49"/>
-      <c r="M82" s="46"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
-      <c r="Q82" s="46"/>
-      <c r="R82" s="46"/>
-    </row>
-    <row r="83" spans="1:20" ht="15">
-      <c r="A83" s="40"/>
-      <c r="B83" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50" t="s">
-        <v>755</v>
-      </c>
-      <c r="E83" s="50" t="s">
-        <v>746</v>
-      </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50">
-        <v>1</v>
-      </c>
-      <c r="J83" s="50"/>
-      <c r="K83" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L83" s="50">
-        <v>4</v>
-      </c>
-      <c r="M83" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N83" s="40">
+      <c r="N96" s="40">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O83" s="50">
+      <c r="O96" s="50">
         <v>0.1</v>
       </c>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40" t="s">
+      <c r="P96" s="40"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="15">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50" t="s">
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="50"/>
+      <c r="B97" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50" t="s">
-        <v>756</v>
-      </c>
-      <c r="E84" s="50" t="s">
+      <c r="C97" s="50"/>
+      <c r="D97" s="50" t="s">
         <v>748</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50">
+      <c r="E97" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="F97" s="50"/>
+      <c r="G97" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="50"/>
+      <c r="I97" s="50">
         <v>1</v>
       </c>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50">
+      <c r="J97" s="50"/>
+      <c r="K97" s="50">
         <v>0.5</v>
       </c>
-      <c r="L84" s="50">
+      <c r="L97" s="50">
         <v>4</v>
       </c>
-      <c r="M84" s="42">
+      <c r="M97" s="42">
         <v>1.75</v>
       </c>
-      <c r="N84" s="50">
+      <c r="N97" s="50">
         <v>0.25</v>
       </c>
-      <c r="O84" s="50">
+      <c r="O97" s="50">
         <v>0.1</v>
       </c>
-      <c r="P84" s="40"/>
-      <c r="Q84" s="40"/>
-      <c r="R84" s="40" t="s">
+      <c r="P97" s="40"/>
+      <c r="Q97" s="40"/>
+      <c r="R97" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="15">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50" t="s">
+    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="50"/>
+      <c r="B98" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="50"/>
-      <c r="D85" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="E85" s="50" t="s">
+      <c r="C98" s="50"/>
+      <c r="D98" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F98" s="50"/>
+      <c r="G98" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="50"/>
+      <c r="I98" s="50">
+        <v>1</v>
+      </c>
+      <c r="J98" s="50"/>
+      <c r="K98" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L98" s="50">
+        <v>3</v>
+      </c>
+      <c r="M98" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N98" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O98" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>776</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>775</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="56" t="s">
+        <v>779</v>
+      </c>
+      <c r="E100" s="56" t="s">
+        <v>777</v>
+      </c>
+      <c r="F100" s="64"/>
+      <c r="G100" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="56" t="s">
+        <v>659</v>
+      </c>
+      <c r="I100" s="56">
+        <v>1</v>
+      </c>
+      <c r="J100" s="59"/>
+      <c r="K100" s="58">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="58">
+        <v>1</v>
+      </c>
+      <c r="M100" s="58">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="58">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="58">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="56" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="40" t="s">
+        <v>780</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>778</v>
+      </c>
+      <c r="F101" s="50"/>
+      <c r="G101" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="43"/>
+      <c r="K101" s="42">
+        <v>0</v>
+      </c>
+      <c r="L101" s="42">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="42">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="42">
+        <f>(L101-K101)/6</f>
+        <v>500</v>
+      </c>
+      <c r="O101" s="42">
+        <v>50</v>
+      </c>
+      <c r="R101" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H85" s="50"/>
-      <c r="I85" s="50">
-        <v>1</v>
-      </c>
-      <c r="J85" s="50"/>
-      <c r="K85" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L85" s="50">
-        <v>3</v>
-      </c>
-      <c r="M85" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N85" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O85" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P85" s="42"/>
-      <c r="Q85" s="42"/>
-      <c r="R85" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="46" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" s="46" t="s">
-        <v>784</v>
-      </c>
-      <c r="C86" s="46" t="s">
-        <v>783</v>
-      </c>
-      <c r="D86" s="46" t="s">
-        <v>783</v>
-      </c>
-      <c r="E86" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="56" customFormat="1">
-      <c r="B87" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>787</v>
-      </c>
-      <c r="E87" s="56" t="s">
-        <v>785</v>
-      </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H87" s="56" t="s">
-        <v>659</v>
-      </c>
-      <c r="I87" s="56">
-        <v>1</v>
-      </c>
-      <c r="J87" s="59"/>
-      <c r="K87" s="58">
-        <v>0.9</v>
-      </c>
-      <c r="L87" s="58">
-        <v>1</v>
-      </c>
-      <c r="M87" s="58">
-        <v>0.95</v>
-      </c>
-      <c r="N87" s="58">
-        <f>(L87-K87)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O87" s="58">
-        <v>0.1</v>
-      </c>
-      <c r="R87" s="56" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15">
-      <c r="B88" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>788</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I88" s="40">
-        <v>1450</v>
-      </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="42">
-        <v>0</v>
-      </c>
-      <c r="L88" s="42">
-        <v>3000</v>
-      </c>
-      <c r="M88" s="42">
-        <v>1450</v>
-      </c>
-      <c r="N88" s="42">
-        <f>(L88-K88)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O88" s="42">
-        <v>50</v>
-      </c>
-      <c r="R88" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
-      <c r="A89" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>758</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>759</v>
-      </c>
-      <c r="E89" s="37" t="s">
+      <c r="C102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="D102" s="37" t="s">
+        <v>751</v>
+      </c>
+      <c r="E102" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="37"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
-      <c r="Q89" s="37"/>
-      <c r="R89" s="37"/>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="F90" s="64"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-    </row>
-    <row r="91" spans="1:20">
-      <c r="F91" s="47"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
-    </row>
-    <row r="92" spans="1:20">
-      <c r="F92" s="47"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-    </row>
-    <row r="93" spans="1:20">
-      <c r="F93" s="47"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-    </row>
-    <row r="94" spans="1:20">
-      <c r="F94" s="47"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-    </row>
-    <row r="95" spans="1:20">
-      <c r="F95" s="47"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
-    </row>
-    <row r="96" spans="1:20">
-      <c r="F96" s="47"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
-    </row>
-    <row r="97" spans="6:10">
-      <c r="F97" s="47"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
-    </row>
-    <row r="98" spans="6:10">
-      <c r="F98" s="47"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
-    </row>
-    <row r="99" spans="6:10">
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
-    </row>
-    <row r="100" spans="6:10">
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-    </row>
-    <row r="101" spans="6:10">
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-    </row>
-    <row r="102" spans="6:10">
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
-    </row>
-    <row r="103" spans="6:10">
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="38"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="37"/>
+      <c r="L102" s="37"/>
+      <c r="M102" s="37"/>
+      <c r="N102" s="37"/>
+      <c r="O102" s="37"/>
+      <c r="P102" s="37"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F103" s="64"/>
       <c r="I103" s="31"/>
       <c r="J103" s="31"/>
     </row>
-    <row r="104" spans="6:10">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F104" s="47"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
-    <row r="105" spans="6:10">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F105" s="47"/>
       <c r="I105" s="31"/>
       <c r="J105" s="31"/>
     </row>
-    <row r="106" spans="6:10">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F106" s="47"/>
       <c r="I106" s="31"/>
       <c r="J106" s="31"/>
     </row>
-    <row r="107" spans="6:10">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F107" s="47"/>
       <c r="I107" s="31"/>
       <c r="J107" s="31"/>
     </row>
-    <row r="108" spans="6:10">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F108" s="47"/>
       <c r="I108" s="31"/>
       <c r="J108" s="31"/>
     </row>
-    <row r="109" spans="6:10">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F109" s="47"/>
       <c r="I109" s="31"/>
       <c r="J109" s="31"/>
     </row>
-    <row r="110" spans="6:10">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F110" s="47"/>
       <c r="I110" s="31"/>
       <c r="J110" s="31"/>
     </row>
-    <row r="111" spans="6:10">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F111" s="47"/>
       <c r="I111" s="31"/>
       <c r="J111" s="31"/>
     </row>
-    <row r="112" spans="6:10">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
-    <row r="113" spans="9:10">
+    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I113" s="31"/>
       <c r="J113" s="31"/>
     </row>
-    <row r="114" spans="9:10">
+    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I114" s="31"/>
       <c r="J114" s="31"/>
     </row>
-    <row r="115" spans="9:10">
+    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I115" s="31"/>
       <c r="J115" s="31"/>
     </row>
-    <row r="116" spans="9:10">
+    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I116" s="31"/>
       <c r="J116" s="31"/>
     </row>
-    <row r="117" spans="9:10">
+    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I117" s="31"/>
       <c r="J117" s="31"/>
     </row>
-    <row r="118" spans="9:10">
+    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I118" s="31"/>
       <c r="J118" s="31"/>
     </row>
-    <row r="119" spans="9:10">
+    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I119" s="31"/>
       <c r="J119" s="31"/>
     </row>
-    <row r="120" spans="9:10">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120" s="31"/>
       <c r="J120" s="31"/>
     </row>
-    <row r="121" spans="9:10">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121" s="31"/>
       <c r="J121" s="31"/>
     </row>
-    <row r="122" spans="9:10">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122" s="31"/>
       <c r="J122" s="31"/>
     </row>
-    <row r="123" spans="9:10">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123" s="31"/>
       <c r="J123" s="31"/>
     </row>
-    <row r="124" spans="9:10">
+    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I124" s="31"/>
       <c r="J124" s="31"/>
     </row>
-    <row r="125" spans="9:10">
+    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I125" s="31"/>
       <c r="J125" s="31"/>
     </row>
-    <row r="126" spans="9:10">
+    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I126" s="31"/>
       <c r="J126" s="31"/>
     </row>
-    <row r="127" spans="9:10">
+    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I127" s="31"/>
       <c r="J127" s="31"/>
     </row>
-    <row r="128" spans="9:10">
+    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I128" s="31"/>
       <c r="J128" s="31"/>
     </row>
-    <row r="129" spans="9:10">
+    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I129" s="31"/>
       <c r="J129" s="31"/>
     </row>
-    <row r="130" spans="9:10">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I130" s="31"/>
       <c r="J130" s="31"/>
     </row>
-    <row r="131" spans="9:10">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I131" s="31"/>
       <c r="J131" s="31"/>
     </row>
-    <row r="132" spans="9:10">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I132" s="31"/>
       <c r="J132" s="31"/>
     </row>
-    <row r="133" spans="9:10">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I133" s="31"/>
       <c r="J133" s="31"/>
     </row>
-    <row r="134" spans="9:10">
+    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I134" s="31"/>
       <c r="J134" s="31"/>
     </row>
-    <row r="135" spans="9:10">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I135" s="31"/>
       <c r="J135" s="31"/>
     </row>
-    <row r="136" spans="9:10">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I136" s="31"/>
       <c r="J136" s="31"/>
     </row>
-    <row r="137" spans="9:10">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I137" s="31"/>
       <c r="J137" s="31"/>
     </row>
-    <row r="138" spans="9:10">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I138" s="31"/>
       <c r="J138" s="31"/>
     </row>
-    <row r="139" spans="9:10">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I139" s="31"/>
       <c r="J139" s="31"/>
     </row>
-    <row r="140" spans="9:10">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I140" s="31"/>
       <c r="J140" s="31"/>
     </row>
-    <row r="141" spans="9:10">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I141" s="31"/>
       <c r="J141" s="31"/>
     </row>
-    <row r="142" spans="9:10">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I142" s="31"/>
       <c r="J142" s="31"/>
     </row>
-    <row r="143" spans="9:10">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I143" s="31"/>
       <c r="J143" s="31"/>
     </row>
-    <row r="144" spans="9:10">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I144" s="31"/>
       <c r="J144" s="31"/>
     </row>
-    <row r="145" spans="9:10">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
     </row>
-    <row r="146" spans="9:10">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
     </row>
-    <row r="147" spans="9:10">
+    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I147" s="31"/>
       <c r="J147" s="31"/>
     </row>
-    <row r="148" spans="9:10">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I148" s="31"/>
       <c r="J148" s="31"/>
     </row>
-    <row r="149" spans="9:10">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I149" s="31"/>
       <c r="J149" s="31"/>
     </row>
-    <row r="150" spans="9:10">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I150" s="31"/>
       <c r="J150" s="31"/>
     </row>
-    <row r="151" spans="9:10">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I151" s="31"/>
       <c r="J151" s="31"/>
     </row>
-    <row r="152" spans="9:10">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I152" s="31"/>
       <c r="J152" s="31"/>
     </row>
-    <row r="153" spans="9:10">
+    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I153" s="31"/>
       <c r="J153" s="31"/>
     </row>
-    <row r="154" spans="9:10">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I154" s="31"/>
       <c r="J154" s="31"/>
     </row>
-    <row r="155" spans="9:10">
+    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I155" s="31"/>
       <c r="J155" s="31"/>
     </row>
-    <row r="156" spans="9:10">
+    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I156" s="31"/>
       <c r="J156" s="31"/>
     </row>
-    <row r="157" spans="9:10">
+    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I157" s="31"/>
       <c r="J157" s="31"/>
     </row>
-    <row r="158" spans="9:10">
+    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I158" s="31"/>
       <c r="J158" s="31"/>
     </row>
-    <row r="159" spans="9:10">
+    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I159" s="31"/>
       <c r="J159" s="31"/>
     </row>
-    <row r="160" spans="9:10">
+    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I160" s="31"/>
       <c r="J160" s="31"/>
     </row>
-    <row r="161" spans="9:10">
+    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I161" s="31"/>
       <c r="J161" s="31"/>
     </row>
-    <row r="162" spans="9:10">
+    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I162" s="31"/>
       <c r="J162" s="31"/>
     </row>
-    <row r="163" spans="9:10">
+    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I163" s="31"/>
       <c r="J163" s="31"/>
     </row>
-    <row r="164" spans="9:10">
+    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I164" s="31"/>
       <c r="J164" s="31"/>
     </row>
-    <row r="165" spans="9:10">
+    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I165" s="31"/>
       <c r="J165" s="31"/>
     </row>
-    <row r="166" spans="9:10">
+    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I166" s="31"/>
       <c r="J166" s="31"/>
     </row>
-    <row r="167" spans="9:10">
+    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I167" s="31"/>
       <c r="J167" s="31"/>
     </row>
-    <row r="168" spans="9:10">
+    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I168" s="31"/>
       <c r="J168" s="31"/>
     </row>
-    <row r="169" spans="9:10">
+    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I169" s="31"/>
       <c r="J169" s="31"/>
     </row>
-    <row r="170" spans="9:10">
+    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I170" s="31"/>
       <c r="J170" s="31"/>
     </row>
-    <row r="171" spans="9:10">
+    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I171" s="31"/>
       <c r="J171" s="31"/>
     </row>
-    <row r="172" spans="9:10">
+    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I172" s="31"/>
       <c r="J172" s="31"/>
     </row>
-    <row r="173" spans="9:10">
+    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I173" s="31"/>
       <c r="J173" s="31"/>
     </row>
-    <row r="174" spans="9:10">
+    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I174" s="31"/>
       <c r="J174" s="31"/>
     </row>
-    <row r="175" spans="9:10">
+    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I175" s="31"/>
       <c r="J175" s="31"/>
     </row>
-    <row r="176" spans="9:10">
+    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I176" s="31"/>
       <c r="J176" s="31"/>
     </row>
-    <row r="177" spans="9:10">
+    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I177" s="31"/>
       <c r="J177" s="31"/>
     </row>
-    <row r="178" spans="9:10">
+    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I178" s="31"/>
       <c r="J178" s="31"/>
     </row>
-    <row r="179" spans="9:10">
+    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I179" s="31"/>
       <c r="J179" s="31"/>
     </row>
-    <row r="180" spans="9:10">
+    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I180" s="31"/>
       <c r="J180" s="31"/>
     </row>
-    <row r="181" spans="9:10">
+    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I181" s="31"/>
       <c r="J181" s="31"/>
     </row>
-    <row r="182" spans="9:10">
+    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I182" s="31"/>
       <c r="J182" s="31"/>
     </row>
-    <row r="183" spans="9:10">
+    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I183" s="31"/>
       <c r="J183" s="31"/>
     </row>
-    <row r="184" spans="9:10">
+    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I184" s="31"/>
       <c r="J184" s="31"/>
     </row>
-    <row r="185" spans="9:10">
+    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I185" s="31"/>
       <c r="J185" s="31"/>
     </row>
-    <row r="186" spans="9:10">
+    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I186" s="31"/>
       <c r="J186" s="31"/>
     </row>
+    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I187" s="31"/>
+      <c r="J187" s="31"/>
+    </row>
+    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I188" s="31"/>
+      <c r="J188" s="31"/>
+    </row>
+    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I189" s="31"/>
+      <c r="J189" s="31"/>
+    </row>
+    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I190" s="31"/>
+      <c r="J190" s="31"/>
+    </row>
+    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I191" s="31"/>
+      <c r="J191" s="31"/>
+    </row>
+    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I192" s="31"/>
+      <c r="J192" s="31"/>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I193" s="31"/>
+      <c r="J193" s="31"/>
+    </row>
+    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I194" s="31"/>
+      <c r="J194" s="31"/>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I195" s="31"/>
+      <c r="J195" s="31"/>
+    </row>
+    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I196" s="31"/>
+      <c r="J196" s="31"/>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I197" s="31"/>
+      <c r="J197" s="31"/>
+    </row>
+    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I198" s="31"/>
+      <c r="J198" s="31"/>
+    </row>
+    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I199" s="31"/>
+      <c r="J199" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA113"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
@@ -9925,22 +10220,22 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
     <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="31" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="31"/>
+    <col min="12" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="60"/>
       <c r="C1" s="5"/>
@@ -9956,12 +10251,12 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -9994,12 +10289,12 @@
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10033,7 +10328,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>637</v>
       </c>
@@ -10062,7 +10357,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>638</v>
       </c>
@@ -10092,12 +10387,12 @@
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10124,12 +10419,12 @@
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10156,7 +10451,7 @@
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>682</v>
       </c>
@@ -10185,7 +10480,7 @@
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>684</v>
       </c>
@@ -10214,7 +10509,7 @@
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>686</v>
       </c>
@@ -10242,7 +10537,7 @@
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>688</v>
       </c>
@@ -10270,7 +10565,7 @@
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>690</v>
       </c>
@@ -10298,7 +10593,7 @@
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>692</v>
       </c>
@@ -10326,7 +10621,7 @@
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>694</v>
       </c>
@@ -10355,7 +10650,7 @@
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>696</v>
       </c>
@@ -10384,7 +10679,7 @@
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>698</v>
       </c>
@@ -10413,7 +10708,7 @@
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>700</v>
       </c>
@@ -10442,7 +10737,7 @@
       <c r="L17" s="30"/>
       <c r="M17" s="30"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>702</v>
       </c>
@@ -10471,7 +10766,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>704</v>
       </c>
@@ -10500,7 +10795,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>706</v>
       </c>
@@ -10529,7 +10824,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>708</v>
       </c>
@@ -10558,7 +10853,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>710</v>
       </c>
@@ -10587,7 +10882,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>713</v>
       </c>
@@ -10616,7 +10911,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>715</v>
       </c>
@@ -10645,7 +10940,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>717</v>
       </c>
@@ -10674,7 +10969,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>647</v>
       </c>
@@ -10703,7 +10998,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>649</v>
       </c>
@@ -10732,7 +11027,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>722</v>
       </c>
@@ -10760,7 +11055,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>723</v>
       </c>
@@ -10788,7 +11083,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>724</v>
       </c>
@@ -10816,7 +11111,7 @@
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>726</v>
       </c>
@@ -10844,7 +11139,7 @@
       <c r="L31" s="30"/>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>728</v>
       </c>
@@ -10872,7 +11167,7 @@
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>730</v>
       </c>
@@ -10900,14 +11195,14 @@
       <c r="L33" s="30"/>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -10923,14 +11218,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -10946,14 +11241,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -10969,13 +11264,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>
@@ -10990,175 +11285,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="30"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B39" s="30"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="30"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="30"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="30"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B44" s="30"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="30"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="30"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="30"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="30"/>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="30"/>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="30"/>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="30"/>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="30"/>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="30"/>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="30"/>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="30"/>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="30"/>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="30"/>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="30"/>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="30"/>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="30"/>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="30"/>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="30"/>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="30"/>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="30"/>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="30"/>
     </row>
-    <row r="67" spans="2:2">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="30"/>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="30"/>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="30"/>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="30"/>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="30"/>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="30"/>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="30"/>
     </row>
-    <row r="74" spans="2:2">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="30"/>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="30"/>
     </row>
-    <row r="76" spans="2:2">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="30"/>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="30"/>
     </row>
-    <row r="78" spans="2:2">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="30"/>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="30"/>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="30"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="30"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="30"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="30"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="30"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="30"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="30"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="30"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="30"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="30"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="30"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="30"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="30"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="30"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="30"/>
     </row>
   </sheetData>
@@ -11180,19 +11475,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11211,7 +11506,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11232,7 +11527,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11255,7 +11550,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11278,7 +11573,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11301,7 +11596,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11324,7 +11619,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11347,7 +11642,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11370,7 +11665,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11393,7 +11688,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11416,7 +11711,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11435,7 +11730,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11456,7 +11751,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11479,7 +11774,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11502,7 +11797,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11525,7 +11820,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11548,7 +11843,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11571,7 +11866,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11594,7 +11889,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11617,7 +11912,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11640,7 +11935,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11659,7 +11954,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11682,7 +11977,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11705,7 +12000,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11728,7 +12023,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11751,7 +12046,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11774,7 +12069,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11797,7 +12092,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11820,7 +12115,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11843,7 +12138,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11866,7 +12161,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11885,7 +12180,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11906,7 +12201,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11929,7 +12224,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11952,7 +12247,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11975,7 +12270,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11998,7 +12293,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12021,7 +12316,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12044,7 +12339,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12067,7 +12362,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12090,7 +12385,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12109,7 +12404,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12130,7 +12425,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12153,7 +12448,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12176,7 +12471,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12199,7 +12494,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12222,7 +12517,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12245,7 +12540,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12268,7 +12563,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12291,7 +12586,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12314,7 +12609,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12333,7 +12628,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12354,7 +12649,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12377,7 +12672,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12400,7 +12695,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12423,7 +12718,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12446,7 +12741,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12469,7 +12764,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12492,7 +12787,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12515,7 +12810,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12538,7 +12833,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12557,7 +12852,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12578,7 +12873,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12603,7 +12898,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12626,7 +12921,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12649,7 +12944,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12672,7 +12967,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12695,7 +12990,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12718,7 +13013,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12741,7 +13036,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12764,7 +13059,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12787,7 +13082,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12806,7 +13101,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12827,7 +13122,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12850,7 +13145,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12875,7 +13170,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12898,7 +13193,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12921,7 +13216,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12944,7 +13239,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12967,7 +13262,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12990,7 +13285,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13013,7 +13308,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13036,7 +13331,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13059,7 +13354,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13082,7 +13377,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13105,7 +13400,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13124,7 +13419,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13147,7 +13442,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13170,7 +13465,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13193,7 +13488,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13216,7 +13511,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13239,7 +13534,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13262,7 +13557,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13285,7 +13580,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13308,7 +13603,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13331,7 +13626,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13354,7 +13649,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13373,7 +13668,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13398,7 +13693,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13417,7 +13712,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13438,7 +13733,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13463,7 +13758,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13482,7 +13777,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13505,7 +13800,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13530,7 +13825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13553,7 +13848,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13574,7 +13869,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13593,7 +13888,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13618,7 +13913,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13641,7 +13936,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13664,7 +13959,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13687,7 +13982,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13710,7 +14005,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13733,7 +14028,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13756,7 +14051,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13775,7 +14070,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13798,7 +14093,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13821,7 +14116,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13844,7 +14139,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13863,7 +14158,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13886,7 +14181,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13909,7 +14204,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13932,7 +14227,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13955,7 +14250,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13978,7 +14273,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14001,7 +14296,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14020,7 +14315,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14045,7 +14340,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14068,7 +14363,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14091,7 +14386,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14114,7 +14409,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14137,7 +14432,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14160,7 +14455,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14183,7 +14478,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14206,7 +14501,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14229,7 +14524,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14248,7 +14543,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14273,7 +14568,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14294,7 +14589,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14317,7 +14612,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14340,7 +14635,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14363,7 +14658,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14386,7 +14681,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14409,7 +14704,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14432,7 +14727,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14455,7 +14750,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14478,7 +14773,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14501,7 +14796,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14524,7 +14819,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14547,7 +14842,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14570,7 +14865,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14589,7 +14884,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14612,7 +14907,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14631,7 +14926,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14654,7 +14949,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14677,7 +14972,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14696,7 +14991,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14721,7 +15016,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14744,7 +15039,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14767,7 +15062,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14790,7 +15085,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14813,7 +15108,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14836,7 +15131,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14859,7 +15154,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14882,7 +15177,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14905,7 +15200,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14928,7 +15223,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14947,7 +15242,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14972,7 +15267,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14995,7 +15290,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15018,7 +15313,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15041,7 +15336,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15064,7 +15359,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15087,7 +15382,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15110,7 +15405,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15133,7 +15428,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15156,7 +15451,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15179,7 +15474,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15198,7 +15493,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15221,7 +15516,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15244,7 +15539,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15267,7 +15562,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15290,7 +15585,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15309,7 +15604,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15627,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15650,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15673,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15696,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15420,7 +15715,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15441,7 +15736,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15464,7 +15759,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15483,7 +15778,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15506,7 +15801,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15531,7 +15826,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15552,7 +15847,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15577,7 +15872,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15897,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15621,7 +15916,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15646,7 +15941,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15669,7 +15964,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15692,7 +15987,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15715,7 +16010,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15738,7 +16033,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15761,7 +16056,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15784,7 +16079,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15807,7 +16102,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15830,7 +16125,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15849,7 +16144,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15874,7 +16169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15897,7 +16192,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15920,7 +16215,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15943,7 +16238,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15966,7 +16261,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15989,7 +16284,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16012,7 +16307,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16035,7 +16330,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16058,7 +16353,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16077,7 +16372,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16098,7 +16393,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16121,7 +16416,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16144,7 +16439,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16167,7 +16462,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16190,7 +16485,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16213,7 +16508,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16236,7 +16531,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16259,7 +16554,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16282,7 +16577,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16305,7 +16600,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16328,7 +16623,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16351,7 +16646,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16374,7 +16669,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16397,7 +16692,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16420,7 +16715,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16443,7 +16738,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16462,7 +16757,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16483,7 +16778,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16506,7 +16801,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16529,7 +16824,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16552,7 +16847,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16575,7 +16870,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16598,7 +16893,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16621,7 +16916,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16644,7 +16939,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16667,7 +16962,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16690,7 +16985,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16713,7 +17008,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16736,7 +17031,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16759,7 +17054,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16782,7 +17077,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16805,7 +17100,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16828,7 +17123,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16847,7 +17142,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16872,7 +17167,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16895,7 +17190,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16918,7 +17213,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16941,7 +17236,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16964,7 +17259,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16983,7 +17278,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17008,7 +17303,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17031,7 +17326,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17050,7 +17345,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17069,7 +17364,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17088,7 +17383,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17109,7 +17404,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17132,7 +17427,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17155,7 +17450,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17178,7 +17473,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17201,7 +17496,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17224,7 +17519,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17247,7 +17542,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17270,7 +17565,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17293,7 +17588,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17316,7 +17611,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17339,7 +17634,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17358,7 +17653,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17381,7 +17676,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17400,7 +17695,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17425,7 +17720,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17448,7 +17743,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17471,7 +17766,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17494,7 +17789,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17517,7 +17812,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17540,7 +17835,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17563,7 +17858,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17586,7 +17881,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17609,7 +17904,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17632,7 +17927,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17655,7 +17950,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17674,7 +17969,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17697,7 +17992,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17716,7 +18011,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17737,7 +18032,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17756,7 +18051,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17777,7 +18072,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17796,7 +18091,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17817,7 +18112,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17836,7 +18131,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17859,7 +18154,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17878,7 +18173,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17903,7 +18198,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17926,7 +18221,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17949,7 +18244,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17972,7 +18267,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17995,7 +18290,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18018,7 +18313,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18041,7 +18336,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18064,7 +18359,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18087,7 +18382,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18106,7 +18401,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18129,7 +18424,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18152,7 +18447,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18175,7 +18470,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18198,7 +18493,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18217,7 +18512,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18240,7 +18535,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18263,7 +18558,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18288,7 +18583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18307,7 +18602,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18332,7 +18627,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18355,7 +18650,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18374,7 +18669,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18395,7 +18690,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18416,7 +18711,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18439,7 +18734,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18458,7 +18753,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18477,7 +18772,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18502,7 +18797,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18527,7 +18822,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18541,7 +18836,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18564,7 +18859,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18584,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18604,7 +18899,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18624,7 +18919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18641,7 +18936,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18664,7 +18959,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18687,7 +18982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18701,7 +18996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18724,7 +19019,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18747,7 +19042,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18767,7 +19062,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18787,7 +19082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18804,7 +19099,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18830,7 +19125,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18859,7 +19154,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18898,7 +19193,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18912,7 +19207,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18932,7 +19227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18946,7 +19241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18966,7 +19261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18986,7 +19281,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -19006,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -19026,7 +19321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -19046,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -19066,7 +19361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -19086,7 +19381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -19106,7 +19401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -19126,7 +19421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -19140,7 +19435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -19160,7 +19455,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -19180,7 +19475,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -19196,7 +19491,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -19222,7 +19517,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19263,7 +19558,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -19277,7 +19572,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -19297,7 +19592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -19311,7 +19606,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -19350,17 +19645,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -19371,7 +19666,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>587</v>
       </c>
@@ -19385,7 +19680,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>590</v>
       </c>
@@ -19399,7 +19694,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>592</v>
       </c>
@@ -19413,7 +19708,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>594</v>
       </c>
@@ -19427,7 +19722,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>596</v>
       </c>
@@ -19441,7 +19736,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>438</v>
       </c>
@@ -19455,7 +19750,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>599</v>
       </c>
@@ -19469,7 +19764,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>601</v>
       </c>
@@ -19483,7 +19778,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>567</v>
       </c>
@@ -19497,7 +19792,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19511,7 +19806,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19522,8 +19817,8 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>545</v>
       </c>
@@ -19549,7 +19844,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>546</v>
       </c>
@@ -19590,7 +19885,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19631,7 +19926,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>540</v>
       </c>
@@ -19663,7 +19958,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>548</v>
       </c>
@@ -19695,7 +19990,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>547</v>
       </c>
@@ -19724,7 +20019,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>549</v>
       </c>
@@ -19756,7 +20051,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>550</v>
       </c>
@@ -19776,7 +20071,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>642</v>
       </c>
@@ -19799,7 +20094,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>556</v>
       </c>
@@ -19810,7 +20105,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>537</v>
       </c>
@@ -19818,7 +20113,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>539</v>
       </c>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -2497,6 +2497,12 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
   </si>
 </sst>
 </file>
@@ -7226,11 +7232,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z199"/>
+  <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7559,60 +7565,60 @@
       </c>
       <c r="J12" s="31"/>
     </row>
-    <row r="13" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="b">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>820</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="48" t="s">
+        <v>812</v>
+      </c>
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>813</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="31" t="s">
-        <v>732</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>164</v>
+        <v>798</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7621,17 +7627,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>803</v>
+        <v>164</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7640,17 +7646,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>650</v>
+        <v>816</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7659,17 +7665,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>817</v>
+        <v>650</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7678,17 +7684,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>733</v>
+        <v>807</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>734</v>
+        <v>808</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="I19" s="48" t="s">
-        <v>765</v>
+      <c r="I19" s="31" t="s">
+        <v>817</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7697,17 +7703,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7716,199 +7722,200 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>810</v>
+        <v>735</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>811</v>
+        <v>736</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="I21" s="48" t="s">
+        <v>766</v>
+      </c>
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>811</v>
+      </c>
+      <c r="F22" s="64"/>
+      <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I22" s="48" t="s">
         <v>818</v>
       </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="b">
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B23" s="37" t="s">
         <v>646</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D23" s="37" t="s">
         <v>645</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="E23" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="b">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E24" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="30" t="s">
+    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="64"/>
-      <c r="G24" s="30" t="s">
+      <c r="F25" s="64"/>
+      <c r="G25" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="I25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J25" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="P24" s="31"/>
-    </row>
-    <row r="25" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="40" t="s">
+      <c r="P25" s="31"/>
+    </row>
+    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>681</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E26" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="42">
-        <v>0</v>
-      </c>
-      <c r="L25" s="42">
+      <c r="F26" s="50"/>
+      <c r="G26" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="40">
+        <v>0</v>
+      </c>
+      <c r="K26" s="42">
+        <v>0</v>
+      </c>
+      <c r="L26" s="42">
         <v>100</v>
       </c>
-      <c r="M25" s="42">
+      <c r="M26" s="42">
         <v>15</v>
       </c>
-      <c r="N25" s="42">
-        <f>(L25-K25)/6</f>
+      <c r="N26" s="42">
+        <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O26" s="42">
         <v>1</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R26" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="30" t="s">
+    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="30" t="s">
         <v>673</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E27" s="30" t="s">
         <v>674</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="30">
+      <c r="F27" s="64"/>
+      <c r="G27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="57" t="s">
+    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="E27" s="56" t="s">
+      <c r="E28" s="56" t="s">
         <v>675</v>
       </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="56">
-        <v>0</v>
-      </c>
-      <c r="K27" s="58">
-        <v>0</v>
-      </c>
-      <c r="L27" s="58">
+      <c r="F28" s="64"/>
+      <c r="G28" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="56">
+        <v>0</v>
+      </c>
+      <c r="K28" s="58">
+        <v>0</v>
+      </c>
+      <c r="L28" s="58">
         <v>0.1</v>
       </c>
-      <c r="M27" s="58">
+      <c r="M28" s="58">
         <v>0.05</v>
       </c>
-      <c r="N27" s="58">
-        <f>(L27-K27)/6</f>
+      <c r="N28" s="58">
+        <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O27" s="58">
+      <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R27" s="56" t="s">
+      <c r="R28" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="30" t="s">
+    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="30" t="s">
         <v>678</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
         <v>62</v>
       </c>
@@ -7921,10 +7928,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>69</v>
+        <v>680</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>46</v>
+        <v>679</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="30" t="s">
@@ -7939,10 +7946,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F31" s="65"/>
       <c r="G31" s="30" t="s">
@@ -7957,132 +7964,123 @@
         <v>21</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" s="65"/>
       <c r="G32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="65"/>
+      <c r="G33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I33" s="30">
         <v>1</v>
       </c>
-      <c r="P32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="b">
+      <c r="P33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D34" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
+    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="30" t="s">
+      <c r="F35" s="65"/>
+      <c r="G35" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30" t="s">
+      <c r="H35" s="30"/>
+      <c r="I35" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="J35" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="Q34" s="39"/>
-    </row>
-    <row r="35" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="52" t="s">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="Q35" s="39"/>
+    </row>
+    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>655</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E36" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="52">
-        <v>0</v>
-      </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54">
+      <c r="F36" s="65"/>
+      <c r="G36" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="52">
+        <v>0</v>
+      </c>
+      <c r="J36" s="53"/>
+      <c r="K36" s="54">
         <v>-40</v>
       </c>
-      <c r="L35" s="54">
+      <c r="L36" s="54">
         <v>40</v>
       </c>
-      <c r="M35" s="54">
-        <v>0</v>
-      </c>
-      <c r="N35" s="54">
-        <f>(L35-K35)/6</f>
+      <c r="M36" s="54">
+        <v>0</v>
+      </c>
+      <c r="N36" s="54">
+        <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O35" s="54">
+      <c r="O36" s="54">
         <v>1</v>
       </c>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="52" t="s">
+      <c r="Q36" s="55"/>
+      <c r="R36" s="52" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="Q36" s="39"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
@@ -8090,11 +8088,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>47</v>
+      <c r="D37" s="44" t="s">
+        <v>45</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" s="65"/>
       <c r="G37" s="30" t="s">
@@ -8118,14 +8116,14 @@
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F38" s="65"/>
       <c r="G38" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="30"/>
       <c r="I38" s="30">
@@ -8145,18 +8143,18 @@
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F39" s="65"/>
       <c r="G39" s="30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H39" s="30"/>
-      <c r="I39" s="30" t="b">
-        <v>1</v>
+      <c r="I39" s="30">
+        <v>0</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8172,18 +8170,18 @@
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" s="65"/>
       <c r="G40" s="30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="30"/>
-      <c r="I40" s="30">
-        <v>15</v>
+      <c r="I40" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8199,18 +8197,18 @@
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="65"/>
       <c r="G41" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H41" s="30"/>
       <c r="I41" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8226,18 +8224,18 @@
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F42" s="65"/>
       <c r="G42" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="30"/>
       <c r="I42" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8246,117 +8244,123 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="39"/>
     </row>
-    <row r="43" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46" t="b">
+    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30">
         <v>1</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="Q43" s="39"/>
+    </row>
+    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D44" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E44" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" s="30" t="s">
+    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="E44" s="30" t="s">
+      <c r="E45" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="65"/>
-      <c r="G44" s="30" t="s">
+      <c r="F45" s="65"/>
+      <c r="G45" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I44" s="30" t="s">
+      <c r="I45" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="J44" s="30" t="s">
+      <c r="J45" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="40" t="s">
+    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D46" s="40" t="s">
         <v>658</v>
       </c>
-      <c r="E45" s="40" t="s">
+      <c r="E46" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="50"/>
-      <c r="G45" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H45" s="40" t="s">
+      <c r="F46" s="50"/>
+      <c r="G46" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I45" s="40">
-        <v>0</v>
-      </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="42">
+      <c r="I46" s="40">
+        <v>0</v>
+      </c>
+      <c r="J46" s="43"/>
+      <c r="K46" s="42">
         <v>-80</v>
       </c>
-      <c r="L45" s="42">
+      <c r="L46" s="42">
         <v>80</v>
       </c>
-      <c r="M45" s="42">
-        <v>0</v>
-      </c>
-      <c r="N45" s="42">
-        <f>(L45-K45)/6</f>
+      <c r="M46" s="42">
+        <v>0</v>
+      </c>
+      <c r="N46" s="42">
+        <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O45" s="42">
+      <c r="O46" s="42">
         <v>1</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="R46" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="30" t="s">
+    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>660</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="E47" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I46" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F47" s="64"/>
+      <c r="F47" s="65"/>
       <c r="G47" s="30" t="s">
         <v>62</v>
       </c>
@@ -8372,17 +8376,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="64"/>
       <c r="G48" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8393,16 +8397,19 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="64"/>
       <c r="G49" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I49" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8411,20 +8418,17 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="64"/>
       <c r="G50" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H50" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I50" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I50" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8432,138 +8436,141 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="64"/>
       <c r="G51" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I51" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>666</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="64"/>
+      <c r="G52" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="30" t="s">
         <v>659</v>
       </c>
-      <c r="I51" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
+      <c r="I52" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="30" t="s">
         <v>667</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E53" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="30" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H53" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I52" s="30">
+      <c r="I53" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="b">
+    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="46" t="s">
+      <c r="B54" s="46" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="46" t="s">
+      <c r="C54" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="D53" s="46" t="s">
+      <c r="D54" s="46" t="s">
         <v>762</v>
       </c>
-      <c r="E53" s="46" t="s">
+      <c r="E54" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="30" t="s">
+    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E55" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="30" t="s">
+      <c r="F55" s="65"/>
+      <c r="G55" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I54" s="51" t="s">
+      <c r="I55" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J54" s="30" t="s">
+      <c r="J55" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="40" t="s">
+    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D56" s="40" t="s">
         <v>763</v>
       </c>
-      <c r="E55" s="40" t="s">
+      <c r="E56" s="40" t="s">
         <v>764</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="40" t="s">
+      <c r="F56" s="50"/>
+      <c r="G56" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I56" s="40">
         <v>0.8</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="42">
+      <c r="J56" s="43"/>
+      <c r="K56" s="42">
         <v>0.78</v>
       </c>
-      <c r="L55" s="42">
+      <c r="L56" s="42">
         <v>0.98</v>
       </c>
-      <c r="M55" s="42">
+      <c r="M56" s="42">
         <v>0.8</v>
       </c>
-      <c r="N55" s="42">
-        <f>(L55-K55)/6</f>
+      <c r="N56" s="42">
+        <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O55" s="42">
+      <c r="O56" s="42">
         <v>1</v>
       </c>
-      <c r="R55" s="40" t="s">
+      <c r="R56" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8571,19 +8578,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H57" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I57" s="30">
+        <v>61</v>
+      </c>
+      <c r="I57" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8592,10 +8596,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="30" t="s">
@@ -8613,37 +8617,40 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I59" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="31"/>
+      <c r="G60" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H59" s="30" t="s">
+      <c r="H60" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="65"/>
-      <c r="G60" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="30" t="b">
+      <c r="I60" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8652,20 +8659,17 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F61" s="65"/>
       <c r="G61" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H61" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I61" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8673,20 +8677,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="65"/>
       <c r="G62" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I62" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8694,117 +8698,120 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F63" s="65"/>
       <c r="G63" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I63" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="65"/>
+      <c r="G64" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H64" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I63" s="30">
+      <c r="I64" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46" t="b">
+    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B65" s="46" t="s">
         <v>768</v>
       </c>
-      <c r="C64" s="46" t="s">
+      <c r="C65" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="D64" s="46" t="s">
+      <c r="D65" s="46" t="s">
         <v>767</v>
       </c>
-      <c r="E64" s="46" t="s">
+      <c r="E65" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D65" s="30" t="s">
+    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="30" t="s">
         <v>769</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E66" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="65"/>
-      <c r="G65" s="30" t="s">
+      <c r="F66" s="65"/>
+      <c r="G66" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="51" t="s">
+      <c r="I66" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J65" s="30" t="s">
+      <c r="J66" s="30" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="40" t="s">
+    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D67" s="40" t="s">
         <v>770</v>
       </c>
-      <c r="E66" s="40" t="s">
+      <c r="E67" s="40" t="s">
         <v>771</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="40" t="s">
+      <c r="F67" s="50"/>
+      <c r="G67" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I67" s="40">
         <v>4</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="42">
-        <v>2</v>
-      </c>
-      <c r="L66" s="42">
+      <c r="J67" s="43"/>
+      <c r="K67" s="42">
+        <v>2</v>
+      </c>
+      <c r="L67" s="42">
         <v>5</v>
       </c>
-      <c r="M66" s="42">
+      <c r="M67" s="42">
         <v>4</v>
       </c>
-      <c r="N66" s="42">
-        <f>(L66-K66)/6</f>
+      <c r="N67" s="42">
+        <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O66" s="42">
+      <c r="O67" s="42">
         <v>0.25</v>
       </c>
-      <c r="R66" s="40" t="s">
+      <c r="R67" s="40" t="s">
         <v>654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I67" s="30" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8812,19 +8819,16 @@
         <v>21</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F68" s="65"/>
       <c r="G68" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H68" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I68" s="30">
+        <v>61</v>
+      </c>
+      <c r="I68" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8833,10 +8837,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F69" s="65"/>
       <c r="G69" s="30" t="s">
@@ -8854,17 +8858,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F70" s="65"/>
       <c r="G70" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8875,16 +8879,19 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F71" s="65"/>
       <c r="G71" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I71" s="30" t="b">
+        <v>63</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="I71" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8893,20 +8900,17 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F72" s="65"/>
       <c r="G72" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I72" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I72" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8914,20 +8918,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F73" s="65"/>
       <c r="G73" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I73" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8935,99 +8939,79 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F74" s="65"/>
       <c r="G74" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I74" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="65"/>
+      <c r="G75" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="30" t="s">
+      <c r="H75" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I74" s="30">
+      <c r="I75" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46" t="b">
+    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="46" t="s">
+      <c r="B76" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="C75" s="46" t="s">
+      <c r="C76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="D75" s="46" t="s">
+      <c r="D76" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="46" t="s">
+      <c r="E76" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="30" t="s">
+    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="E76" s="30" t="s">
+      <c r="E77" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="65"/>
-      <c r="G76" s="30" t="s">
+      <c r="F77" s="65"/>
+      <c r="G77" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="51" t="s">
+      <c r="I77" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="J76" s="30" t="s">
+      <c r="J77" s="30" t="s">
         <v>416</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>772</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H77" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="I77" s="40">
-        <v>0</v>
-      </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="42">
-        <v>-20</v>
-      </c>
-      <c r="L77" s="42">
-        <v>14</v>
-      </c>
-      <c r="M77" s="42">
-        <v>0</v>
-      </c>
-      <c r="N77" s="42">
-        <f>(L77-K77)/6</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="O77" s="42">
-        <v>1</v>
-      </c>
-      <c r="R77" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9035,10 +9019,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>774</v>
+        <v>243</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="40" t="s">
@@ -9052,17 +9036,17 @@
       </c>
       <c r="J78" s="43"/>
       <c r="K78" s="42">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L78" s="42">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M78" s="42">
         <v>0</v>
       </c>
       <c r="N78" s="42">
         <f>(L78-K78)/6</f>
-        <v>9.1666666666666661</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="O78" s="42">
         <v>1</v>
@@ -9071,22 +9055,45 @@
         <v>654</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="65"/>
-      <c r="G79" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I79" s="30" t="b">
-        <v>0</v>
+    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="40" t="s">
+        <v>773</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>774</v>
+      </c>
+      <c r="F79" s="50"/>
+      <c r="G79" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="40" t="s">
+        <v>659</v>
+      </c>
+      <c r="I79" s="40">
+        <v>0</v>
+      </c>
+      <c r="J79" s="43"/>
+      <c r="K79" s="42">
+        <v>-25</v>
+      </c>
+      <c r="L79" s="42">
+        <v>30</v>
+      </c>
+      <c r="M79" s="42">
+        <v>0</v>
+      </c>
+      <c r="N79" s="42">
+        <f>(L79-K79)/6</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="O79" s="42">
+        <v>1</v>
+      </c>
+      <c r="R79" s="40" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9094,19 +9101,16 @@
         <v>21</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>660</v>
+        <v>347</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="F80" s="65"/>
       <c r="G80" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="I80" s="30">
+        <v>61</v>
+      </c>
+      <c r="I80" s="30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9115,10 +9119,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F81" s="65"/>
       <c r="G81" s="30" t="s">
@@ -9136,37 +9140,40 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F82" s="65"/>
       <c r="G82" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I82" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="65"/>
+      <c r="G83" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H82" s="30" t="s">
+      <c r="H83" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
-        <v>664</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F83" s="64"/>
-      <c r="G83" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I83" s="30" t="b">
+      <c r="I83" s="30">
         <v>0</v>
       </c>
     </row>
@@ -9175,20 +9182,17 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F84" s="64"/>
       <c r="G84" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>663</v>
-      </c>
-      <c r="I84" s="30">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="I84" s="30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9196,20 +9200,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" s="64"/>
       <c r="G85" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I85" s="30">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -9217,78 +9221,58 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F86" s="64"/>
       <c r="G86" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="I86" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="30" t="s">
+        <v>667</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="64"/>
+      <c r="G87" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H86" s="30" t="s">
+      <c r="H87" s="30" t="s">
         <v>663</v>
       </c>
-      <c r="I86" s="30">
+      <c r="I87" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46" t="b">
+    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="B87" s="46" t="s">
+      <c r="B88" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C87" s="46" t="s">
+      <c r="C88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="D87" s="46" t="s">
+      <c r="D88" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="E87" s="46" t="s">
+      <c r="E88" s="46" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B88" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H88" s="40" t="s">
-        <v>670</v>
-      </c>
-      <c r="I88" s="40">
-        <v>0</v>
-      </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="42">
-        <v>-6</v>
-      </c>
-      <c r="L88" s="42">
-        <v>2</v>
-      </c>
-      <c r="M88" s="42">
-        <v>0</v>
-      </c>
-      <c r="N88" s="42">
-        <f>(L88-K88)/6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="O88" s="42">
-        <v>1</v>
-      </c>
-      <c r="R88" s="40" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9296,10 +9280,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="E89" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="40" t="s">
@@ -9316,14 +9300,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="42">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="M89" s="42">
         <v>0</v>
       </c>
       <c r="N89" s="42">
         <f>(L89-K89)/6</f>
-        <v>1.6500000000000001</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="O89" s="42">
         <v>1</v>
@@ -9332,113 +9316,111 @@
         <v>654</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B90" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D90" s="31" t="s">
+    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="E90" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="50"/>
+      <c r="G90" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="I90" s="40">
+        <v>0</v>
+      </c>
+      <c r="J90" s="43"/>
+      <c r="K90" s="42">
+        <v>-6</v>
+      </c>
+      <c r="L90" s="42">
+        <v>3.9</v>
+      </c>
+      <c r="M90" s="42">
+        <v>0</v>
+      </c>
+      <c r="N90" s="42">
+        <f>(L90-K90)/6</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="O90" s="42">
+        <v>1</v>
+      </c>
+      <c r="R90" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="31" t="s">
         <v>672</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E91" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="F90" s="64"/>
-      <c r="G90" s="31" t="s">
+      <c r="F91" s="64"/>
+      <c r="G91" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="I90" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="49" t="b">
+      <c r="I91" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="49" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="49" t="s">
+      <c r="B92" s="49" t="s">
         <v>743</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="D91" s="49" t="s">
+      <c r="D92" s="49" t="s">
         <v>744</v>
       </c>
-      <c r="E91" s="46" t="s">
+      <c r="E92" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F91" s="46"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="49"/>
-      <c r="K91" s="49"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="46"/>
-      <c r="N91" s="46"/>
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
-      <c r="Q91" s="46"/>
-      <c r="R91" s="46"/>
-    </row>
-    <row r="92" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E92" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H92" s="50"/>
-      <c r="I92" s="50">
-        <v>1</v>
-      </c>
-      <c r="J92" s="50"/>
-      <c r="K92" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L92" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M92" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N92" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O92" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F92" s="46"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
     </row>
     <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="50"/>
+      <c r="A93" s="40"/>
       <c r="B93" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9450,7 +9432,7 @@
       </c>
       <c r="J93" s="50"/>
       <c r="K93" s="50">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L93" s="50">
         <v>4.5</v>
@@ -9458,7 +9440,8 @@
       <c r="M93" s="42">
         <v>1.75</v>
       </c>
-      <c r="N93" s="50">
+      <c r="N93" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O93" s="50">
@@ -9477,10 +9460,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9492,111 +9475,110 @@
       </c>
       <c r="J94" s="50"/>
       <c r="K94" s="50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L94" s="50">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M94" s="42">
         <v>1.75</v>
       </c>
-      <c r="N94" s="42">
+      <c r="N94" s="50">
         <v>0.25</v>
       </c>
-      <c r="O94" s="42">
+      <c r="O94" s="50">
         <v>0.1</v>
       </c>
-      <c r="P94" s="42"/>
-      <c r="Q94" s="42"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
         <v>654</v>
       </c>
-      <c r="T94" s="31"/>
-    </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49" t="b">
+    </row>
+    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="50"/>
+      <c r="B95" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="50"/>
+      <c r="D95" s="50" t="s">
+        <v>741</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50">
         <v>1</v>
       </c>
-      <c r="B95" s="49" t="s">
+      <c r="J95" s="50"/>
+      <c r="K95" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="50">
+        <v>3</v>
+      </c>
+      <c r="M95" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="T95" s="31"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="49" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D96" s="49" t="s">
         <v>746</v>
       </c>
-      <c r="E95" s="46" t="s">
+      <c r="E96" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="F95" s="46"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49"/>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49"/>
-      <c r="L95" s="49"/>
-      <c r="M95" s="46"/>
-      <c r="N95" s="46"/>
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
-      <c r="Q95" s="46"/>
-      <c r="R95" s="46"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="50"/>
-      <c r="D96" s="50" t="s">
-        <v>747</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H96" s="50"/>
-      <c r="I96" s="50">
-        <v>1</v>
-      </c>
-      <c r="J96" s="50"/>
-      <c r="K96" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L96" s="50">
-        <v>4</v>
-      </c>
-      <c r="M96" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N96" s="40">
-        <f>1.5/6</f>
-        <v>0.25</v>
-      </c>
-      <c r="O96" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P96" s="40"/>
-      <c r="Q96" s="40"/>
-      <c r="R96" s="40" t="s">
-        <v>654</v>
-      </c>
+      <c r="F96" s="46"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="50"/>
+      <c r="A97" s="40"/>
       <c r="B97" s="50" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9616,7 +9598,8 @@
       <c r="M97" s="42">
         <v>1.75</v>
       </c>
-      <c r="N97" s="50">
+      <c r="N97" s="40">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
       <c r="O97" s="50">
@@ -9635,10 +9618,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9653,159 +9636,196 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M98" s="42">
         <v>1.75</v>
       </c>
-      <c r="N98" s="42">
+      <c r="N98" s="50">
         <v>0.25</v>
       </c>
-      <c r="O98" s="42">
+      <c r="O98" s="50">
         <v>0.1</v>
       </c>
-      <c r="P98" s="42"/>
-      <c r="Q98" s="42"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="b">
+    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="50"/>
+      <c r="B99" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C99" s="50"/>
+      <c r="D99" s="50" t="s">
+        <v>749</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>742</v>
+      </c>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="50"/>
+      <c r="I99" s="50">
         <v>1</v>
       </c>
-      <c r="B99" s="46" t="s">
+      <c r="J99" s="50"/>
+      <c r="K99" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="L99" s="50">
+        <v>3</v>
+      </c>
+      <c r="M99" s="42">
+        <v>1.75</v>
+      </c>
+      <c r="N99" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="O99" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="40" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" s="46" t="s">
         <v>776</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="C100" s="46" t="s">
         <v>775</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D100" s="46" t="s">
         <v>775</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E100" s="46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="56" t="s">
+    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="56" t="s">
         <v>779</v>
       </c>
-      <c r="E100" s="56" t="s">
+      <c r="E101" s="56" t="s">
         <v>777</v>
       </c>
-      <c r="F100" s="64"/>
-      <c r="G100" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" s="56" t="s">
+      <c r="F101" s="64"/>
+      <c r="G101" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="56" t="s">
         <v>659</v>
       </c>
-      <c r="I100" s="56">
+      <c r="I101" s="56">
         <v>1</v>
       </c>
-      <c r="J100" s="59"/>
-      <c r="K100" s="58">
+      <c r="J101" s="59"/>
+      <c r="K101" s="58">
         <v>0.9</v>
       </c>
-      <c r="L100" s="58">
+      <c r="L101" s="58">
         <v>1</v>
       </c>
-      <c r="M100" s="58">
+      <c r="M101" s="58">
         <v>0.95</v>
       </c>
-      <c r="N100" s="58">
-        <f>(L100-K100)/6</f>
+      <c r="N101" s="58">
+        <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O100" s="58">
+      <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R100" s="56" t="s">
+      <c r="R101" s="56" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="40" t="s">
+    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D102" s="40" t="s">
         <v>780</v>
       </c>
-      <c r="E101" s="40" t="s">
+      <c r="E102" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="40" t="s">
+      <c r="F102" s="50"/>
+      <c r="G102" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="40" t="s">
         <v>659</v>
       </c>
-      <c r="I101" s="40">
+      <c r="I102" s="40">
         <v>1450</v>
       </c>
-      <c r="J101" s="43"/>
-      <c r="K101" s="42">
-        <v>0</v>
-      </c>
-      <c r="L101" s="42">
+      <c r="J102" s="43"/>
+      <c r="K102" s="42">
+        <v>0</v>
+      </c>
+      <c r="L102" s="42">
         <v>3000</v>
       </c>
-      <c r="M101" s="42">
+      <c r="M102" s="42">
         <v>1450</v>
       </c>
-      <c r="N101" s="42">
-        <f>(L101-K101)/6</f>
+      <c r="N102" s="42">
+        <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O101" s="42">
+      <c r="O102" s="42">
         <v>50</v>
       </c>
-      <c r="R101" s="40" t="s">
+      <c r="R102" s="40" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="37" t="b">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B103" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D103" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E103" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="37"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="37"/>
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
-      <c r="Q102" s="37"/>
-      <c r="R102" s="37"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F103" s="64"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="37"/>
+      <c r="L103" s="37"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="37"/>
+      <c r="O103" s="37"/>
+      <c r="P103" s="37"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="47"/>
+      <c r="F104" s="64"/>
       <c r="I104" s="31"/>
       <c r="J104" s="31"/>
     </row>
@@ -9845,6 +9865,7 @@
       <c r="J111" s="31"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F112" s="47"/>
       <c r="I112" s="31"/>
       <c r="J112" s="31"/>
     </row>
@@ -10196,8 +10217,12 @@
       <c r="I199" s="31"/>
       <c r="J199" s="31"/>
     </row>
+    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+      <c r="I200" s="31"/>
+      <c r="J200" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AA126"/>
+  <autoFilter ref="A2:AA127"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2424,9 +2424,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>1.12.4</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityDataElectric</t>
   </si>
   <si>
@@ -2503,6 +2500,9 @@
   </si>
   <si>
     <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>1.12.5</t>
   </si>
 </sst>
 </file>
@@ -6801,7 +6801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6860,7 +6860,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>794</v>
+        <v>820</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -7399,13 +7399,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>794</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>795</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>796</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7418,17 +7418,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>797</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>798</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7437,7 +7437,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7447,7 +7447,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>802</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>803</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7475,10 +7475,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
@@ -7494,17 +7494,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>807</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>808</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7551,17 +7551,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>811</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7570,17 +7570,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>819</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>820</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7589,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7608,17 +7608,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>796</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>797</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>798</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7627,7 +7627,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7637,7 +7637,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7646,17 +7646,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>802</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>803</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7665,10 +7665,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>805</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>806</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
@@ -7684,17 +7684,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>807</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>808</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7741,17 +7741,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>810</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>811</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J22" s="31"/>
     </row>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2391,18 +2391,6 @@
     <t>0.4.2</t>
   </si>
   <si>
-    <t>../ASHRAE_example/lib</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../ASHRAE_example/measures</t>
-  </si>
-  <si>
     <t>Parameter Short Display Name</t>
   </si>
   <si>
@@ -2503,6 +2491,18 @@
   </si>
   <si>
     <t>1.12.5</t>
+  </si>
+  <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
   </si>
 </sst>
 </file>
@@ -6801,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6849,7 +6849,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6860,7 +6860,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6871,7 +6871,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6953,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
@@ -7146,7 +7146,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>785</v>
+        <v>818</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>784</v>
+        <v>819</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7201,7 +7201,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>783</v>
+        <v>820</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -7334,7 +7334,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7399,13 +7399,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7418,17 +7418,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7437,7 +7437,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7447,7 +7447,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7475,10 +7475,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
@@ -7494,17 +7494,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7551,17 +7551,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7570,17 +7570,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7589,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7608,17 +7608,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7627,7 +7627,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7637,7 +7637,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7646,17 +7646,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7665,10 +7665,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
@@ -7684,17 +7684,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7741,17 +7741,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -10281,7 +10281,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10319,7 +10319,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10417,7 +10417,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10449,7 +10449,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2385,9 +2385,6 @@
     <t>Baseboard Nominal Capacity (W)</t>
   </si>
   <si>
-    <t>SEB4 baseboard LHS 2013</t>
-  </si>
-  <si>
     <t>0.4.2</t>
   </si>
   <si>
@@ -2409,9 +2406,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>AddMonthlyJSONUtilityDataElectric</t>
   </si>
   <si>
@@ -2490,9 +2484,6 @@
     <t>set_runperiod</t>
   </si>
   <si>
-    <t>1.12.5</t>
-  </si>
-  <si>
     <t>../Calibration_example/measures</t>
   </si>
   <si>
@@ -2503,6 +2494,15 @@
   </si>
   <si>
     <t>../Calibration_example/lib</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard LHS 2013 184</t>
+  </si>
+  <si>
+    <t>default3</t>
+  </si>
+  <si>
+    <t>1.13.4</t>
   </si>
 </sst>
 </file>
@@ -6801,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6838,7 +6838,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6849,7 +6849,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6860,7 +6860,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6871,7 +6871,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6942,7 +6942,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>781</v>
+        <v>818</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6953,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>652</v>
@@ -7146,7 +7146,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7201,7 +7201,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
@@ -7334,7 +7334,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7399,13 +7399,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7418,17 +7418,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7437,7 +7437,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
@@ -7447,7 +7447,7 @@
         <v>732</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7475,10 +7475,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
@@ -7494,17 +7494,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7551,17 +7551,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7570,17 +7570,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7589,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7608,17 +7608,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7627,7 +7627,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
@@ -7637,7 +7637,7 @@
         <v>732</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7646,17 +7646,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7665,10 +7665,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
@@ -7684,17 +7684,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
         <v>732</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7741,17 +7741,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -10281,7 +10281,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10319,7 +10319,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10417,7 +10417,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10449,7 +10449,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="820">
   <si>
     <t>type</t>
   </si>
@@ -1977,12 +1977,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>CalibrationReports</t>
-  </si>
-  <si>
-    <t>Calibration Reports</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2010,12 +2004,6 @@
     <t>Lighting Power Reduction</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electric Equipment Power Reduction</t>
   </si>
   <si>
@@ -2202,12 +2190,6 @@
     <t>m2</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_rmse</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2217,27 +2199,15 @@
     <t>Electric CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Electric NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>Gas CVRMSE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
     <t>Gas NMBE</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -2304,27 +2274,15 @@
     <t>Electric CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Electric NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Gas CVRMSE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
     <t>Gas NMBE within limit</t>
   </si>
   <si>
-    <t>calibration_reports.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>Set Gas Burner Efficiency</t>
   </si>
   <si>
@@ -2499,10 +2457,49 @@
     <t>SEB4 baseboard LHS 2013 184</t>
   </si>
   <si>
-    <t>default3</t>
-  </si>
-  <si>
-    <t>1.13.4</t>
+    <t>CalibrationReportsEnhanced</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>1.14.1</t>
   </si>
 </sst>
 </file>
@@ -6802,7 +6799,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6838,7 +6835,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6849,7 +6846,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6860,7 +6857,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6871,7 +6868,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6942,7 +6939,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6953,10 +6950,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6964,10 +6961,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7133,7 +7130,7 @@
         <v>32</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>30</v>
@@ -7146,7 +7143,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7160,7 +7157,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>447</v>
@@ -7174,7 +7171,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7186,7 +7183,7 @@
         <v>33</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7201,7 +7198,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7236,7 +7233,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7334,7 +7331,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7399,13 +7396,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7418,17 +7415,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7437,17 +7434,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7456,17 +7453,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7475,17 +7472,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="J8" s="31"/>
     </row>
@@ -7494,17 +7491,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7513,17 +7510,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7532,17 +7529,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7551,17 +7548,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7570,17 +7567,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7589,13 +7586,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7608,17 +7605,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7627,17 +7624,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7646,17 +7643,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7665,17 +7662,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J18" s="31"/>
     </row>
@@ -7684,17 +7681,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="E19" s="31" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7703,17 +7700,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7722,17 +7719,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="31" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7741,17 +7738,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7760,13 +7757,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>646</v>
+        <v>805</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>645</v>
+        <v>805</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>645</v>
+        <v>805</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7818,7 +7815,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7847,7 +7844,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7855,10 +7852,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="30" t="s">
@@ -7873,10 +7870,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="56" t="s">
@@ -7902,7 +7899,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7910,10 +7907,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
@@ -7928,10 +7925,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="30" t="s">
@@ -8048,7 +8045,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8079,7 +8076,7 @@
       </c>
       <c r="Q36" s="55"/>
       <c r="R36" s="52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8314,7 +8311,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8324,7 +8321,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8347,7 +8344,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8355,7 +8352,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8365,7 +8362,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8376,7 +8373,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8386,7 +8383,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8397,7 +8394,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8407,7 +8404,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8418,7 +8415,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8436,7 +8433,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8446,7 +8443,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8457,7 +8454,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8467,7 +8464,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8478,7 +8475,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8488,7 +8485,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8499,13 +8496,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="D54" s="46" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8537,17 +8534,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8570,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8596,7 +8593,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8606,7 +8603,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8617,7 +8614,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8627,7 +8624,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8638,7 +8635,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8648,7 +8645,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8659,7 +8656,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8677,7 +8674,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8687,7 +8684,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8698,7 +8695,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8708,7 +8705,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8719,7 +8716,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8729,7 +8726,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8740,13 +8737,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8757,7 +8754,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8778,17 +8775,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="E67" s="40" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8811,7 +8808,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8837,7 +8834,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8847,7 +8844,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8858,7 +8855,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8868,7 +8865,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8879,7 +8876,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8889,7 +8886,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8900,7 +8897,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8918,7 +8915,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8928,7 +8925,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8939,7 +8936,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -8949,7 +8946,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -8960,7 +8957,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -8970,7 +8967,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9019,7 +9016,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9029,7 +9026,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9052,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9060,17 +9057,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="E79" s="40" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9093,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9119,7 +9116,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9129,7 +9126,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9140,7 +9137,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9150,7 +9147,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9161,7 +9158,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9171,7 +9168,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9182,7 +9179,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9200,7 +9197,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9210,7 +9207,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9221,7 +9218,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9231,7 +9228,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9242,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9252,7 +9249,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9266,10 +9263,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9280,7 +9277,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9290,7 +9287,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9313,7 +9310,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9321,7 +9318,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9331,7 +9328,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9354,7 +9351,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9362,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9385,13 +9382,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D92" s="49" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9417,10 +9414,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="E93" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9450,7 +9447,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9460,10 +9457,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9492,7 +9489,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9502,10 +9499,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9534,7 +9531,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9543,13 +9540,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9575,10 +9572,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9608,7 +9605,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9618,10 +9615,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9650,7 +9647,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9660,10 +9657,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9692,7 +9689,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9700,13 +9697,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9717,17 +9714,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9750,7 +9747,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="56" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9758,17 +9755,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9791,7 +9788,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9799,13 +9796,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10241,8 +10238,8 @@
   <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:B7"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10281,7 +10278,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10319,7 +10316,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10417,7 +10414,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10449,7 +10446,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10478,12 +10475,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10507,12 +10504,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10536,12 +10533,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10564,12 +10561,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10592,12 +10589,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10620,12 +10617,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10648,12 +10645,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10677,12 +10674,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10706,12 +10703,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10735,12 +10732,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10764,12 +10761,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10793,12 +10790,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10822,12 +10819,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10851,12 +10848,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10880,15 +10877,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10909,15 +10906,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10938,15 +10935,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -10967,15 +10964,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -10996,15 +10993,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>656</v>
+        <v>806</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>62</v>
@@ -11025,15 +11022,15 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>657</v>
+        <v>807</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>62</v>
@@ -11054,15 +11051,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11082,15 +11079,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11110,21 +11107,21 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G30" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="30" t="b">
         <v>1</v>
@@ -11138,21 +11135,21 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>727</v>
+        <v>811</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G31" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="30" t="b">
         <v>1</v>
@@ -11166,21 +11163,21 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>729</v>
+        <v>812</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G32" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="30" t="b">
         <v>1</v>
@@ -11194,21 +11191,21 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>731</v>
+        <v>813</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G33" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="30" t="b">
         <v>1</v>
@@ -11222,19 +11219,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>754</v>
+        <v>814</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G34" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="30" t="b">
         <v>1</v>
@@ -11245,19 +11242,19 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>756</v>
+        <v>815</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G35" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="30" t="b">
         <v>1</v>
@@ -11268,19 +11265,19 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>758</v>
+        <v>816</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G36" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" s="30" t="b">
         <v>1</v>
@@ -11291,17 +11288,17 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>
       </c>
       <c r="G37" s="30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="30" t="b">
         <v>1</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -2500,6 +2500,9 @@
   </si>
   <si>
     <t>1.14.1</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
   </si>
 </sst>
 </file>
@@ -6798,7 +6801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7231,9 +7234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7757,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>805</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2499,10 +2499,10 @@
     <t>default</t>
   </si>
   <si>
-    <t>1.14.1</t>
-  </si>
-  <si>
     <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>1.14.4</t>
   </si>
 </sst>
 </file>
@@ -6801,8 +6801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6860,7 +6860,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -7234,7 +7234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
@@ -7760,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C23" s="37" t="s">
         <v>805</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -1998,9 +1998,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>uniform_uncertain</t>
-  </si>
-  <si>
     <t>Lighting Power Reduction</t>
   </si>
   <si>
@@ -2503,6 +2500,9 @@
   </si>
   <si>
     <t>1.14.4</t>
+  </si>
+  <si>
+    <t>uniform</t>
   </si>
 </sst>
 </file>
@@ -6801,7 +6801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6838,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6849,7 +6849,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6860,7 +6860,7 @@
         <v>467</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>612</v>
@@ -6871,7 +6871,7 @@
         <v>468</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>470</v>
@@ -6942,7 +6942,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>469</v>
@@ -6953,7 +6953,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>650</v>
@@ -6964,7 +6964,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>650</v>
@@ -7146,7 +7146,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7174,7 +7174,7 @@
         <v>641</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7201,7 +7201,7 @@
         <v>643</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
@@ -7234,9 +7234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7334,7 +7334,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="62" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7399,13 +7399,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>773</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>774</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>775</v>
-      </c>
       <c r="D4" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>66</v>
@@ -7418,17 +7418,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>776</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>777</v>
       </c>
       <c r="F5" s="64"/>
       <c r="G5" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J5" s="31"/>
     </row>
@@ -7437,17 +7437,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J6" s="31"/>
     </row>
@@ -7456,17 +7456,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>781</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>782</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J7" s="31"/>
     </row>
@@ -7475,14 +7475,14 @@
         <v>21</v>
       </c>
       <c r="D8" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="E8" s="31" t="s">
         <v>784</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>785</v>
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>646</v>
@@ -7494,17 +7494,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" s="31" t="s">
         <v>786</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>787</v>
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J9" s="31"/>
     </row>
@@ -7513,17 +7513,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J10" s="31"/>
     </row>
@@ -7532,17 +7532,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E11" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J11" s="31"/>
     </row>
@@ -7551,17 +7551,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>789</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>790</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J12" s="31"/>
     </row>
@@ -7570,17 +7570,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>797</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>798</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>799</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J13" s="31"/>
     </row>
@@ -7589,13 +7589,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>66</v>
@@ -7608,17 +7608,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="31" t="s">
+        <v>775</v>
+      </c>
+      <c r="E15" s="31" t="s">
         <v>776</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>777</v>
       </c>
       <c r="F15" s="64"/>
       <c r="G15" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I15" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J15" s="31"/>
     </row>
@@ -7627,17 +7627,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>164</v>
       </c>
       <c r="F16" s="64"/>
       <c r="G16" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I16" s="31" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J16" s="31"/>
     </row>
@@ -7646,17 +7646,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>780</v>
+      </c>
+      <c r="E17" s="31" t="s">
         <v>781</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>782</v>
       </c>
       <c r="F17" s="64"/>
       <c r="G17" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J17" s="31"/>
     </row>
@@ -7665,14 +7665,14 @@
         <v>21</v>
       </c>
       <c r="D18" s="31" t="s">
+        <v>783</v>
+      </c>
+      <c r="E18" s="31" t="s">
         <v>784</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>785</v>
       </c>
       <c r="F18" s="64"/>
       <c r="G18" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I18" s="31" t="s">
         <v>648</v>
@@ -7684,17 +7684,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="E19" s="31" t="s">
         <v>786</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>787</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -7703,17 +7703,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="31" t="s">
+        <v>722</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>723</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>724</v>
       </c>
       <c r="F20" s="64"/>
       <c r="G20" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J20" s="31"/>
     </row>
@@ -7722,17 +7722,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>725</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>726</v>
       </c>
       <c r="F21" s="64"/>
       <c r="G21" s="31" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J21" s="31"/>
     </row>
@@ -7741,17 +7741,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="31" t="s">
+        <v>788</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>789</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>790</v>
       </c>
       <c r="F22" s="64"/>
       <c r="G22" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J22" s="31"/>
     </row>
@@ -7760,13 +7760,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>231</v>
@@ -7818,7 +7818,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E26" s="40" t="s">
         <v>68</v>
@@ -7847,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7855,10 +7855,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>668</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>669</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>670</v>
       </c>
       <c r="F27" s="64"/>
       <c r="G27" s="30" t="s">
@@ -7873,10 +7873,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E28" s="56" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F28" s="64"/>
       <c r="G28" s="56" t="s">
@@ -7901,8 +7901,8 @@
       <c r="O28" s="58">
         <v>0.01</v>
       </c>
-      <c r="R28" s="56" t="s">
-        <v>652</v>
+      <c r="R28" s="40" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7910,10 +7910,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F29" s="64"/>
       <c r="G29" s="30" t="s">
@@ -7928,10 +7928,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F30" s="65"/>
       <c r="G30" s="30" t="s">
@@ -8048,7 +8048,7 @@
         <v>21</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E36" s="52" t="s">
         <v>44</v>
@@ -8078,8 +8078,8 @@
         <v>1</v>
       </c>
       <c r="Q36" s="55"/>
-      <c r="R36" s="52" t="s">
-        <v>652</v>
+      <c r="R36" s="40" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8314,7 +8314,7 @@
         <v>22</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E46" s="40" t="s">
         <v>286</v>
@@ -8324,7 +8324,7 @@
         <v>62</v>
       </c>
       <c r="H46" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I46" s="40">
         <v>0</v>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8355,7 +8355,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>46</v>
@@ -8365,7 +8365,7 @@
         <v>62</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>48</v>
@@ -8386,7 +8386,7 @@
         <v>62</v>
       </c>
       <c r="H48" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I48" s="30">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>50</v>
@@ -8407,7 +8407,7 @@
         <v>63</v>
       </c>
       <c r="H49" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>21</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E50" s="30" t="s">
         <v>52</v>
@@ -8436,7 +8436,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>54</v>
@@ -8446,7 +8446,7 @@
         <v>63</v>
       </c>
       <c r="H51" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I51" s="30">
         <v>15</v>
@@ -8457,7 +8457,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>56</v>
@@ -8467,7 +8467,7 @@
         <v>62</v>
       </c>
       <c r="H52" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I52" s="30">
         <v>0</v>
@@ -8478,7 +8478,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>58</v>
@@ -8488,7 +8488,7 @@
         <v>63</v>
       </c>
       <c r="H53" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I53" s="30">
         <v>1</v>
@@ -8499,13 +8499,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>747</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>748</v>
-      </c>
       <c r="D54" s="46" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E54" s="46" t="s">
         <v>66</v>
@@ -8537,17 +8537,17 @@
         <v>22</v>
       </c>
       <c r="D56" s="40" t="s">
+        <v>748</v>
+      </c>
+      <c r="E56" s="40" t="s">
         <v>749</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>750</v>
       </c>
       <c r="F56" s="50"/>
       <c r="G56" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I56" s="40">
         <v>0.8</v>
@@ -8570,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -8596,7 +8596,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>126</v>
@@ -8606,7 +8606,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I58" s="30">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>48</v>
@@ -8627,7 +8627,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I59" s="30">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>50</v>
@@ -8648,7 +8648,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>21</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>52</v>
@@ -8677,7 +8677,7 @@
         <v>21</v>
       </c>
       <c r="D62" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>54</v>
@@ -8687,7 +8687,7 @@
         <v>63</v>
       </c>
       <c r="H62" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I62" s="30">
         <v>15</v>
@@ -8698,7 +8698,7 @@
         <v>21</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>56</v>
@@ -8708,7 +8708,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I63" s="30">
         <v>0</v>
@@ -8719,7 +8719,7 @@
         <v>21</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>58</v>
@@ -8729,7 +8729,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I64" s="30">
         <v>1</v>
@@ -8740,13 +8740,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E65" s="46" t="s">
         <v>66</v>
@@ -8757,7 +8757,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>124</v>
@@ -8778,17 +8778,17 @@
         <v>22</v>
       </c>
       <c r="D67" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="E67" s="40" t="s">
         <v>756</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>757</v>
       </c>
       <c r="F67" s="50"/>
       <c r="G67" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I67" s="40">
         <v>4</v>
@@ -8811,7 +8811,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8837,7 +8837,7 @@
         <v>21</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>126</v>
@@ -8847,7 +8847,7 @@
         <v>62</v>
       </c>
       <c r="H69" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I69" s="30">
         <v>0</v>
@@ -8858,7 +8858,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>48</v>
@@ -8868,7 +8868,7 @@
         <v>62</v>
       </c>
       <c r="H70" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I70" s="30">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>21</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>50</v>
@@ -8889,7 +8889,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I71" s="30">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>21</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>52</v>
@@ -8918,7 +8918,7 @@
         <v>21</v>
       </c>
       <c r="D73" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>54</v>
@@ -8928,7 +8928,7 @@
         <v>63</v>
       </c>
       <c r="H73" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I73" s="30">
         <v>15</v>
@@ -8939,7 +8939,7 @@
         <v>21</v>
       </c>
       <c r="D74" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>56</v>
@@ -8949,7 +8949,7 @@
         <v>62</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I74" s="30">
         <v>0</v>
@@ -8960,7 +8960,7 @@
         <v>21</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>58</v>
@@ -8970,7 +8970,7 @@
         <v>63</v>
       </c>
       <c r="H75" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I75" s="30">
         <v>1</v>
@@ -9019,7 +9019,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>243</v>
@@ -9029,7 +9029,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I78" s="40">
         <v>0</v>
@@ -9052,7 +9052,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9060,17 +9060,17 @@
         <v>22</v>
       </c>
       <c r="D79" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="E79" s="40" t="s">
         <v>759</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>760</v>
       </c>
       <c r="F79" s="50"/>
       <c r="G79" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H79" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I79" s="40">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9119,7 +9119,7 @@
         <v>21</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>126</v>
@@ -9129,7 +9129,7 @@
         <v>62</v>
       </c>
       <c r="H81" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I81" s="30">
         <v>0</v>
@@ -9140,7 +9140,7 @@
         <v>21</v>
       </c>
       <c r="D82" s="30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>48</v>
@@ -9150,7 +9150,7 @@
         <v>62</v>
       </c>
       <c r="H82" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I82" s="30">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>21</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E83" s="30" t="s">
         <v>50</v>
@@ -9171,7 +9171,7 @@
         <v>63</v>
       </c>
       <c r="H83" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I83" s="30">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>21</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E84" s="30" t="s">
         <v>52</v>
@@ -9200,7 +9200,7 @@
         <v>21</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E85" s="30" t="s">
         <v>54</v>
@@ -9210,7 +9210,7 @@
         <v>63</v>
       </c>
       <c r="H85" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I85" s="30">
         <v>15</v>
@@ -9221,7 +9221,7 @@
         <v>21</v>
       </c>
       <c r="D86" s="30" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E86" s="30" t="s">
         <v>56</v>
@@ -9231,7 +9231,7 @@
         <v>62</v>
       </c>
       <c r="H86" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I86" s="30">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="D87" s="30" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E87" s="30" t="s">
         <v>58</v>
@@ -9252,7 +9252,7 @@
         <v>63</v>
       </c>
       <c r="H87" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I87" s="30">
         <v>1</v>
@@ -9266,10 +9266,10 @@
         <v>185</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D88" s="46" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E88" s="46" t="s">
         <v>66</v>
@@ -9280,7 +9280,7 @@
         <v>22</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>188</v>
@@ -9290,7 +9290,7 @@
         <v>62</v>
       </c>
       <c r="H89" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I89" s="40">
         <v>0</v>
@@ -9313,7 +9313,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9321,7 +9321,7 @@
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E90" s="40" t="s">
         <v>190</v>
@@ -9331,7 +9331,7 @@
         <v>62</v>
       </c>
       <c r="H90" s="40" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I90" s="40">
         <v>0</v>
@@ -9354,7 +9354,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9362,7 +9362,7 @@
         <v>21</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E91" s="31" t="s">
         <v>192</v>
@@ -9379,19 +9379,20 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
+      <c r="R91" s="40"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="49" t="b">
         <v>1</v>
       </c>
       <c r="B92" s="49" t="s">
+        <v>732</v>
+      </c>
+      <c r="C92" s="49" t="s">
         <v>733</v>
       </c>
-      <c r="C92" s="49" t="s">
-        <v>734</v>
-      </c>
       <c r="D92" s="49" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E92" s="46" t="s">
         <v>66</v>
@@ -9417,10 +9418,10 @@
       </c>
       <c r="C93" s="50"/>
       <c r="D93" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>727</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>728</v>
       </c>
       <c r="F93" s="50"/>
       <c r="G93" s="50" t="s">
@@ -9450,7 +9451,7 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9460,10 +9461,10 @@
       </c>
       <c r="C94" s="50"/>
       <c r="D94" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="E94" s="50" t="s">
         <v>729</v>
-      </c>
-      <c r="E94" s="50" t="s">
-        <v>730</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="50" t="s">
@@ -9492,7 +9493,7 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9502,10 +9503,10 @@
       </c>
       <c r="C95" s="50"/>
       <c r="D95" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="E95" s="50" t="s">
         <v>731</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>732</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="50" t="s">
@@ -9534,7 +9535,7 @@
       <c r="P95" s="42"/>
       <c r="Q95" s="42"/>
       <c r="R95" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
       <c r="T95" s="31"/>
     </row>
@@ -9543,13 +9544,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="C96" s="49" t="s">
         <v>735</v>
       </c>
-      <c r="C96" s="49" t="s">
-        <v>736</v>
-      </c>
       <c r="D96" s="49" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E96" s="46" t="s">
         <v>66</v>
@@ -9575,10 +9576,10 @@
       </c>
       <c r="C97" s="50"/>
       <c r="D97" s="50" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="50" t="s">
@@ -9608,7 +9609,7 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9618,10 +9619,10 @@
       </c>
       <c r="C98" s="50"/>
       <c r="D98" s="50" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E98" s="50" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="50" t="s">
@@ -9650,7 +9651,7 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9660,10 +9661,10 @@
       </c>
       <c r="C99" s="50"/>
       <c r="D99" s="50" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E99" s="50" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="50" t="s">
@@ -9692,7 +9693,7 @@
       <c r="P99" s="42"/>
       <c r="Q99" s="42"/>
       <c r="R99" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9700,13 +9701,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="46" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D100" s="46" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E100" s="46" t="s">
         <v>66</v>
@@ -9717,17 +9718,17 @@
         <v>21</v>
       </c>
       <c r="D101" s="56" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E101" s="56" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F101" s="64"/>
       <c r="G101" s="56" t="s">
         <v>62</v>
       </c>
       <c r="H101" s="56" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" s="56">
         <v>1</v>
@@ -9749,8 +9750,8 @@
       <c r="O101" s="58">
         <v>0.1</v>
       </c>
-      <c r="R101" s="56" t="s">
-        <v>652</v>
+      <c r="R101" s="40" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9758,17 +9759,17 @@
         <v>22</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E102" s="40" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="40" t="s">
         <v>62</v>
       </c>
       <c r="H102" s="40" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I102" s="40">
         <v>1450</v>
@@ -9791,7 +9792,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="40" t="s">
-        <v>652</v>
+        <v>820</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9799,13 +9800,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="37" t="s">
+        <v>739</v>
+      </c>
+      <c r="C103" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="C103" s="37" t="s">
-        <v>741</v>
-      </c>
       <c r="D103" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>231</v>
@@ -10281,7 +10282,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>630</v>
@@ -10319,7 +10320,7 @@
         <v>622</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>635</v>
@@ -10417,7 +10418,7 @@
         <v>639</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>634</v>
@@ -10449,7 +10450,7 @@
         <v>640</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>633</v>
@@ -10478,12 +10479,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B8" s="47"/>
       <c r="C8" s="30"/>
       <c r="D8" s="30" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>466</v>
@@ -10507,12 +10508,12 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>466</v>
@@ -10536,12 +10537,12 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>466</v>
@@ -10564,12 +10565,12 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>466</v>
@@ -10592,12 +10593,12 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>466</v>
@@ -10620,12 +10621,12 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>466</v>
@@ -10648,12 +10649,12 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>466</v>
@@ -10677,12 +10678,12 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="30"/>
       <c r="D15" s="30" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>466</v>
@@ -10706,12 +10707,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="30"/>
       <c r="D16" s="30" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>466</v>
@@ -10735,12 +10736,12 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>466</v>
@@ -10764,12 +10765,12 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>466</v>
@@ -10793,12 +10794,12 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>466</v>
@@ -10822,12 +10823,12 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>466</v>
@@ -10851,12 +10852,12 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>466</v>
@@ -10880,15 +10881,15 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30" t="s">
+        <v>706</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>707</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>708</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>62</v>
@@ -10909,15 +10910,15 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>62</v>
@@ -10938,15 +10939,15 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>62</v>
@@ -10967,15 +10968,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>714</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>715</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>62</v>
@@ -11001,7 +11002,7 @@
       <c r="B26" s="47"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>646</v>
@@ -11030,7 +11031,7 @@
       <c r="B27" s="47"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>648</v>
@@ -11054,15 +11055,15 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>62</v>
@@ -11082,15 +11083,15 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>62</v>
@@ -11110,15 +11111,15 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F30" s="31" t="s">
         <v>62</v>
@@ -11138,15 +11139,15 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F31" s="31" t="s">
         <v>62</v>
@@ -11166,15 +11167,15 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>62</v>
@@ -11194,15 +11195,15 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F33" s="31" t="s">
         <v>62</v>
@@ -11222,12 +11223,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="31" t="s">
@@ -11245,12 +11246,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="31" t="s">
@@ -11268,12 +11269,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="31" t="s">
@@ -11291,11 +11292,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B37" s="30"/>
       <c r="D37" s="30" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F37" s="31" t="s">
         <v>62</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="818">
   <si>
     <t>type</t>
   </si>
@@ -1422,12 +1422,6 @@
     <t>true/false</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Use a minimum of 2 cores for server.</t>
   </si>
   <si>
-    <t>Enable this for certain analysis. Typically do not use the server as a worker.</t>
-  </si>
-  <si>
     <t>Problem Type</t>
   </si>
   <si>
@@ -2499,10 +2490,10 @@
     <t>Calibration Reports Enhanced</t>
   </si>
   <si>
-    <t>1.14.4</t>
-  </si>
-  <si>
     <t>uniform</t>
+  </si>
+  <si>
+    <t>1.17.0</t>
   </si>
 </sst>
 </file>
@@ -4532,7 +4523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4579,9 +4570,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6799,16 +6787,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
@@ -6817,7 +6805,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
-      <c r="B1" s="28"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
@@ -6828,7 +6816,7 @@
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B2" s="27"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -6837,8 +6825,8 @@
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>766</v>
+      <c r="B3" s="25" t="s">
+        <v>763</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6848,8 +6836,8 @@
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>772</v>
+      <c r="B4" s="24" t="s">
+        <v>769</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6857,57 +6845,57 @@
     </row>
     <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>819</v>
+        <v>465</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>817</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C7" s="33" t="str">
+      <c r="B7" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>601</v>
-      </c>
-      <c r="C8" s="33" t="str">
+      <c r="B8" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6919,20 +6907,20 @@
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -6941,279 +6929,254 @@
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>803</v>
+      <c r="B12" s="24" t="s">
+        <v>800</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>799</v>
+      <c r="B13" s="24" t="s">
+        <v>796</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>741</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>650</v>
+      <c r="B14" s="24" t="s">
+        <v>738</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B15" s="26" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>461</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B16" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>540</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>604</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>463</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="29">
+        <v>30</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="29"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="29"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>568</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D24" s="35"/>
-    </row>
-    <row r="25" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="30">
-        <v>30</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="D25" s="35"/>
-    </row>
-    <row r="26" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="35"/>
-    </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="35"/>
-    </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="35"/>
-    </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="35"/>
-    </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="30"/>
-      <c r="D30" s="35"/>
-    </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="30"/>
-      <c r="D31" s="35"/>
-    </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-    </row>
-    <row r="33" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="35"/>
-    </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35"/>
-    </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>451</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="31" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>641</v>
       </c>
-      <c r="D40" s="31" t="s">
-        <v>801</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
-        <v>644</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="26"/>
-      <c r="D44" s="2"/>
+      <c r="B41" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="D42" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15:B16">
-      <formula1>TrueFalse</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>simulate_data_point</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7:B8">
@@ -7234,34 +7197,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="6.6640625" style="31" customWidth="1"/>
-    <col min="14" max="15" width="7.6640625" style="31" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="31"/>
-    <col min="17" max="17" width="11.44140625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="23" style="31" customWidth="1"/>
-    <col min="19" max="19" width="27.6640625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="31" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="31"/>
-    <col min="24" max="24" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="30"/>
+    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="23" style="30" customWidth="1"/>
+    <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
+    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
@@ -7272,33 +7235,33 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="36" t="s">
-        <v>472</v>
+      <c r="P1" s="35" t="s">
+        <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7308,12 +7271,12 @@
         <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F2" s="61"/>
+        <v>541</v>
+      </c>
+      <c r="F2" s="60"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7333,8 +7296,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="62" t="s">
-        <v>767</v>
+      <c r="F3" s="61" t="s">
+        <v>764</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7361,13 +7324,13 @@
         <v>9</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q3" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>8</v>
@@ -7394,646 +7357,646 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="b">
+    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
+        <v>770</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>773</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="F5" s="63"/>
+      <c r="G5" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>774</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>643</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B9" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B10" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>721</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I11" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>794</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>787</v>
+      </c>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>775</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="31" t="s">
+      <c r="E16" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>790</v>
+      </c>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>645</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>719</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="30" t="s">
         <v>721</v>
       </c>
-      <c r="I5" s="31" t="s">
-        <v>777</v>
-      </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="J6" s="31"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="J7" s="31"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="J8" s="31"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="31" t="s">
+      <c r="E21" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>748</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>785</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E22" s="30" t="s">
         <v>786</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>787</v>
-      </c>
-      <c r="J9" s="31"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J11" s="31"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="31" t="s">
+      <c r="F22" s="63"/>
+      <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>790</v>
-      </c>
-      <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>797</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>798</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>790</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:26" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="b">
+      <c r="I22" s="47" t="s">
+        <v>793</v>
+      </c>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="37" t="s">
-        <v>791</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>774</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>774</v>
-      </c>
-      <c r="E14" s="37" t="s">
+      <c r="B23" s="36" t="s">
+        <v>815</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>801</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>775</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>792</v>
-      </c>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>778</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I16" s="31" t="s">
-        <v>793</v>
-      </c>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>780</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>781</v>
-      </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>783</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>784</v>
-      </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>648</v>
-      </c>
-      <c r="J18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>785</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>786</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>795</v>
-      </c>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>722</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>723</v>
-      </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>750</v>
-      </c>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>724</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>725</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="31" t="s">
-        <v>721</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>751</v>
-      </c>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>789</v>
-      </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="48" t="s">
-        <v>796</v>
-      </c>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="b">
-        <v>1</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>818</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>804</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>804</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-    </row>
-    <row r="24" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="b">
-        <v>1</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="30" t="s">
+    </row>
+    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="63"/>
+      <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="I25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="31"/>
-    </row>
-    <row r="26" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="40" t="s">
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="E26" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="50"/>
-      <c r="G26" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="42">
-        <v>0</v>
-      </c>
-      <c r="L26" s="42">
+      <c r="F26" s="49"/>
+      <c r="G26" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="39">
+        <v>0</v>
+      </c>
+      <c r="K26" s="41">
+        <v>0</v>
+      </c>
+      <c r="L26" s="41">
         <v>100</v>
       </c>
-      <c r="M26" s="42">
+      <c r="M26" s="41">
         <v>15</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N26" s="41">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O26" s="41">
         <v>1</v>
       </c>
-      <c r="R26" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="30" t="s">
+      <c r="R26" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>665</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="63"/>
+      <c r="G27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>669</v>
-      </c>
-      <c r="F27" s="64"/>
-      <c r="G27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>671</v>
-      </c>
-      <c r="E28" s="56" t="s">
-        <v>670</v>
-      </c>
-      <c r="F28" s="64"/>
-      <c r="G28" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="56">
-        <v>0</v>
-      </c>
-      <c r="K28" s="58">
-        <v>0</v>
-      </c>
-      <c r="L28" s="58">
+      <c r="E28" s="55" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="63"/>
+      <c r="G28" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="55">
+        <v>0</v>
+      </c>
+      <c r="K28" s="57">
+        <v>0</v>
+      </c>
+      <c r="L28" s="57">
         <v>0.1</v>
       </c>
-      <c r="M28" s="58">
+      <c r="M28" s="57">
         <v>0.05</v>
       </c>
-      <c r="N28" s="58">
+      <c r="N28" s="57">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="58">
+      <c r="O28" s="57">
         <v>0.01</v>
       </c>
-      <c r="R28" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>673</v>
-      </c>
-      <c r="E29" s="30" t="s">
+      <c r="R28" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>670</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>669</v>
+      </c>
+      <c r="F29" s="63"/>
+      <c r="G29" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>672</v>
       </c>
-      <c r="F29" s="64"/>
-      <c r="G29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>675</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>674</v>
-      </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="30" t="s">
+      <c r="E30" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="F30" s="64"/>
+      <c r="G30" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="30" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="30" t="s">
+      <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="30" t="s">
+      <c r="F32" s="64"/>
+      <c r="G32" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="30" t="s">
+      <c r="F33" s="64"/>
+      <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="29">
         <v>1</v>
       </c>
-      <c r="P33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="b">
+      <c r="P33" s="30"/>
+    </row>
+    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="45" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="65"/>
-      <c r="G35" s="30" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J35" s="30" t="s">
+      <c r="J35" s="29" t="s">
         <v>81</v>
       </c>
       <c r="K35" s="3"/>
@@ -8041,65 +8004,65 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="39"/>
-    </row>
-    <row r="36" spans="1:18" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="E36" s="52" t="s">
+      <c r="Q35" s="38"/>
+    </row>
+    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="65"/>
-      <c r="G36" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I36" s="52">
-        <v>0</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="54">
+      <c r="F36" s="64"/>
+      <c r="G36" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="51">
+        <v>0</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="53">
         <v>-40</v>
       </c>
-      <c r="L36" s="54">
+      <c r="L36" s="53">
         <v>40</v>
       </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
+      <c r="M36" s="53">
+        <v>0</v>
+      </c>
+      <c r="N36" s="53">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="54">
+      <c r="O36" s="53">
         <v>1</v>
       </c>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="40" t="s">
-        <v>820</v>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="39" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="44" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="65"/>
-      <c r="G37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30">
+      <c r="F37" s="64"/>
+      <c r="G37" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29">
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
@@ -8107,26 +8070,26 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="39"/>
+      <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="65"/>
-      <c r="G38" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30">
+      <c r="F38" s="64"/>
+      <c r="G38" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29">
         <v>0</v>
       </c>
       <c r="K38" s="3"/>
@@ -8134,26 +8097,26 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="39"/>
+      <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="30" t="s">
+      <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="65"/>
-      <c r="G39" s="30" t="s">
+      <c r="F39" s="64"/>
+      <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30">
+      <c r="H39" s="29"/>
+      <c r="I39" s="29">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
@@ -8161,26 +8124,26 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="39"/>
+      <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="65"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="64"/>
+      <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30" t="b">
+      <c r="H40" s="29"/>
+      <c r="I40" s="29" t="b">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
@@ -8188,26 +8151,26 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="39"/>
+      <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="64"/>
+      <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30">
+      <c r="H41" s="29"/>
+      <c r="I41" s="29">
         <v>15</v>
       </c>
       <c r="K41" s="3"/>
@@ -8215,26 +8178,26 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="39"/>
+      <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30">
+      <c r="F42" s="64"/>
+      <c r="G42" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
@@ -8242,26 +8205,26 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="39"/>
+      <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E43" s="30" t="s">
+      <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="30" t="s">
+      <c r="F43" s="64"/>
+      <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29">
         <v>1</v>
       </c>
       <c r="K43" s="3"/>
@@ -8269,1109 +8232,1109 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="39"/>
-    </row>
-    <row r="44" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="b">
+      <c r="Q43" s="38"/>
+    </row>
+    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="46" t="s">
+      <c r="C44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D44" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="46" t="s">
+      <c r="E44" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="30" t="s">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="E45" s="30" t="s">
+      <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="30" t="s">
+      <c r="F45" s="64"/>
+      <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I45" s="30" t="s">
+      <c r="I45" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="J45" s="30" t="s">
+      <c r="J45" s="29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="40" t="s">
+    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E46" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I46" s="40">
-        <v>0</v>
-      </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="42">
+      <c r="F46" s="49"/>
+      <c r="G46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I46" s="39">
+        <v>0</v>
+      </c>
+      <c r="J46" s="42"/>
+      <c r="K46" s="41">
         <v>-80</v>
       </c>
-      <c r="L46" s="42">
+      <c r="L46" s="41">
         <v>80</v>
       </c>
-      <c r="M46" s="42">
-        <v>0</v>
-      </c>
-      <c r="N46" s="42">
+      <c r="M46" s="41">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="42">
+      <c r="O46" s="41">
         <v>1</v>
       </c>
-      <c r="R46" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="30" t="s">
+      <c r="R46" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="64"/>
+      <c r="G47" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I47" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I48" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="63"/>
+      <c r="G49" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I47" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="30" t="s">
+      <c r="I49" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E48" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F48" s="64"/>
-      <c r="G48" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I48" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="30" t="s">
+      <c r="E50" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="63"/>
+      <c r="G50" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="30" t="s">
+      <c r="E51" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="H51" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I51" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I49" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="30" t="s">
+      <c r="E52" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="64"/>
-      <c r="G50" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="64"/>
-      <c r="G51" s="30" t="s">
+      <c r="E53" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="64"/>
+      <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I51" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="64"/>
-      <c r="G52" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I52" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I53" s="30">
+      <c r="H53" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46" t="b">
+    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="46" t="s">
+      <c r="B54" s="45" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>744</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J55" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="39" t="s">
+        <v>745</v>
+      </c>
+      <c r="E56" s="39" t="s">
         <v>746</v>
       </c>
-      <c r="C54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="D54" s="46" t="s">
-        <v>747</v>
-      </c>
-      <c r="E54" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>748</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>749</v>
-      </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="F56" s="49"/>
+      <c r="G56" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I56" s="39">
         <v>0.8</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="42">
+      <c r="J56" s="42"/>
+      <c r="K56" s="41">
         <v>0.78</v>
       </c>
-      <c r="L56" s="42">
+      <c r="L56" s="41">
         <v>0.98</v>
       </c>
-      <c r="M56" s="42">
+      <c r="M56" s="41">
         <v>0.8</v>
       </c>
-      <c r="N56" s="42">
+      <c r="N56" s="41">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="42">
+      <c r="O56" s="41">
         <v>1</v>
       </c>
-      <c r="R56" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D57" s="30" t="s">
+      <c r="R56" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="30" t="s">
+      <c r="F57" s="30"/>
+      <c r="G57" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="30" t="s">
+      <c r="I57" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F58" s="30"/>
+      <c r="G58" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I58" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E59" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="30"/>
+      <c r="G59" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I59" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="30"/>
+      <c r="G60" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E58" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I58" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="30" t="s">
+      <c r="I60" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E59" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F59" s="31"/>
-      <c r="G59" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I59" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="30" t="s">
+      <c r="E61" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="64"/>
+      <c r="G61" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I61" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E60" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="30" t="s">
+      <c r="E62" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="64"/>
+      <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H60" s="30" t="s">
+      <c r="H62" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I62" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I60" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="30" t="s">
+      <c r="E63" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="64"/>
+      <c r="G63" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I63" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E61" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="30" t="s">
+      <c r="E64" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="64"/>
+      <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I62" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I63" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I64" s="30">
+      <c r="H64" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46" t="b">
+    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="45" t="s">
+        <v>750</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>749</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="29" t="s">
+        <v>751</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="64"/>
+      <c r="G66" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="J66" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E67" s="39" t="s">
         <v>753</v>
       </c>
-      <c r="C65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="D65" s="46" t="s">
-        <v>752</v>
-      </c>
-      <c r="E65" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>754</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="30" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="40" t="s">
-        <v>755</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I67" s="40">
+      <c r="F67" s="49"/>
+      <c r="G67" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I67" s="39">
         <v>4</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="42">
-        <v>2</v>
-      </c>
-      <c r="L67" s="42">
+      <c r="J67" s="42"/>
+      <c r="K67" s="41">
+        <v>2</v>
+      </c>
+      <c r="L67" s="41">
         <v>5</v>
       </c>
-      <c r="M67" s="42">
+      <c r="M67" s="41">
         <v>4</v>
       </c>
-      <c r="N67" s="42">
+      <c r="N67" s="41">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="42">
+      <c r="O67" s="41">
         <v>0.25</v>
       </c>
-      <c r="R67" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="30" t="s">
+      <c r="R67" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="30" t="s">
+      <c r="F68" s="64"/>
+      <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I68" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B69" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D69" s="30" t="s">
+      <c r="I68" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E69" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="64"/>
+      <c r="G69" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I69" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E70" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="64"/>
+      <c r="G70" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H70" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I70" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="64"/>
+      <c r="G71" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E69" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H69" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I69" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B70" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" s="30" t="s">
+      <c r="I71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F70" s="65"/>
-      <c r="G70" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I70" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="30" t="s">
+      <c r="E72" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="64"/>
+      <c r="G72" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="30" t="s">
+      <c r="E73" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="64"/>
+      <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H71" s="30" t="s">
+      <c r="H73" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I73" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I71" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="30" t="s">
+      <c r="E74" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F74" s="64"/>
+      <c r="G74" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I74" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="30" t="s">
+      <c r="E75" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="64"/>
+      <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I73" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>661</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H74" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I74" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I75" s="30">
+      <c r="H75" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="b">
+    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="45" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="46" t="s">
+      <c r="D76" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="46" t="s">
+      <c r="E76" s="45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="30" t="s">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="E77" s="30" t="s">
+      <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="65"/>
-      <c r="G77" s="30" t="s">
+      <c r="F77" s="64"/>
+      <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="51" t="s">
+      <c r="I77" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="J77" s="30" t="s">
+      <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="40" t="s">
+    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I78" s="40">
-        <v>0</v>
-      </c>
-      <c r="J78" s="43"/>
-      <c r="K78" s="42">
+      <c r="F78" s="49"/>
+      <c r="G78" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I78" s="39">
+        <v>0</v>
+      </c>
+      <c r="J78" s="42"/>
+      <c r="K78" s="41">
         <v>-20</v>
       </c>
-      <c r="L78" s="42">
+      <c r="L78" s="41">
         <v>14</v>
       </c>
-      <c r="M78" s="42">
-        <v>0</v>
-      </c>
-      <c r="N78" s="42">
+      <c r="M78" s="41">
+        <v>0</v>
+      </c>
+      <c r="N78" s="41">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="42">
+      <c r="O78" s="41">
         <v>1</v>
       </c>
-      <c r="R78" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="40" t="s">
+      <c r="R78" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="40" t="s">
-        <v>758</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>759</v>
-      </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I79" s="40">
-        <v>0</v>
-      </c>
-      <c r="J79" s="43"/>
-      <c r="K79" s="42">
+      <c r="D79" s="39" t="s">
+        <v>755</v>
+      </c>
+      <c r="E79" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I79" s="39">
+        <v>0</v>
+      </c>
+      <c r="J79" s="42"/>
+      <c r="K79" s="41">
         <v>-25</v>
       </c>
-      <c r="L79" s="42">
+      <c r="L79" s="41">
         <v>30</v>
       </c>
-      <c r="M79" s="42">
-        <v>0</v>
-      </c>
-      <c r="N79" s="42">
+      <c r="M79" s="41">
+        <v>0</v>
+      </c>
+      <c r="N79" s="41">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="42">
+      <c r="O79" s="41">
         <v>1</v>
       </c>
-      <c r="R79" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D80" s="30" t="s">
+      <c r="R79" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="E80" s="30" t="s">
+      <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="65"/>
-      <c r="G80" s="30" t="s">
+      <c r="F80" s="64"/>
+      <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="I80" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D81" s="30" t="s">
+      <c r="I80" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="29" t="s">
+        <v>652</v>
+      </c>
+      <c r="E81" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="64"/>
+      <c r="G81" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H81" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I81" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="29" t="s">
+        <v>653</v>
+      </c>
+      <c r="E82" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="64"/>
+      <c r="G82" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H82" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I82" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>654</v>
+      </c>
+      <c r="E83" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="64"/>
+      <c r="G83" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="E81" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F81" s="65"/>
-      <c r="G81" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I81" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="30" t="s">
+      <c r="I83" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="29" t="s">
         <v>656</v>
       </c>
-      <c r="E82" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="65"/>
-      <c r="G82" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H82" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I82" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="30" t="s">
+      <c r="E84" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="63"/>
+      <c r="G84" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I84" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="29" t="s">
         <v>657</v>
       </c>
-      <c r="E83" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="65"/>
-      <c r="G83" s="30" t="s">
+      <c r="E85" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="63"/>
+      <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H83" s="30" t="s">
+      <c r="H85" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I85" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="I83" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D84" s="30" t="s">
+      <c r="E86" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F86" s="63"/>
+      <c r="G86" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="I86" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="29" t="s">
         <v>659</v>
       </c>
-      <c r="E84" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="64"/>
-      <c r="G84" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D85" s="30" t="s">
+      <c r="E87" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87" s="63"/>
+      <c r="G87" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="29" t="s">
+        <v>655</v>
+      </c>
+      <c r="I87" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" s="45" t="s">
         <v>660</v>
       </c>
-      <c r="E85" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F85" s="64"/>
-      <c r="G85" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H85" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I85" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="30" t="s">
+      <c r="D88" s="45" t="s">
+        <v>660</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="E86" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="64"/>
-      <c r="G86" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H86" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="I86" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="30" t="s">
+      <c r="E89" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="F89" s="49"/>
+      <c r="G89" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H89" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="64"/>
-      <c r="G87" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="I87" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" s="46" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="46" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D88" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="40" t="s">
-        <v>664</v>
-      </c>
-      <c r="E89" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H89" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I89" s="40">
-        <v>0</v>
-      </c>
-      <c r="J89" s="43"/>
-      <c r="K89" s="42">
+      <c r="I89" s="39">
+        <v>0</v>
+      </c>
+      <c r="J89" s="42"/>
+      <c r="K89" s="41">
         <v>-6</v>
       </c>
-      <c r="L89" s="42">
-        <v>2</v>
-      </c>
-      <c r="M89" s="42">
-        <v>0</v>
-      </c>
-      <c r="N89" s="42">
+      <c r="L89" s="41">
+        <v>2</v>
+      </c>
+      <c r="M89" s="41">
+        <v>0</v>
+      </c>
+      <c r="N89" s="41">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="42">
+      <c r="O89" s="41">
         <v>1</v>
       </c>
-      <c r="R89" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="40" t="s">
+      <c r="R89" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E90" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H90" s="40" t="s">
-        <v>665</v>
-      </c>
-      <c r="I90" s="40">
-        <v>0</v>
-      </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="42">
+      <c r="F90" s="49"/>
+      <c r="G90" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H90" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="I90" s="39">
+        <v>0</v>
+      </c>
+      <c r="J90" s="42"/>
+      <c r="K90" s="41">
         <v>-6</v>
       </c>
-      <c r="L90" s="42">
+      <c r="L90" s="41">
         <v>3.9</v>
       </c>
-      <c r="M90" s="42">
-        <v>0</v>
-      </c>
-      <c r="N90" s="42">
+      <c r="M90" s="41">
+        <v>0</v>
+      </c>
+      <c r="N90" s="41">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="42">
+      <c r="O90" s="41">
         <v>1</v>
       </c>
-      <c r="R90" s="40" t="s">
-        <v>820</v>
+      <c r="R90" s="39" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="B91" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>664</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="64"/>
-      <c r="G91" s="31" t="s">
+      <c r="F91" s="63"/>
+      <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I91" s="31" t="b">
+      <c r="I91" s="30" t="b">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
@@ -9379,848 +9342,848 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-      <c r="R91" s="40"/>
+      <c r="R91" s="39"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="b">
+      <c r="A92" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="49" t="s">
-        <v>732</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="D92" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E92" s="46" t="s">
+      <c r="B92" s="48" t="s">
+        <v>729</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>730</v>
+      </c>
+      <c r="E92" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="46"/>
-      <c r="N92" s="46"/>
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
-      <c r="Q92" s="46"/>
-      <c r="R92" s="46"/>
-    </row>
-    <row r="93" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="50" t="s">
+      <c r="F92" s="45"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="45"/>
+      <c r="N92" s="45"/>
+      <c r="O92" s="45"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="50"/>
-      <c r="D93" s="50" t="s">
-        <v>726</v>
-      </c>
-      <c r="E93" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F93" s="50"/>
-      <c r="G93" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H93" s="50"/>
-      <c r="I93" s="50">
+      <c r="C93" s="49"/>
+      <c r="D93" s="49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E93" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F93" s="49"/>
+      <c r="G93" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49">
         <v>1</v>
       </c>
-      <c r="J93" s="50"/>
-      <c r="K93" s="50">
+      <c r="J93" s="49"/>
+      <c r="K93" s="49">
         <v>0.5</v>
       </c>
-      <c r="L93" s="50">
+      <c r="L93" s="49">
         <v>4.5</v>
       </c>
-      <c r="M93" s="42">
+      <c r="M93" s="41">
         <v>1.75</v>
       </c>
-      <c r="N93" s="40">
+      <c r="N93" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="50">
+      <c r="O93" s="49">
         <v>0.1</v>
       </c>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="50"/>
-      <c r="B94" s="50" t="s">
+      <c r="P93" s="39"/>
+      <c r="Q93" s="39"/>
+      <c r="R93" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="49"/>
+      <c r="B94" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50" t="s">
+      <c r="C94" s="49"/>
+      <c r="D94" s="49" t="s">
+        <v>725</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F94" s="49"/>
+      <c r="G94" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49">
+        <v>1</v>
+      </c>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="49">
+        <v>4.5</v>
+      </c>
+      <c r="M94" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N94" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="O94" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="P94" s="39"/>
+      <c r="Q94" s="39"/>
+      <c r="R94" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="49"/>
+      <c r="B95" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49" t="s">
+        <v>727</v>
+      </c>
+      <c r="E95" s="49" t="s">
         <v>728</v>
       </c>
-      <c r="E94" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F94" s="50"/>
-      <c r="G94" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H94" s="50"/>
-      <c r="I94" s="50">
+      <c r="F95" s="49"/>
+      <c r="G95" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49">
         <v>1</v>
       </c>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50">
+      <c r="J95" s="49"/>
+      <c r="K95" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L95" s="49">
+        <v>3</v>
+      </c>
+      <c r="M95" s="41">
+        <v>1.75</v>
+      </c>
+      <c r="N95" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="O95" s="41">
         <v>0.1</v>
       </c>
-      <c r="L94" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M94" s="42">
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="T95" s="30"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="B96" s="48" t="s">
+        <v>731</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="D96" s="48" t="s">
+        <v>732</v>
+      </c>
+      <c r="E96" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="45"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="45"/>
+      <c r="N96" s="45"/>
+      <c r="O96" s="45"/>
+      <c r="P96" s="45"/>
+      <c r="Q96" s="45"/>
+      <c r="R96" s="45"/>
+    </row>
+    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E97" s="49" t="s">
+        <v>724</v>
+      </c>
+      <c r="F97" s="49"/>
+      <c r="G97" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49">
+        <v>1</v>
+      </c>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="L97" s="49">
+        <v>4</v>
+      </c>
+      <c r="M97" s="41">
         <v>1.75</v>
       </c>
-      <c r="N94" s="50">
-        <v>0.25</v>
-      </c>
-      <c r="O94" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50" t="s">
-        <v>730</v>
-      </c>
-      <c r="E95" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F95" s="50"/>
-      <c r="G95" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H95" s="50"/>
-      <c r="I95" s="50">
-        <v>1</v>
-      </c>
-      <c r="J95" s="50"/>
-      <c r="K95" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L95" s="50">
-        <v>3</v>
-      </c>
-      <c r="M95" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N95" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="O95" s="42">
-        <v>0.1</v>
-      </c>
-      <c r="P95" s="42"/>
-      <c r="Q95" s="42"/>
-      <c r="R95" s="40" t="s">
-        <v>820</v>
-      </c>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="49" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="C96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="D96" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E96" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="46"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
-      <c r="I96" s="49"/>
-      <c r="J96" s="49"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="46"/>
-      <c r="N96" s="46"/>
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
-      <c r="Q96" s="46"/>
-      <c r="R96" s="46"/>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50" t="s">
-        <v>736</v>
-      </c>
-      <c r="E97" s="50" t="s">
-        <v>727</v>
-      </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H97" s="50"/>
-      <c r="I97" s="50">
-        <v>1</v>
-      </c>
-      <c r="J97" s="50"/>
-      <c r="K97" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L97" s="50">
-        <v>4</v>
-      </c>
-      <c r="M97" s="42">
-        <v>1.75</v>
-      </c>
-      <c r="N97" s="40">
+      <c r="N97" s="39">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="50">
+      <c r="O97" s="49">
         <v>0.1</v>
       </c>
-      <c r="P97" s="40"/>
-      <c r="Q97" s="40"/>
-      <c r="R97" s="40" t="s">
-        <v>820</v>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="50"/>
-      <c r="B98" s="50" t="s">
+      <c r="A98" s="49"/>
+      <c r="B98" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" s="50" t="s">
-        <v>729</v>
-      </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H98" s="50"/>
-      <c r="I98" s="50">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
+        <v>734</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>726</v>
+      </c>
+      <c r="F98" s="49"/>
+      <c r="G98" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H98" s="49"/>
+      <c r="I98" s="49">
         <v>1</v>
       </c>
-      <c r="J98" s="50"/>
-      <c r="K98" s="50">
+      <c r="J98" s="49"/>
+      <c r="K98" s="49">
         <v>0.5</v>
       </c>
-      <c r="L98" s="50">
+      <c r="L98" s="49">
         <v>4</v>
       </c>
-      <c r="M98" s="42">
+      <c r="M98" s="41">
         <v>1.75</v>
       </c>
-      <c r="N98" s="50">
+      <c r="N98" s="49">
         <v>0.25</v>
       </c>
-      <c r="O98" s="50">
+      <c r="O98" s="49">
         <v>0.1</v>
       </c>
-      <c r="P98" s="40"/>
-      <c r="Q98" s="40"/>
-      <c r="R98" s="40" t="s">
-        <v>820</v>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="50"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="49"/>
+      <c r="B99" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="E99" s="50" t="s">
-        <v>731</v>
-      </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="H99" s="50"/>
-      <c r="I99" s="50">
+      <c r="C99" s="49"/>
+      <c r="D99" s="49" t="s">
+        <v>735</v>
+      </c>
+      <c r="E99" s="49" t="s">
+        <v>728</v>
+      </c>
+      <c r="F99" s="49"/>
+      <c r="G99" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H99" s="49"/>
+      <c r="I99" s="49">
         <v>1</v>
       </c>
-      <c r="J99" s="50"/>
-      <c r="K99" s="50">
+      <c r="J99" s="49"/>
+      <c r="K99" s="49">
         <v>0.5</v>
       </c>
-      <c r="L99" s="50">
+      <c r="L99" s="49">
         <v>3</v>
       </c>
-      <c r="M99" s="42">
+      <c r="M99" s="41">
         <v>1.75</v>
       </c>
-      <c r="N99" s="42">
+      <c r="N99" s="41">
         <v>0.25</v>
       </c>
-      <c r="O99" s="42">
+      <c r="O99" s="41">
         <v>0.1</v>
       </c>
-      <c r="P99" s="42"/>
-      <c r="Q99" s="42"/>
-      <c r="R99" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="b">
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="45" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="46" t="s">
+      <c r="B100" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="C100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="D100" s="45" t="s">
+        <v>757</v>
+      </c>
+      <c r="E100" s="45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="55" t="s">
         <v>761</v>
       </c>
-      <c r="C100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="D100" s="46" t="s">
-        <v>760</v>
-      </c>
-      <c r="E100" s="46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="56" t="s">
-        <v>764</v>
-      </c>
-      <c r="E101" s="56" t="s">
-        <v>762</v>
-      </c>
-      <c r="F101" s="64"/>
-      <c r="G101" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="56" t="s">
-        <v>654</v>
-      </c>
-      <c r="I101" s="56">
+      <c r="E101" s="55" t="s">
+        <v>759</v>
+      </c>
+      <c r="F101" s="63"/>
+      <c r="G101" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H101" s="55" t="s">
+        <v>651</v>
+      </c>
+      <c r="I101" s="55">
         <v>1</v>
       </c>
-      <c r="J101" s="59"/>
-      <c r="K101" s="58">
+      <c r="J101" s="58"/>
+      <c r="K101" s="57">
         <v>0.9</v>
       </c>
-      <c r="L101" s="58">
+      <c r="L101" s="57">
         <v>1</v>
       </c>
-      <c r="M101" s="58">
+      <c r="M101" s="57">
         <v>0.95</v>
       </c>
-      <c r="N101" s="58">
+      <c r="N101" s="57">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="58">
+      <c r="O101" s="57">
         <v>0.1</v>
       </c>
-      <c r="R101" s="40" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="40" t="s">
+      <c r="R101" s="39" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="E102" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="I102" s="40">
+      <c r="D102" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="F102" s="49"/>
+      <c r="G102" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="I102" s="39">
         <v>1450</v>
       </c>
-      <c r="J102" s="43"/>
-      <c r="K102" s="42">
-        <v>0</v>
-      </c>
-      <c r="L102" s="42">
+      <c r="J102" s="42"/>
+      <c r="K102" s="41">
+        <v>0</v>
+      </c>
+      <c r="L102" s="41">
         <v>3000</v>
       </c>
-      <c r="M102" s="42">
+      <c r="M102" s="41">
         <v>1450</v>
       </c>
-      <c r="N102" s="42">
+      <c r="N102" s="41">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="42">
+      <c r="O102" s="41">
         <v>50</v>
       </c>
-      <c r="R102" s="40" t="s">
-        <v>820</v>
+      <c r="R102" s="39" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="37" t="b">
+      <c r="A103" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B103" s="37" t="s">
-        <v>739</v>
-      </c>
-      <c r="C103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="D103" s="37" t="s">
-        <v>740</v>
-      </c>
-      <c r="E103" s="37" t="s">
+      <c r="B103" s="36" t="s">
+        <v>736</v>
+      </c>
+      <c r="C103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="D103" s="36" t="s">
+        <v>737</v>
+      </c>
+      <c r="E103" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="37"/>
-      <c r="L103" s="37"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="37"/>
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
-      <c r="Q103" s="37"/>
-      <c r="R103" s="37"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="64"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="F104" s="63"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="47"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="F105" s="46"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="47"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="F106" s="46"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="47"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="F107" s="46"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="47"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="F108" s="46"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="47"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="F109" s="46"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="47"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="F110" s="46"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="47"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="F111" s="46"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="47"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="F112" s="46"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
     </row>
     <row r="118" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I132" s="31"/>
-      <c r="J132" s="31"/>
+      <c r="I132" s="30"/>
+      <c r="J132" s="30"/>
     </row>
     <row r="133" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I144" s="31"/>
-      <c r="J144" s="31"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I150" s="31"/>
-      <c r="J150" s="31"/>
+      <c r="I150" s="30"/>
+      <c r="J150" s="30"/>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I151" s="31"/>
-      <c r="J151" s="31"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I152" s="31"/>
-      <c r="J152" s="31"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I153" s="31"/>
-      <c r="J153" s="31"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I154" s="31"/>
-      <c r="J154" s="31"/>
+      <c r="I154" s="30"/>
+      <c r="J154" s="30"/>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I155" s="31"/>
-      <c r="J155" s="31"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I156" s="31"/>
-      <c r="J156" s="31"/>
+      <c r="I156" s="30"/>
+      <c r="J156" s="30"/>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I157" s="31"/>
-      <c r="J157" s="31"/>
+      <c r="I157" s="30"/>
+      <c r="J157" s="30"/>
     </row>
     <row r="158" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I158" s="31"/>
-      <c r="J158" s="31"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I159" s="31"/>
-      <c r="J159" s="31"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I160" s="31"/>
-      <c r="J160" s="31"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
     </row>
     <row r="161" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I161" s="31"/>
-      <c r="J161" s="31"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
     </row>
     <row r="162" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I162" s="31"/>
-      <c r="J162" s="31"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
     </row>
     <row r="163" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I163" s="31"/>
-      <c r="J163" s="31"/>
+      <c r="I163" s="30"/>
+      <c r="J163" s="30"/>
     </row>
     <row r="164" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I164" s="31"/>
-      <c r="J164" s="31"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
     </row>
     <row r="165" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I165" s="31"/>
-      <c r="J165" s="31"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
     </row>
     <row r="166" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I166" s="31"/>
-      <c r="J166" s="31"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
     </row>
     <row r="167" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
+      <c r="I167" s="30"/>
+      <c r="J167" s="30"/>
     </row>
     <row r="168" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I168" s="31"/>
-      <c r="J168" s="31"/>
+      <c r="I168" s="30"/>
+      <c r="J168" s="30"/>
     </row>
     <row r="169" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
+      <c r="I169" s="30"/>
+      <c r="J169" s="30"/>
     </row>
     <row r="170" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I170" s="31"/>
-      <c r="J170" s="31"/>
+      <c r="I170" s="30"/>
+      <c r="J170" s="30"/>
     </row>
     <row r="171" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
+      <c r="I171" s="30"/>
+      <c r="J171" s="30"/>
     </row>
     <row r="172" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I172" s="31"/>
-      <c r="J172" s="31"/>
+      <c r="I172" s="30"/>
+      <c r="J172" s="30"/>
     </row>
     <row r="173" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I173" s="31"/>
-      <c r="J173" s="31"/>
+      <c r="I173" s="30"/>
+      <c r="J173" s="30"/>
     </row>
     <row r="174" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
+      <c r="I174" s="30"/>
+      <c r="J174" s="30"/>
     </row>
     <row r="175" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I175" s="31"/>
-      <c r="J175" s="31"/>
+      <c r="I175" s="30"/>
+      <c r="J175" s="30"/>
     </row>
     <row r="176" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
+      <c r="I176" s="30"/>
+      <c r="J176" s="30"/>
     </row>
     <row r="177" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I177" s="31"/>
-      <c r="J177" s="31"/>
+      <c r="I177" s="30"/>
+      <c r="J177" s="30"/>
     </row>
     <row r="178" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I178" s="31"/>
-      <c r="J178" s="31"/>
+      <c r="I178" s="30"/>
+      <c r="J178" s="30"/>
     </row>
     <row r="179" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I179" s="31"/>
-      <c r="J179" s="31"/>
+      <c r="I179" s="30"/>
+      <c r="J179" s="30"/>
     </row>
     <row r="180" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I180" s="31"/>
-      <c r="J180" s="31"/>
+      <c r="I180" s="30"/>
+      <c r="J180" s="30"/>
     </row>
     <row r="181" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
+      <c r="I181" s="30"/>
+      <c r="J181" s="30"/>
     </row>
     <row r="182" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I182" s="31"/>
-      <c r="J182" s="31"/>
+      <c r="I182" s="30"/>
+      <c r="J182" s="30"/>
     </row>
     <row r="183" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I183" s="31"/>
-      <c r="J183" s="31"/>
+      <c r="I183" s="30"/>
+      <c r="J183" s="30"/>
     </row>
     <row r="184" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I184" s="31"/>
-      <c r="J184" s="31"/>
+      <c r="I184" s="30"/>
+      <c r="J184" s="30"/>
     </row>
     <row r="185" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I185" s="31"/>
-      <c r="J185" s="31"/>
+      <c r="I185" s="30"/>
+      <c r="J185" s="30"/>
     </row>
     <row r="186" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I186" s="31"/>
-      <c r="J186" s="31"/>
+      <c r="I186" s="30"/>
+      <c r="J186" s="30"/>
     </row>
     <row r="187" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I187" s="31"/>
-      <c r="J187" s="31"/>
+      <c r="I187" s="30"/>
+      <c r="J187" s="30"/>
     </row>
     <row r="188" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I188" s="31"/>
-      <c r="J188" s="31"/>
+      <c r="I188" s="30"/>
+      <c r="J188" s="30"/>
     </row>
     <row r="189" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I189" s="31"/>
-      <c r="J189" s="31"/>
+      <c r="I189" s="30"/>
+      <c r="J189" s="30"/>
     </row>
     <row r="190" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I190" s="31"/>
-      <c r="J190" s="31"/>
+      <c r="I190" s="30"/>
+      <c r="J190" s="30"/>
     </row>
     <row r="191" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I191" s="31"/>
-      <c r="J191" s="31"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="30"/>
     </row>
     <row r="192" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I192" s="31"/>
-      <c r="J192" s="31"/>
+      <c r="I192" s="30"/>
+      <c r="J192" s="30"/>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I193" s="31"/>
-      <c r="J193" s="31"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="30"/>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I194" s="31"/>
-      <c r="J194" s="31"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="30"/>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I195" s="31"/>
-      <c r="J195" s="31"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="30"/>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I196" s="31"/>
-      <c r="J196" s="31"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="30"/>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I197" s="31"/>
-      <c r="J197" s="31"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="30"/>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
+      <c r="I198" s="30"/>
+      <c r="J198" s="30"/>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I199" s="31"/>
-      <c r="J199" s="31"/>
+      <c r="I199" s="30"/>
+      <c r="J199" s="30"/>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="31"/>
-      <c r="J200" s="31"/>
+      <c r="I200" s="30"/>
+      <c r="J200" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA127"/>
@@ -10248,26 +10211,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="31"/>
+    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="60"/>
+      <c r="B1" s="59"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -10281,11 +10244,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>768</v>
+      <c r="B2" s="62" t="s">
+        <v>765</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10297,40 +10260,40 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>766</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>769</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>625</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>459</v>
@@ -10342,1145 +10305,1145 @@
         <v>459</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>628</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>637</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>628</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30" t="b">
+      <c r="E7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>632</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30" t="b">
+      <c r="H7" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>639</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>770</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>634</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>626</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="30" t="b">
+      <c r="I7" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="30" t="b">
+      <c r="I8" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>676</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29" t="s">
+        <v>677</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>640</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>771</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>633</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>627</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="30" t="b">
+      <c r="I9" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>678</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="b">
+      <c r="I10" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>681</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30" t="b">
+      <c r="I11" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="b">
+      <c r="I12" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
+        <v>684</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
+        <v>685</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30" t="b">
+      <c r="I13" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="29" t="s">
+        <v>686</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29" t="s">
+        <v>687</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>684</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30" t="b">
+      <c r="I14" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>688</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30" t="b">
+      <c r="I15" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>690</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29" t="s">
+        <v>691</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30" t="s">
-        <v>688</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30" t="b">
+      <c r="I16" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I13" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30" t="b">
+      <c r="I17" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>695</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I14" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>691</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30" t="b">
+      <c r="I18" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I15" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>693</v>
-      </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30" t="s">
-        <v>694</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="30" t="b">
+      <c r="I19" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="29" t="s">
+        <v>698</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29" t="s">
+        <v>699</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I16" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="30" t="b">
+      <c r="I20" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I17" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30" t="s">
-        <v>698</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="b">
+      <c r="I21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>703</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I18" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
-        <v>700</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="b">
+      <c r="I22" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>705</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I19" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>701</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
-        <v>702</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="b">
+      <c r="I23" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>704</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I20" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>703</v>
-      </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30" t="s">
-        <v>704</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="b">
+      <c r="I24" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>709</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>710</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>711</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I21" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30" t="s">
-        <v>706</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="b">
+      <c r="I25" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>802</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I22" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="b">
+      <c r="I26" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>803</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I23" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="30" t="b">
+      <c r="I27" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>712</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>804</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I24" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30" t="s">
+      <c r="I28" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="29" t="s">
         <v>713</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>805</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="29" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="b">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>806</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I25" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>645</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>646</v>
-      </c>
-      <c r="F26" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="b">
+      <c r="H30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I26" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30" t="s">
-        <v>806</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="b">
+      <c r="I30" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I27" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29" t="s">
         <v>807</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="b">
+      <c r="E31" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
+      <c r="H31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
         <v>716</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29" t="s">
         <v>808</v>
       </c>
-      <c r="E29" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="b">
+      <c r="E32" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
+      <c r="H32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
         <v>717</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29" t="s">
         <v>809</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="30" t="b">
+      <c r="E33" s="29" t="s">
+        <v>651</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="30" t="b">
+      <c r="H33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="30" t="b">
+      <c r="I33" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30" t="s">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
         <v>810</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="30" t="b">
+      <c r="E34" s="29"/>
+      <c r="F34" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="30" t="b">
+      <c r="H34" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="30" t="b">
+      <c r="I34" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="30" t="b">
+      <c r="H35" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="b">
+      <c r="I35" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="29" t="s">
+        <v>741</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="30" t="b">
+      <c r="H36" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>654</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="30" t="b">
+      <c r="I36" s="29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B37" s="29"/>
+      <c r="D37" s="29" t="s">
+        <v>813</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="H33" s="30" t="b">
+      <c r="H37" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>743</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>744</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>745</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="D37" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="30" t="b">
+      <c r="I37" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="30"/>
+      <c r="B38" s="29"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
+      <c r="B39" s="29"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
+      <c r="B40" s="29"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
+      <c r="B41" s="29"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
+      <c r="B42" s="29"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
+      <c r="B44" s="29"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="30"/>
+      <c r="B45" s="29"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
+      <c r="B46" s="29"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="30"/>
+      <c r="B47" s="29"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
+      <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="30"/>
+      <c r="B49" s="29"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="30"/>
+      <c r="B50" s="29"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="30"/>
+      <c r="B51" s="29"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="30"/>
+      <c r="B52" s="29"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="30"/>
+      <c r="B53" s="29"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="30"/>
+      <c r="B54" s="29"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="30"/>
+      <c r="B55" s="29"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="30"/>
+      <c r="B56" s="29"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="30"/>
+      <c r="B57" s="29"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="30"/>
+      <c r="B58" s="29"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="30"/>
+      <c r="B59" s="29"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="30"/>
+      <c r="B60" s="29"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="29"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="30"/>
+      <c r="B62" s="29"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="30"/>
+      <c r="B63" s="29"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="30"/>
+      <c r="B64" s="29"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="30"/>
+      <c r="B65" s="29"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="30"/>
+      <c r="B66" s="29"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="30"/>
+      <c r="B67" s="29"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="30"/>
+      <c r="B68" s="29"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="30"/>
+      <c r="B69" s="29"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="30"/>
+      <c r="B70" s="29"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="30"/>
+      <c r="B71" s="29"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="30"/>
+      <c r="B72" s="29"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="30"/>
+      <c r="B73" s="29"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="30"/>
+      <c r="B74" s="29"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="30"/>
+      <c r="B75" s="29"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="30"/>
+      <c r="B76" s="29"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="30"/>
+      <c r="B77" s="29"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="30"/>
+      <c r="B78" s="29"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="30"/>
+      <c r="B80" s="29"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="30"/>
+      <c r="B81" s="29"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="30"/>
+      <c r="B82" s="29"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="30"/>
+      <c r="B83" s="29"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="30"/>
+      <c r="B84" s="29"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="30"/>
+      <c r="B85" s="29"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="30"/>
+      <c r="B86" s="29"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="30"/>
+      <c r="B87" s="29"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="30"/>
+      <c r="B88" s="29"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="30"/>
+      <c r="B89" s="29"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="30"/>
+      <c r="B90" s="29"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="30"/>
+      <c r="B91" s="29"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="30"/>
+      <c r="B92" s="29"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="30"/>
+      <c r="B93" s="29"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="30"/>
+      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18853,10 +18816,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C328" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>66</v>
@@ -18867,10 +18830,10 @@
         <v>21</v>
       </c>
       <c r="C329" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -18879,10 +18842,10 @@
         <v>60</v>
       </c>
       <c r="H329" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="I329" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -18890,10 +18853,10 @@
         <v>21</v>
       </c>
       <c r="C330" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -18910,10 +18873,10 @@
         <v>21</v>
       </c>
       <c r="C331" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -18930,10 +18893,10 @@
         <v>21</v>
       </c>
       <c r="C332" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -18950,10 +18913,10 @@
         <v>21</v>
       </c>
       <c r="C333" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -18967,10 +18930,10 @@
         <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D334" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -18979,10 +18942,10 @@
         <v>60</v>
       </c>
       <c r="H334" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I334" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -18990,10 +18953,10 @@
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D335" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -19002,10 +18965,10 @@
         <v>60</v>
       </c>
       <c r="H335" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I335" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -19013,10 +18976,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D336" t="s">
         <v>66</v>
@@ -19027,10 +18990,10 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D337" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -19039,10 +19002,10 @@
         <v>60</v>
       </c>
       <c r="H337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I337" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -19050,10 +19013,10 @@
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D338" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -19062,10 +19025,10 @@
         <v>60</v>
       </c>
       <c r="H338" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I338" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -19073,10 +19036,10 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D339" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -19093,10 +19056,10 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -19113,10 +19076,10 @@
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D341" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -19130,10 +19093,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>66</v>
@@ -19157,10 +19120,10 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D343" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -19169,10 +19132,10 @@
         <v>60</v>
       </c>
       <c r="H343" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I343" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -19186,10 +19149,10 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D344" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -19224,10 +19187,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C345" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>66</v>
@@ -19238,10 +19201,10 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
+        <v>516</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -19452,10 +19415,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D357" t="s">
         <v>66</v>
@@ -19466,10 +19429,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D358" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -19486,10 +19449,10 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -19506,10 +19469,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>66</v>
@@ -19522,10 +19485,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D361" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -19535,10 +19498,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I361" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -19549,10 +19512,10 @@
         <v>22</v>
       </c>
       <c r="C362" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D362" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -19589,10 +19552,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C363" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>66</v>
@@ -19603,10 +19566,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D364" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -19623,10 +19586,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C365" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>66</v>
@@ -19637,10 +19600,10 @@
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D366" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -19692,130 +19655,130 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>586</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="B2" s="30" t="s">
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>590</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="C5" s="29" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="C6" s="29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>595</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="30" t="s">
+      <c r="D7" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="D8" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="B9" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>601</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>602</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>565</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" t="s">
+        <v>550</v>
+      </c>
+      <c r="G11" t="s">
         <v>567</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E11" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -19826,10 +19789,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -19840,66 +19803,66 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L16" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O16" t="s">
-        <v>561</v>
-      </c>
-      <c r="R16" s="30" t="s">
-        <v>549</v>
-      </c>
-      <c r="U16" s="30" t="s">
-        <v>550</v>
+        <v>559</v>
+      </c>
+      <c r="R16" s="29" t="s">
+        <v>547</v>
+      </c>
+      <c r="U16" s="29" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
         <v>452</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J17" s="29">
+        <v>534</v>
+      </c>
+      <c r="J17" s="28">
         <v>0.01</v>
       </c>
-      <c r="K17" s="31" t="s">
-        <v>575</v>
+      <c r="K17" s="30" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M17">
         <v>30</v>
       </c>
       <c r="N17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O17" t="s">
         <v>4</v>
@@ -19907,8 +19870,8 @@
       <c r="P17">
         <v>30</v>
       </c>
-      <c r="Q17" s="30" t="s">
-        <v>577</v>
+      <c r="Q17" s="29" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -19922,232 +19885,232 @@
         <v>30</v>
       </c>
       <c r="H18" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="J18" s="29">
+        <v>539</v>
+      </c>
+      <c r="J18" s="28">
         <v>0.01</v>
       </c>
       <c r="K18" t="s">
-        <v>574</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>562</v>
+        <v>572</v>
+      </c>
+      <c r="L18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>562</v>
+      <c r="N18" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>560</v>
       </c>
       <c r="P18">
         <v>3</v>
       </c>
       <c r="Q18" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="J19" s="29">
+        <v>553</v>
+      </c>
+      <c r="J19" s="28">
         <v>45036000000000</v>
       </c>
       <c r="K19" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M19">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>581</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>563</v>
+        <v>579</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>561</v>
       </c>
       <c r="P19">
         <v>0.85</v>
       </c>
       <c r="Q19" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L20" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M20">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>579</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>564</v>
+        <v>577</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>562</v>
       </c>
       <c r="P20">
         <v>2</v>
       </c>
       <c r="Q20" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>536</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="M21" s="29">
+        <v>558</v>
+      </c>
+      <c r="M21" s="28">
         <v>0.01</v>
       </c>
-      <c r="N21" s="31" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>565</v>
+      <c r="N21" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>563</v>
       </c>
       <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" s="30" t="s">
-        <v>585</v>
+      <c r="Q21" s="29" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="J22" s="31">
+        <v>537</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="M22" s="29">
+        <v>534</v>
+      </c>
+      <c r="M22" s="28">
         <v>0.01</v>
       </c>
-      <c r="N22" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>566</v>
+      <c r="N22" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>564</v>
       </c>
       <c r="P22">
         <v>0.8</v>
       </c>
       <c r="Q22" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="M23" s="29">
+        <v>539</v>
+      </c>
+      <c r="M23" s="28">
         <v>0.01</v>
       </c>
-      <c r="N23" s="30" t="s">
-        <v>574</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>538</v>
+      <c r="N23" s="29" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="M24" s="29">
+        <v>553</v>
+      </c>
+      <c r="M24" s="28">
         <v>45036000000000</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>539</v>
-      </c>
-      <c r="P24" s="31">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="30" t="s">
+      <c r="N24" s="29" t="s">
         <v>571</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="P24" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M25" s="30">
+        <v>554</v>
+      </c>
+      <c r="M25" s="29">
         <v>100</v>
       </c>
-      <c r="N25" s="30" t="s">
-        <v>572</v>
+      <c r="N25" s="29" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="M26" s="31" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="M26" s="30" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="M27" s="31">
-        <v>2</v>
-      </c>
-      <c r="N27" s="30" t="s">
-        <v>571</v>
+        <v>537</v>
+      </c>
+      <c r="M27" s="30">
+        <v>2</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -2493,7 +2493,7 @@
     <t>uniform</t>
   </si>
   <si>
-    <t>1.17.0</t>
+    <t>1.21.14</t>
   </si>
 </sst>
 </file>
@@ -6790,7 +6790,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6908,7 +6908,7 @@
         <v>456</v>
       </c>
       <c r="B9" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="32"/>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2647" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="816">
   <si>
     <t>type</t>
   </si>
@@ -2248,12 +2248,6 @@
   </si>
   <si>
     <t>Roof thermal mass multiplier</t>
-  </si>
-  <si>
-    <t>Server Directory Cleanup</t>
-  </si>
-  <si>
-    <t>ServerDirectoryCleanup</t>
   </si>
   <si>
     <t>../analysis</t>
@@ -6789,8 +6783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6826,7 +6820,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6837,7 +6831,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6848,7 +6842,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6859,7 +6853,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6930,7 +6924,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6941,7 +6935,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>647</v>
@@ -6952,7 +6946,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>647</v>
@@ -7026,25 +7020,29 @@
       <c r="A22" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>452</v>
+      <c r="B22" s="34" t="s">
+        <v>450</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="34" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="29">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="34">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
@@ -7112,7 +7110,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7140,7 +7138,7 @@
         <v>638</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7167,7 +7165,7 @@
         <v>640</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7197,9 +7195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7297,7 +7295,7 @@
         <v>35</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7362,13 +7360,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>66</v>
@@ -7381,17 +7379,17 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7400,7 +7398,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7410,7 +7408,7 @@
         <v>718</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7419,17 +7417,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7438,10 +7436,10 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="30" t="s">
@@ -7457,17 +7455,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7486,7 +7484,7 @@
         <v>718</v>
       </c>
       <c r="I10" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7505,7 +7503,7 @@
         <v>718</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7514,17 +7512,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7533,17 +7531,17 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J13" s="30"/>
     </row>
@@ -7552,13 +7550,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>66</v>
@@ -7571,17 +7569,17 @@
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7590,7 +7588,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7600,7 +7598,7 @@
         <v>718</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7609,17 +7607,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7628,10 +7626,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="30" t="s">
@@ -7647,17 +7645,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="30" t="s">
         <v>718</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7676,7 +7674,7 @@
         <v>718</v>
       </c>
       <c r="I20" s="47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7695,7 +7693,7 @@
         <v>718</v>
       </c>
       <c r="I21" s="47" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7704,17 +7702,17 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="J22" s="30"/>
     </row>
@@ -7723,13 +7721,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7810,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7865,7 +7863,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8042,7 +8040,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8310,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8462,13 +8460,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E54" s="45" t="s">
         <v>66</v>
@@ -8500,10 +8498,10 @@
         <v>22</v>
       </c>
       <c r="D56" s="39" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="39" t="s">
@@ -8533,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8703,13 +8701,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E65" s="45" t="s">
         <v>66</v>
@@ -8720,7 +8718,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
@@ -8741,10 +8739,10 @@
         <v>22</v>
       </c>
       <c r="D67" s="39" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="39" t="s">
@@ -8774,7 +8772,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8982,7 +8980,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>243</v>
@@ -9015,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9023,10 +9021,10 @@
         <v>22</v>
       </c>
       <c r="D79" s="39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F79" s="49"/>
       <c r="G79" s="39" t="s">
@@ -9056,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9276,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9317,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9414,7 +9412,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9456,7 +9454,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9498,7 +9496,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9572,7 +9570,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9614,7 +9612,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9656,7 +9654,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9664,13 +9662,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="45" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D100" s="45" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E100" s="45" t="s">
         <v>66</v>
@@ -9681,10 +9679,10 @@
         <v>21</v>
       </c>
       <c r="D101" s="55" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="E101" s="55" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F101" s="63"/>
       <c r="G101" s="55" t="s">
@@ -9714,7 +9712,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9722,10 +9720,10 @@
         <v>22</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F102" s="49"/>
       <c r="G102" s="39" t="s">
@@ -9755,25 +9753,15 @@
         <v>50</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="B103" s="36" t="s">
-        <v>736</v>
-      </c>
-      <c r="C103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="D103" s="36" t="s">
-        <v>737</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>231</v>
-      </c>
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="37"/>
@@ -10245,7 +10233,7 @@
         <v>457</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>627</v>
@@ -10283,7 +10271,7 @@
         <v>619</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>632</v>
@@ -10381,7 +10369,7 @@
         <v>636</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>631</v>
@@ -10413,7 +10401,7 @@
         <v>637</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>630</v>
@@ -10965,7 +10953,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -10994,7 +10982,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11023,7 +11011,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11051,7 +11039,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11079,7 +11067,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11107,7 +11095,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11135,7 +11123,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11163,7 +11151,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11186,12 +11174,12 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11209,12 +11197,12 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11232,12 +11220,12 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11255,11 +11243,11 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2439,45 +2439,6 @@
     <t>SEB4 baseboard LHS 2013 184</t>
   </si>
   <si>
-    <t>CalibrationReportsEnhanced</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.electric_bill_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced.gas_bill_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
@@ -2488,6 +2449,45 @@
   </si>
   <si>
     <t>1.21.14</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
   </si>
 </sst>
 </file>
@@ -6783,7 +6783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6842,7 +6842,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6853,7 +6853,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -7195,9 +7195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD103"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7721,13 +7721,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="E23" s="36" t="s">
         <v>231</v>
@@ -7808,7 +7808,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7863,7 +7863,7 @@
         <v>0.01</v>
       </c>
       <c r="R28" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="Q36" s="54"/>
       <c r="R36" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8531,7 +8531,7 @@
         <v>1</v>
       </c>
       <c r="R56" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8772,7 +8772,7 @@
         <v>0.25</v>
       </c>
       <c r="R67" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9013,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9054,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="R79" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9274,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9315,7 +9315,7 @@
         <v>1</v>
       </c>
       <c r="R90" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9412,7 +9412,7 @@
       <c r="P93" s="39"/>
       <c r="Q93" s="39"/>
       <c r="R93" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9454,7 +9454,7 @@
       <c r="P94" s="39"/>
       <c r="Q94" s="39"/>
       <c r="R94" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9496,7 +9496,7 @@
       <c r="P95" s="41"/>
       <c r="Q95" s="41"/>
       <c r="R95" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="T95" s="30"/>
     </row>
@@ -9570,7 +9570,7 @@
       <c r="P97" s="39"/>
       <c r="Q97" s="39"/>
       <c r="R97" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9612,7 +9612,7 @@
       <c r="P98" s="39"/>
       <c r="Q98" s="39"/>
       <c r="R98" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -9654,7 +9654,7 @@
       <c r="P99" s="41"/>
       <c r="Q99" s="41"/>
       <c r="R99" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9712,7 +9712,7 @@
         <v>0.1</v>
       </c>
       <c r="R101" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9753,7 +9753,7 @@
         <v>50</v>
       </c>
       <c r="R102" s="39" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -10953,7 +10953,7 @@
       <c r="B26" s="46"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>643</v>
@@ -10982,7 +10982,7 @@
       <c r="B27" s="46"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>645</v>
@@ -11011,7 +11011,7 @@
       <c r="B28" s="46"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>651</v>
@@ -11039,7 +11039,7 @@
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>651</v>
@@ -11067,7 +11067,7 @@
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>651</v>
@@ -11095,7 +11095,7 @@
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E31" s="29" t="s">
         <v>651</v>
@@ -11123,7 +11123,7 @@
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E32" s="29" t="s">
         <v>651</v>
@@ -11151,7 +11151,7 @@
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="E33" s="29" t="s">
         <v>651</v>
@@ -11179,7 +11179,7 @@
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
@@ -11202,7 +11202,7 @@
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
@@ -11225,7 +11225,7 @@
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="B37" s="29"/>
       <c r="D37" s="29" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="767">
   <si>
     <t>type</t>
   </si>
@@ -1911,33 +1911,15 @@
     <t>Measure/Variable Unique Name</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_natural_gas</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.total_electricity</t>
-  </si>
-  <si>
     <t>standard_report_legacy.total_energy</t>
   </si>
   <si>
-    <t>standard_report_legacy.total_source_energy</t>
-  </si>
-  <si>
     <t>Taxonomy Identifier</t>
   </si>
   <si>
     <t>total_site_energy_intensity</t>
   </si>
   <si>
-    <t>total_source_energy_intensity</t>
-  </si>
-  <si>
-    <t>total_electricity_intensity</t>
-  </si>
-  <si>
-    <t>total_natural_gas_intensity</t>
-  </si>
-  <si>
     <t>Machine Name thats Link to Dencity Taxonomy</t>
   </si>
   <si>
@@ -1947,15 +1929,6 @@
     <t>Total Site Energy Intensity</t>
   </si>
   <si>
-    <t>Total Source Energy Intensity</t>
-  </si>
-  <si>
-    <t>Total Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>Total Electricity Intensity</t>
-  </si>
-  <si>
     <t>OSM</t>
   </si>
   <si>
@@ -2064,120 +2037,6 @@
     <t>Space Infiltration Reduction</t>
   </si>
   <si>
-    <t>Natural Gas Heating Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heating_natural_gas</t>
-  </si>
-  <si>
-    <t>Cooling Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.cooling_electricity</t>
-  </si>
-  <si>
-    <t>Interior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Exterior Lighting Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_lighting_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Equipment Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.interior_equipment_natural_gas</t>
-  </si>
-  <si>
-    <t>Experior Equipment Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.exterior_equipment_electricity</t>
-  </si>
-  <si>
-    <t>Fans Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.fans_electricity</t>
-  </si>
-  <si>
-    <t>Pumps Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.pumps_electricity</t>
-  </si>
-  <si>
-    <t>Heat Rejection Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.heat_rejection_electricity</t>
-  </si>
-  <si>
-    <t>Humidification Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.humidification_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_electricity</t>
-  </si>
-  <si>
-    <t>Water Systems Natural Gas Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.water_systems_natural_gas</t>
-  </si>
-  <si>
-    <t>Refrigeration Electricity Intensity</t>
-  </si>
-  <si>
-    <t>standard_report_legacy.refrigeration_electricity</t>
-  </si>
-  <si>
-    <t>Unmet Cooling Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
-    <t>hrs</t>
-  </si>
-  <si>
-    <t>Unmet Heating Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
-    <t>Total Unmet Hours</t>
-  </si>
-  <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
-    <t>Building Area</t>
-  </si>
-  <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>Electric RMSE</t>
   </si>
   <si>
@@ -2335,12 +2194,6 @@
   </si>
   <si>
     <t>Short display names are used for plots and exported to metadata</t>
-  </si>
-  <si>
-    <t>NG EUI</t>
-  </si>
-  <si>
-    <t>Elec EUI</t>
   </si>
   <si>
     <t>name</t>
@@ -4517,7 +4370,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4579,7 +4432,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -6783,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6820,7 +6672,7 @@
         <v>434</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>435</v>
@@ -6831,7 +6683,7 @@
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>767</v>
+        <v>718</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
@@ -6842,7 +6694,7 @@
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>802</v>
+        <v>753</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
@@ -6853,7 +6705,7 @@
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>799</v>
+        <v>750</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
@@ -6866,11 +6718,11 @@
       <c r="B7" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C7" s="32" t="str">
+      <c r="C7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D7" s="32" t="str">
+      <c r="D7" s="31" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6885,11 +6737,11 @@
       <c r="B8" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="C8" s="32" t="str">
+      <c r="C8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>16 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="32" t="str">
+      <c r="D8" s="31" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$1.68/hour</v>
       </c>
@@ -6905,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>602</v>
       </c>
@@ -6924,7 +6776,7 @@
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>798</v>
+        <v>749</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
@@ -6935,10 +6787,10 @@
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>794</v>
+        <v>745</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -6946,10 +6798,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -7020,13 +6872,13 @@
       <c r="A22" s="29" t="s">
         <v>566</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>450</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="33" t="s">
         <v>450</v>
       </c>
     </row>
@@ -7040,54 +6892,54 @@
       <c r="C23" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="34"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
+      <c r="D28" s="33"/>
     </row>
     <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="29"/>
-      <c r="D29" s="34"/>
+      <c r="D29" s="33"/>
     </row>
     <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="34"/>
+      <c r="D31" s="33"/>
     </row>
     <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="34"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
@@ -7097,7 +6949,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>30</v>
@@ -7110,7 +6962,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>795</v>
+        <v>746</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -7124,7 +6976,7 @@
         <v>37</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="E37" s="13" t="s">
         <v>447</v>
@@ -7135,10 +6987,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>796</v>
+        <v>747</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -7150,7 +7002,7 @@
         <v>33</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="13" t="s">
@@ -7159,13 +7011,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="30" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>797</v>
+        <v>748</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
@@ -7196,7 +7048,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7233,7 +7085,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
-      <c r="F1" s="59"/>
+      <c r="F1" s="58"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="6"/>
@@ -7245,21 +7097,21 @@
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
       <c r="O1" s="22"/>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>470</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
     </row>
     <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7274,7 +7126,7 @@
       <c r="D2" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="60"/>
+      <c r="F2" s="59"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
@@ -7294,8 +7146,8 @@
       <c r="E3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>762</v>
+      <c r="F3" s="60" t="s">
+        <v>715</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>11</v>
@@ -7355,41 +7207,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="b">
+    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>768</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>769</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>769</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="35" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F5" s="63"/>
+        <v>722</v>
+      </c>
+      <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
-        <v>772</v>
+        <v>723</v>
       </c>
       <c r="J5" s="30"/>
     </row>
@@ -7398,17 +7250,17 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="63"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>774</v>
+        <v>725</v>
       </c>
       <c r="J6" s="30"/>
     </row>
@@ -7417,17 +7269,17 @@
         <v>21</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="F7" s="63"/>
+        <v>727</v>
+      </c>
+      <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>777</v>
+        <v>728</v>
       </c>
       <c r="J7" s="30"/>
     </row>
@@ -7436,17 +7288,17 @@
         <v>21</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F8" s="63"/>
+        <v>730</v>
+      </c>
+      <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="J8" s="30"/>
     </row>
@@ -7455,17 +7307,17 @@
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="F9" s="63"/>
+        <v>732</v>
+      </c>
+      <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="J9" s="30"/>
     </row>
@@ -7474,17 +7326,17 @@
         <v>21</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F10" s="63"/>
+        <v>673</v>
+      </c>
+      <c r="F10" s="62"/>
       <c r="G10" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J10" s="30"/>
     </row>
@@ -7493,17 +7345,17 @@
         <v>21</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F11" s="63"/>
+        <v>675</v>
+      </c>
+      <c r="F11" s="62"/>
       <c r="G11" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I11" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J11" s="30"/>
     </row>
@@ -7512,17 +7364,17 @@
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F12" s="63"/>
+        <v>735</v>
+      </c>
+      <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>785</v>
+      <c r="I12" s="46" t="s">
+        <v>736</v>
       </c>
       <c r="J12" s="30"/>
     </row>
@@ -7531,55 +7383,55 @@
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>792</v>
+        <v>743</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>793</v>
-      </c>
-      <c r="F13" s="63"/>
+        <v>744</v>
+      </c>
+      <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="47" t="s">
-        <v>785</v>
+      <c r="I13" s="46" t="s">
+        <v>736</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="b">
+    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B14" s="36" t="s">
-        <v>786</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>769</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>769</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>720</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>770</v>
+        <v>721</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F15" s="63"/>
+        <v>722</v>
+      </c>
+      <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>787</v>
+        <v>738</v>
       </c>
       <c r="J15" s="30"/>
     </row>
@@ -7588,17 +7440,17 @@
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>773</v>
+        <v>724</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="63"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>788</v>
+        <v>739</v>
       </c>
       <c r="J16" s="30"/>
     </row>
@@ -7607,17 +7459,17 @@
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>775</v>
+        <v>726</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="F17" s="63"/>
+        <v>727</v>
+      </c>
+      <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>789</v>
+        <v>740</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -7626,17 +7478,17 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>778</v>
+        <v>729</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>779</v>
-      </c>
-      <c r="F18" s="63"/>
+        <v>730</v>
+      </c>
+      <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -7645,17 +7497,17 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>780</v>
+        <v>731</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>781</v>
-      </c>
-      <c r="F19" s="63"/>
+        <v>732</v>
+      </c>
+      <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>790</v>
+        <v>741</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -7664,17 +7516,17 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="F20" s="63"/>
+        <v>673</v>
+      </c>
+      <c r="F20" s="62"/>
       <c r="G20" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I20" s="47" t="s">
-        <v>745</v>
+        <v>671</v>
+      </c>
+      <c r="I20" s="46" t="s">
+        <v>698</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -7683,17 +7535,17 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="F21" s="63"/>
+        <v>675</v>
+      </c>
+      <c r="F21" s="62"/>
       <c r="G21" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>746</v>
+        <v>671</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>699</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -7702,53 +7554,53 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>783</v>
+        <v>734</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>784</v>
-      </c>
-      <c r="F22" s="63"/>
+        <v>735</v>
+      </c>
+      <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="47" t="s">
-        <v>791</v>
+      <c r="I22" s="46" t="s">
+        <v>742</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="b">
+    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>800</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>815</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>815</v>
-      </c>
-      <c r="E23" s="36" t="s">
+      <c r="B23" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>766</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="b">
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7762,7 +7614,7 @@
       <c r="E25" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="29" t="s">
         <v>60</v>
       </c>
@@ -7774,41 +7626,41 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>673</v>
-      </c>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="39" t="s">
+      <c r="F26" s="48"/>
+      <c r="G26" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="39">
-        <v>0</v>
-      </c>
-      <c r="K26" s="41">
-        <v>0</v>
-      </c>
-      <c r="L26" s="41">
+      <c r="I26" s="38">
+        <v>0</v>
+      </c>
+      <c r="K26" s="40">
+        <v>0</v>
+      </c>
+      <c r="L26" s="40">
         <v>100</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="40">
         <v>15</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="40">
         <f>(L26-K26)/6</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="40">
         <v>1</v>
       </c>
-      <c r="R26" s="39" t="s">
-        <v>801</v>
+      <c r="R26" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7816,12 +7668,12 @@
         <v>21</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>666</v>
-      </c>
-      <c r="F27" s="63"/>
+        <v>657</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27" s="29" t="s">
         <v>62</v>
       </c>
@@ -7829,41 +7681,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>668</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>667</v>
-      </c>
-      <c r="F28" s="63"/>
-      <c r="G28" s="55" t="s">
+    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="55">
-        <v>0</v>
-      </c>
-      <c r="K28" s="57">
-        <v>0</v>
-      </c>
-      <c r="L28" s="57">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="K28" s="56">
+        <v>0</v>
+      </c>
+      <c r="L28" s="56">
         <v>0.1</v>
       </c>
-      <c r="M28" s="57">
+      <c r="M28" s="56">
         <v>0.05</v>
       </c>
-      <c r="N28" s="57">
+      <c r="N28" s="56">
         <f>(L28-K28)/6</f>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="O28" s="57">
+      <c r="O28" s="56">
         <v>0.01</v>
       </c>
-      <c r="R28" s="39" t="s">
-        <v>801</v>
+      <c r="R28" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -7871,12 +7723,12 @@
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>669</v>
-      </c>
-      <c r="F29" s="63"/>
+        <v>660</v>
+      </c>
+      <c r="F29" s="62"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7889,12 +7741,12 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="64"/>
+        <v>662</v>
+      </c>
+      <c r="F30" s="63"/>
       <c r="G30" s="29" t="s">
         <v>62</v>
       </c>
@@ -7912,7 +7764,7 @@
       <c r="E31" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="29" t="s">
         <v>62</v>
       </c>
@@ -7930,7 +7782,7 @@
       <c r="E32" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="29" t="s">
         <v>62</v>
       </c>
@@ -7948,7 +7800,7 @@
       <c r="E33" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="29" t="s">
         <v>63</v>
       </c>
@@ -7957,20 +7809,20 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="b">
+    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7986,7 +7838,7 @@
       <c r="E35" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="29" t="s">
         <v>60</v>
       </c>
@@ -8002,45 +7854,45 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="Q35" s="38"/>
-    </row>
-    <row r="36" spans="1:18" s="51" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="F36" s="64"/>
-      <c r="G36" s="51" t="s">
+      <c r="F36" s="63"/>
+      <c r="G36" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="51">
-        <v>0</v>
-      </c>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53">
+      <c r="I36" s="50">
+        <v>0</v>
+      </c>
+      <c r="J36" s="51"/>
+      <c r="K36" s="52">
         <v>-40</v>
       </c>
-      <c r="L36" s="53">
+      <c r="L36" s="52">
         <v>40</v>
       </c>
-      <c r="M36" s="53">
-        <v>0</v>
-      </c>
-      <c r="N36" s="53">
+      <c r="M36" s="52">
+        <v>0</v>
+      </c>
+      <c r="N36" s="52">
         <f>(L36-K36)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="O36" s="53">
+      <c r="O36" s="52">
         <v>1</v>
       </c>
-      <c r="Q36" s="54"/>
-      <c r="R36" s="39" t="s">
-        <v>801</v>
+      <c r="Q36" s="53"/>
+      <c r="R36" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -8049,13 +7901,13 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="42" t="s">
         <v>45</v>
       </c>
       <c r="E37" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="64"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="29" t="s">
         <v>62</v>
       </c>
@@ -8068,7 +7920,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="Q37" s="38"/>
+      <c r="Q37" s="37"/>
     </row>
     <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="29"/>
@@ -8082,7 +7934,7 @@
       <c r="E38" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="64"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="29" t="s">
         <v>62</v>
       </c>
@@ -8095,7 +7947,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="Q38" s="38"/>
+      <c r="Q38" s="37"/>
     </row>
     <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="29"/>
@@ -8109,7 +7961,7 @@
       <c r="E39" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="64"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="29" t="s">
         <v>63</v>
       </c>
@@ -8122,7 +7974,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="Q39" s="38"/>
+      <c r="Q39" s="37"/>
     </row>
     <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="29"/>
@@ -8136,7 +7988,7 @@
       <c r="E40" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F40" s="64"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="29" t="s">
         <v>61</v>
       </c>
@@ -8149,7 +8001,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="Q40" s="38"/>
+      <c r="Q40" s="37"/>
     </row>
     <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="29"/>
@@ -8163,7 +8015,7 @@
       <c r="E41" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="64"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="29" t="s">
         <v>63</v>
       </c>
@@ -8176,7 +8028,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="Q41" s="38"/>
+      <c r="Q41" s="37"/>
     </row>
     <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="29"/>
@@ -8190,7 +8042,7 @@
       <c r="E42" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="64"/>
+      <c r="F42" s="63"/>
       <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
@@ -8203,7 +8055,7 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="Q42" s="38"/>
+      <c r="Q42" s="37"/>
     </row>
     <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="29"/>
@@ -8217,7 +8069,7 @@
       <c r="E43" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="64"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="29" t="s">
         <v>63</v>
       </c>
@@ -8230,22 +8082,22 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="Q43" s="38"/>
-    </row>
-    <row r="44" spans="1:18" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45" t="b">
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="E44" s="45" t="s">
+      <c r="E44" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8259,7 +8111,7 @@
       <c r="E45" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="64"/>
+      <c r="F45" s="63"/>
       <c r="G45" s="29" t="s">
         <v>60</v>
       </c>
@@ -8270,45 +8122,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="39" t="s">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="39" t="s">
-        <v>650</v>
-      </c>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="49"/>
-      <c r="G46" s="39" t="s">
+      <c r="F46" s="48"/>
+      <c r="G46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I46" s="39">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="41">
+      <c r="H46" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0</v>
+      </c>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40">
         <v>-80</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="40">
         <v>80</v>
       </c>
-      <c r="M46" s="41">
-        <v>0</v>
-      </c>
-      <c r="N46" s="41">
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="40">
         <f>(L46-K46)/6</f>
         <v>26.666666666666668</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="40">
         <v>1</v>
       </c>
-      <c r="R46" s="39" t="s">
-        <v>801</v>
+      <c r="R46" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8316,17 +8168,17 @@
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="64"/>
+      <c r="F47" s="63"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -8337,17 +8189,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E48" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="63"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8358,17 +8210,17 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E49" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="63"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -8379,12 +8231,12 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E50" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F50" s="63"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="29" t="s">
         <v>61</v>
       </c>
@@ -8397,17 +8249,17 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E51" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="63"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I51" s="29">
         <v>15</v>
@@ -8418,17 +8270,17 @@
         <v>21</v>
       </c>
       <c r="D52" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E52" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="63"/>
+      <c r="F52" s="62"/>
       <c r="G52" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H52" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I52" s="29">
         <v>0</v>
@@ -8439,36 +8291,36 @@
         <v>21</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="64"/>
+      <c r="F53" s="63"/>
       <c r="G53" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H53" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I53" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="45" t="b">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="45" t="s">
-        <v>741</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>742</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E54" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8482,56 +8334,56 @@
       <c r="E55" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F55" s="64"/>
+      <c r="F55" s="63"/>
       <c r="G55" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J55" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="39" t="s">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="39" t="s">
-        <v>743</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>744</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="39" t="s">
+      <c r="D56" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I56" s="39">
+      <c r="H56" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.8</v>
       </c>
-      <c r="J56" s="42"/>
-      <c r="K56" s="41">
+      <c r="J56" s="41"/>
+      <c r="K56" s="40">
         <v>0.78</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="40">
         <v>0.98</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="40">
         <v>0.8</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="40">
         <f>(L56-K56)/6</f>
         <v>3.3333333333333326E-2</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="40">
         <v>1</v>
       </c>
-      <c r="R56" s="39" t="s">
-        <v>801</v>
+      <c r="R56" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8557,7 +8409,7 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E58" s="29" t="s">
         <v>126</v>
@@ -8567,7 +8419,7 @@
         <v>62</v>
       </c>
       <c r="H58" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I58" s="29">
         <v>0</v>
@@ -8578,7 +8430,7 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>48</v>
@@ -8588,7 +8440,7 @@
         <v>62</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
@@ -8599,7 +8451,7 @@
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E60" s="29" t="s">
         <v>50</v>
@@ -8609,7 +8461,7 @@
         <v>63</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I60" s="29">
         <v>0</v>
@@ -8620,12 +8472,12 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="64"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="29" t="s">
         <v>61</v>
       </c>
@@ -8638,17 +8490,17 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E62" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="64"/>
+      <c r="F62" s="63"/>
       <c r="G62" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I62" s="29">
         <v>15</v>
@@ -8659,17 +8511,17 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E63" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F63" s="64"/>
+      <c r="F63" s="63"/>
       <c r="G63" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I63" s="29">
         <v>0</v>
@@ -8680,36 +8532,36 @@
         <v>21</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E64" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F64" s="64"/>
+      <c r="F64" s="63"/>
       <c r="G64" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I64" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="b">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
-        <v>748</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>747</v>
-      </c>
-      <c r="E65" s="45" t="s">
+      <c r="B65" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E65" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8718,61 +8570,61 @@
         <v>21</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="E66" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F66" s="64"/>
+      <c r="F66" s="63"/>
       <c r="G66" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I66" s="50" t="s">
+      <c r="I66" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J66" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="39" t="s">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="E67" s="39" t="s">
-        <v>751</v>
-      </c>
-      <c r="F67" s="49"/>
-      <c r="G67" s="39" t="s">
+      <c r="D67" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H67" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I67" s="39">
+      <c r="H67" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I67" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="42"/>
-      <c r="K67" s="41">
-        <v>2</v>
-      </c>
-      <c r="L67" s="41">
+      <c r="J67" s="41"/>
+      <c r="K67" s="40">
+        <v>2</v>
+      </c>
+      <c r="L67" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="41">
+      <c r="M67" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="40">
         <f>(L67-K67)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="39" t="s">
-        <v>801</v>
+      <c r="R67" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8785,7 +8637,7 @@
       <c r="E68" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F68" s="64"/>
+      <c r="F68" s="63"/>
       <c r="G68" s="29" t="s">
         <v>61</v>
       </c>
@@ -8798,17 +8650,17 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E69" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F69" s="64"/>
+      <c r="F69" s="63"/>
       <c r="G69" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H69" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I69" s="29">
         <v>0</v>
@@ -8819,17 +8671,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E70" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F70" s="64"/>
+      <c r="F70" s="63"/>
       <c r="G70" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8840,17 +8692,17 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E71" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F71" s="64"/>
+      <c r="F71" s="63"/>
       <c r="G71" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H71" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I71" s="29">
         <v>0</v>
@@ -8861,12 +8713,12 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E72" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F72" s="64"/>
+      <c r="F72" s="63"/>
       <c r="G72" s="29" t="s">
         <v>61</v>
       </c>
@@ -8879,17 +8731,17 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E73" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="64"/>
+      <c r="F73" s="63"/>
       <c r="G73" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I73" s="29">
         <v>15</v>
@@ -8900,17 +8752,17 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E74" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F74" s="64"/>
+      <c r="F74" s="63"/>
       <c r="G74" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I74" s="29">
         <v>0</v>
@@ -8921,36 +8773,36 @@
         <v>21</v>
       </c>
       <c r="D75" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F75" s="64"/>
+      <c r="F75" s="63"/>
       <c r="G75" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I75" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="b">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B76" s="45" t="s">
+      <c r="B76" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="C76" s="45" t="s">
+      <c r="C76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="D76" s="45" t="s">
+      <c r="D76" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="E76" s="45" t="s">
+      <c r="E76" s="44" t="s">
         <v>66</v>
       </c>
     </row>
@@ -8964,97 +8816,97 @@
       <c r="E77" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="64"/>
+      <c r="F77" s="63"/>
       <c r="G77" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="50" t="s">
+      <c r="I77" s="49" t="s">
         <v>415</v>
       </c>
       <c r="J77" s="29" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="39" t="s">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E78" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="49"/>
-      <c r="G78" s="39" t="s">
+      <c r="F78" s="48"/>
+      <c r="G78" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H78" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I78" s="39">
-        <v>0</v>
-      </c>
-      <c r="J78" s="42"/>
-      <c r="K78" s="41">
+      <c r="H78" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I78" s="38">
+        <v>0</v>
+      </c>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40">
         <v>-20</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L78" s="40">
         <v>14</v>
       </c>
-      <c r="M78" s="41">
-        <v>0</v>
-      </c>
-      <c r="N78" s="41">
+      <c r="M78" s="40">
+        <v>0</v>
+      </c>
+      <c r="N78" s="40">
         <f>(L78-K78)/6</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="O78" s="41">
+      <c r="O78" s="40">
         <v>1</v>
       </c>
-      <c r="R78" s="39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="39" t="s">
+      <c r="R78" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>753</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>754</v>
-      </c>
-      <c r="F79" s="49"/>
-      <c r="G79" s="39" t="s">
+      <c r="D79" s="38" t="s">
+        <v>706</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>707</v>
+      </c>
+      <c r="F79" s="48"/>
+      <c r="G79" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H79" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I79" s="39">
-        <v>0</v>
-      </c>
-      <c r="J79" s="42"/>
-      <c r="K79" s="41">
+      <c r="H79" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I79" s="38">
+        <v>0</v>
+      </c>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40">
         <v>-25</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L79" s="40">
         <v>30</v>
       </c>
-      <c r="M79" s="41">
-        <v>0</v>
-      </c>
-      <c r="N79" s="41">
+      <c r="M79" s="40">
+        <v>0</v>
+      </c>
+      <c r="N79" s="40">
         <f>(L79-K79)/6</f>
         <v>9.1666666666666661</v>
       </c>
-      <c r="O79" s="41">
+      <c r="O79" s="40">
         <v>1</v>
       </c>
-      <c r="R79" s="39" t="s">
-        <v>801</v>
+      <c r="R79" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9067,7 +8919,7 @@
       <c r="E80" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="64"/>
+      <c r="F80" s="63"/>
       <c r="G80" s="29" t="s">
         <v>61</v>
       </c>
@@ -9080,17 +8932,17 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E81" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="F81" s="64"/>
+      <c r="F81" s="63"/>
       <c r="G81" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I81" s="29">
         <v>0</v>
@@ -9101,17 +8953,17 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="E82" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="64"/>
+      <c r="F82" s="63"/>
       <c r="G82" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
@@ -9122,17 +8974,17 @@
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E83" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F83" s="64"/>
+      <c r="F83" s="63"/>
       <c r="G83" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I83" s="29">
         <v>0</v>
@@ -9143,12 +8995,12 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E84" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="63"/>
+      <c r="F84" s="62"/>
       <c r="G84" s="29" t="s">
         <v>61</v>
       </c>
@@ -9161,17 +9013,17 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E85" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F85" s="63"/>
+      <c r="F85" s="62"/>
       <c r="G85" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I85" s="29">
         <v>15</v>
@@ -9182,17 +9034,17 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E86" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F86" s="63"/>
+      <c r="F86" s="62"/>
       <c r="G86" s="29" t="s">
         <v>62</v>
       </c>
       <c r="H86" s="29" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="I86" s="29">
         <v>0</v>
@@ -9203,119 +9055,119 @@
         <v>21</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E87" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="62"/>
       <c r="G87" s="29" t="s">
         <v>63</v>
       </c>
       <c r="H87" s="29" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="I87" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="b">
+    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="45" t="s">
+      <c r="B88" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>660</v>
-      </c>
-      <c r="E88" s="45" t="s">
+      <c r="C88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D88" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E88" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D89" s="39" t="s">
-        <v>661</v>
-      </c>
-      <c r="E89" s="39" t="s">
+      <c r="D89" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E89" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F89" s="49"/>
-      <c r="G89" s="39" t="s">
+      <c r="F89" s="48"/>
+      <c r="G89" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H89" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I89" s="39">
-        <v>0</v>
-      </c>
-      <c r="J89" s="42"/>
-      <c r="K89" s="41">
+      <c r="H89" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I89" s="38">
+        <v>0</v>
+      </c>
+      <c r="J89" s="41"/>
+      <c r="K89" s="40">
         <v>-6</v>
       </c>
-      <c r="L89" s="41">
-        <v>2</v>
-      </c>
-      <c r="M89" s="41">
-        <v>0</v>
-      </c>
-      <c r="N89" s="41">
+      <c r="L89" s="40">
+        <v>2</v>
+      </c>
+      <c r="M89" s="40">
+        <v>0</v>
+      </c>
+      <c r="N89" s="40">
         <f>(L89-K89)/6</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="O89" s="41">
+      <c r="O89" s="40">
         <v>1</v>
       </c>
-      <c r="R89" s="39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="39" t="s">
+      <c r="R89" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="39" t="s">
-        <v>663</v>
-      </c>
-      <c r="E90" s="39" t="s">
+      <c r="D90" s="38" t="s">
+        <v>654</v>
+      </c>
+      <c r="E90" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F90" s="49"/>
-      <c r="G90" s="39" t="s">
+      <c r="F90" s="48"/>
+      <c r="G90" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="I90" s="39">
-        <v>0</v>
-      </c>
-      <c r="J90" s="42"/>
-      <c r="K90" s="41">
+      <c r="H90" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I90" s="38">
+        <v>0</v>
+      </c>
+      <c r="J90" s="41"/>
+      <c r="K90" s="40">
         <v>-6</v>
       </c>
-      <c r="L90" s="41">
+      <c r="L90" s="40">
         <v>3.9</v>
       </c>
-      <c r="M90" s="41">
-        <v>0</v>
-      </c>
-      <c r="N90" s="41">
+      <c r="M90" s="40">
+        <v>0</v>
+      </c>
+      <c r="N90" s="40">
         <f>(L90-K90)/6</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="O90" s="41">
+      <c r="O90" s="40">
         <v>1</v>
       </c>
-      <c r="R90" s="39" t="s">
-        <v>801</v>
+      <c r="R90" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
@@ -9323,12 +9175,12 @@
         <v>21</v>
       </c>
       <c r="D91" s="30" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="F91" s="63"/>
+      <c r="F91" s="62"/>
       <c r="G91" s="30" t="s">
         <v>61</v>
       </c>
@@ -9340,484 +9192,484 @@
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
-      <c r="R91" s="39"/>
+      <c r="R91" s="38"/>
     </row>
     <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="48" t="b">
+      <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B92" s="48" t="s">
-        <v>729</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="D92" s="48" t="s">
-        <v>730</v>
-      </c>
-      <c r="E92" s="45" t="s">
+      <c r="B92" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F92" s="45"/>
-      <c r="G92" s="48"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
-      <c r="Q92" s="45"/>
-      <c r="R92" s="45"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="47"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
     </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="38"/>
+      <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49" t="s">
-        <v>723</v>
-      </c>
-      <c r="E93" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49" t="s">
+      <c r="C93" s="48"/>
+      <c r="D93" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E93" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49">
+      <c r="H93" s="48"/>
+      <c r="I93" s="48">
         <v>1</v>
       </c>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49">
+      <c r="J93" s="48"/>
+      <c r="K93" s="48">
         <v>0.5</v>
       </c>
-      <c r="L93" s="49">
+      <c r="L93" s="48">
         <v>4.5</v>
       </c>
-      <c r="M93" s="41">
+      <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="39">
+      <c r="N93" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O93" s="49">
+      <c r="O93" s="48">
         <v>0.1</v>
       </c>
-      <c r="P93" s="39"/>
-      <c r="Q93" s="39"/>
-      <c r="R93" s="39" t="s">
-        <v>801</v>
+      <c r="P93" s="38"/>
+      <c r="Q93" s="38"/>
+      <c r="R93" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="49"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49" t="s">
-        <v>725</v>
-      </c>
-      <c r="E94" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49" t="s">
+      <c r="C94" s="48"/>
+      <c r="D94" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49">
+      <c r="H94" s="48"/>
+      <c r="I94" s="48">
         <v>1</v>
       </c>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49">
+      <c r="J94" s="48"/>
+      <c r="K94" s="48">
         <v>0.1</v>
       </c>
-      <c r="L94" s="49">
+      <c r="L94" s="48">
         <v>4.5</v>
       </c>
-      <c r="M94" s="41">
+      <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="49">
+      <c r="N94" s="48">
         <v>0.25</v>
       </c>
-      <c r="O94" s="49">
+      <c r="O94" s="48">
         <v>0.1</v>
       </c>
-      <c r="P94" s="39"/>
-      <c r="Q94" s="39"/>
-      <c r="R94" s="39" t="s">
-        <v>801</v>
+      <c r="P94" s="38"/>
+      <c r="Q94" s="38"/>
+      <c r="R94" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="49"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49" t="s">
-        <v>727</v>
-      </c>
-      <c r="E95" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49" t="s">
+      <c r="C95" s="48"/>
+      <c r="D95" s="48" t="s">
+        <v>680</v>
+      </c>
+      <c r="E95" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="49"/>
-      <c r="I95" s="49">
+      <c r="H95" s="48"/>
+      <c r="I95" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="49"/>
-      <c r="K95" s="49">
+      <c r="J95" s="48"/>
+      <c r="K95" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="49">
+      <c r="L95" s="48">
         <v>3</v>
       </c>
-      <c r="M95" s="41">
+      <c r="M95" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="41">
+      <c r="N95" s="40">
         <v>0.25</v>
       </c>
-      <c r="O95" s="41">
+      <c r="O95" s="40">
         <v>0.1</v>
       </c>
-      <c r="P95" s="41"/>
-      <c r="Q95" s="41"/>
-      <c r="R95" s="39" t="s">
-        <v>801</v>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="38" t="s">
+        <v>752</v>
       </c>
       <c r="T95" s="30"/>
     </row>
     <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="48" t="b">
+      <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="48" t="s">
-        <v>731</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>732</v>
-      </c>
-      <c r="E96" s="45" t="s">
+      <c r="B96" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E96" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F96" s="45"/>
-      <c r="G96" s="48"/>
-      <c r="H96" s="48"/>
-      <c r="I96" s="48"/>
-      <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
-      <c r="L96" s="48"/>
-      <c r="M96" s="45"/>
-      <c r="N96" s="45"/>
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
-      <c r="Q96" s="45"/>
-      <c r="R96" s="45"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="47"/>
+      <c r="K96" s="47"/>
+      <c r="L96" s="47"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
-        <v>733</v>
-      </c>
-      <c r="E97" s="49" t="s">
-        <v>724</v>
-      </c>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49" t="s">
+      <c r="C97" s="48"/>
+      <c r="D97" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H97" s="49"/>
-      <c r="I97" s="49">
+      <c r="H97" s="48"/>
+      <c r="I97" s="48">
         <v>1</v>
       </c>
-      <c r="J97" s="49"/>
-      <c r="K97" s="49">
+      <c r="J97" s="48"/>
+      <c r="K97" s="48">
         <v>0.5</v>
       </c>
-      <c r="L97" s="49">
+      <c r="L97" s="48">
         <v>4</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="39">
+      <c r="N97" s="38">
         <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O97" s="49">
+      <c r="O97" s="48">
         <v>0.1</v>
       </c>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39" t="s">
-        <v>801</v>
+      <c r="P97" s="38"/>
+      <c r="Q97" s="38"/>
+      <c r="R97" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="49" t="s">
+      <c r="A98" s="48"/>
+      <c r="B98" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49" t="s">
-        <v>734</v>
-      </c>
-      <c r="E98" s="49" t="s">
-        <v>726</v>
-      </c>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49" t="s">
+      <c r="C98" s="48"/>
+      <c r="D98" s="48" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="48" t="s">
+        <v>679</v>
+      </c>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H98" s="49"/>
-      <c r="I98" s="49">
+      <c r="H98" s="48"/>
+      <c r="I98" s="48">
         <v>1</v>
       </c>
-      <c r="J98" s="49"/>
-      <c r="K98" s="49">
+      <c r="J98" s="48"/>
+      <c r="K98" s="48">
         <v>0.5</v>
       </c>
-      <c r="L98" s="49">
+      <c r="L98" s="48">
         <v>4</v>
       </c>
-      <c r="M98" s="41">
+      <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="49">
+      <c r="N98" s="48">
         <v>0.25</v>
       </c>
-      <c r="O98" s="49">
+      <c r="O98" s="48">
         <v>0.1</v>
       </c>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39" t="s">
-        <v>801</v>
+      <c r="P98" s="38"/>
+      <c r="Q98" s="38"/>
+      <c r="R98" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="49"/>
-      <c r="B99" s="49" t="s">
+      <c r="A99" s="48"/>
+      <c r="B99" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="49" t="s">
-        <v>735</v>
-      </c>
-      <c r="E99" s="49" t="s">
-        <v>728</v>
-      </c>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49" t="s">
+      <c r="C99" s="48"/>
+      <c r="D99" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="48" t="s">
+        <v>681</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="49"/>
-      <c r="I99" s="49">
+      <c r="H99" s="48"/>
+      <c r="I99" s="48">
         <v>1</v>
       </c>
-      <c r="J99" s="49"/>
-      <c r="K99" s="49">
+      <c r="J99" s="48"/>
+      <c r="K99" s="48">
         <v>0.5</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L99" s="48">
         <v>3</v>
       </c>
-      <c r="M99" s="41">
+      <c r="M99" s="40">
         <v>1.75</v>
       </c>
-      <c r="N99" s="41">
+      <c r="N99" s="40">
         <v>0.25</v>
       </c>
-      <c r="O99" s="41">
+      <c r="O99" s="40">
         <v>0.1</v>
       </c>
-      <c r="P99" s="41"/>
-      <c r="Q99" s="41"/>
-      <c r="R99" s="39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="45" t="b">
+      <c r="P99" s="40"/>
+      <c r="Q99" s="40"/>
+      <c r="R99" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="B100" s="45" t="s">
-        <v>756</v>
-      </c>
-      <c r="C100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="D100" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="E100" s="45" t="s">
+      <c r="B100" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D100" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E100" s="44" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="55" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="55" t="s">
-        <v>759</v>
-      </c>
-      <c r="E101" s="55" t="s">
-        <v>757</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="55" t="s">
+    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E101" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F101" s="62"/>
+      <c r="G101" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H101" s="55" t="s">
-        <v>651</v>
-      </c>
-      <c r="I101" s="55">
+      <c r="H101" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I101" s="54">
         <v>1</v>
       </c>
-      <c r="J101" s="58"/>
-      <c r="K101" s="57">
+      <c r="J101" s="57"/>
+      <c r="K101" s="56">
         <v>0.9</v>
       </c>
-      <c r="L101" s="57">
+      <c r="L101" s="56">
         <v>1</v>
       </c>
-      <c r="M101" s="57">
+      <c r="M101" s="56">
         <v>0.95</v>
       </c>
-      <c r="N101" s="57">
+      <c r="N101" s="56">
         <f>(L101-K101)/6</f>
         <v>1.6666666666666663E-2</v>
       </c>
-      <c r="O101" s="57">
+      <c r="O101" s="56">
         <v>0.1</v>
       </c>
-      <c r="R101" s="39" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="39" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="39" t="s">
+      <c r="R101" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="39" t="s">
-        <v>760</v>
-      </c>
-      <c r="E102" s="39" t="s">
-        <v>758</v>
-      </c>
-      <c r="F102" s="49"/>
-      <c r="G102" s="39" t="s">
+      <c r="D102" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F102" s="48"/>
+      <c r="G102" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H102" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="I102" s="39">
+      <c r="H102" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I102" s="38">
         <v>1450</v>
       </c>
-      <c r="J102" s="42"/>
-      <c r="K102" s="41">
-        <v>0</v>
-      </c>
-      <c r="L102" s="41">
+      <c r="J102" s="41"/>
+      <c r="K102" s="40">
+        <v>0</v>
+      </c>
+      <c r="L102" s="40">
         <v>3000</v>
       </c>
-      <c r="M102" s="41">
+      <c r="M102" s="40">
         <v>1450</v>
       </c>
-      <c r="N102" s="41">
+      <c r="N102" s="40">
         <f>(L102-K102)/6</f>
         <v>500</v>
       </c>
-      <c r="O102" s="41">
+      <c r="O102" s="40">
         <v>50</v>
       </c>
-      <c r="R102" s="39" t="s">
-        <v>801</v>
+      <c r="R102" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="36"/>
-      <c r="F103" s="36"/>
-      <c r="G103" s="36"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
+      <c r="A103" s="35"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
+      <c r="Q103" s="35"/>
+      <c r="R103" s="35"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="63"/>
+      <c r="F104" s="62"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F105" s="46"/>
+      <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F106" s="46"/>
+      <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F107" s="46"/>
+      <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F108" s="46"/>
+      <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F109" s="46"/>
+      <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F110" s="46"/>
+      <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F111" s="46"/>
+      <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="46"/>
+      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10190,11 +10042,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD37"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10214,7 +10066,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
-      <c r="B1" s="59"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7" t="s">
@@ -10232,11 +10084,11 @@
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>763</v>
+      <c r="B2" s="61" t="s">
+        <v>716</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>458</v>
@@ -10270,11 +10122,11 @@
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>764</v>
+      <c r="B3" s="61" t="s">
+        <v>717</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>622</v>
@@ -10302,18 +10154,18 @@
         <v>621</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E4" s="29" t="s">
         <v>464</v>
@@ -10336,16 +10188,15 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>629</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>626</v>
+        <v>754</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>464</v>
+        <v>634</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>62</v>
@@ -10366,25 +10217,21 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>755</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>636</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>765</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>464</v>
       </c>
       <c r="F6" s="29" t="s">
         <v>62</v>
       </c>
       <c r="G6" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="29" t="b">
         <v>1</v>
@@ -10392,31 +10239,28 @@
       <c r="I6" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J6" s="31"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>766</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>630</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>624</v>
+        <v>756</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F7" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G7" s="29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="29" t="b">
         <v>1</v>
@@ -10424,23 +10268,23 @@
       <c r="I7" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J7" s="31"/>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>674</v>
-      </c>
-      <c r="B8" s="46"/>
+        <v>666</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="29" t="b">
@@ -10452,63 +10296,61 @@
       <c r="I8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B9" s="46"/>
+        <v>667</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F9" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="29"/>
+        <v>1</v>
+      </c>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>678</v>
-      </c>
-      <c r="B10" s="46"/>
+        <v>668</v>
+      </c>
+      <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>679</v>
+        <v>759</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F10" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F10" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
@@ -10516,27 +10358,27 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>680</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>669</v>
+      </c>
+      <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
@@ -10544,27 +10386,27 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="29" t="s">
-        <v>682</v>
-      </c>
-      <c r="B12" s="46"/>
+        <v>670</v>
+      </c>
+      <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F12" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="29" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
@@ -10572,21 +10414,19 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="29" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>685</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F13" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G13" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29" t="b">
         <v>1</v>
@@ -10594,27 +10434,22 @@
       <c r="I13" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="29" t="s">
-        <v>686</v>
-      </c>
-      <c r="B14" s="46"/>
+        <v>691</v>
+      </c>
+      <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="29" t="s">
+        <v>763</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G14" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="29" t="b">
         <v>1</v>
@@ -10622,28 +10457,22 @@
       <c r="I14" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>688</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>692</v>
+      </c>
+      <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F15" s="29" t="s">
+        <v>764</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="29" t="b">
         <v>1</v>
@@ -10651,28 +10480,20 @@
       <c r="I15" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>690</v>
-      </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="29"/>
+        <v>693</v>
+      </c>
+      <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>691</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F16" s="29" t="s">
+        <v>765</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>62</v>
       </c>
       <c r="G16" s="29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="29" t="b">
         <v>1</v>
@@ -10680,619 +10501,101 @@
       <c r="I16" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
-        <v>692</v>
-      </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29" t="s">
-        <v>693</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29" t="s">
-        <v>695</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
-        <v>696</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>697</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
-        <v>698</v>
-      </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29" t="s">
-        <v>699</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>700</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29" t="s">
-        <v>701</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29" t="s">
-        <v>703</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>705</v>
-      </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29" t="s">
-        <v>706</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>708</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>704</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>709</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29" t="s">
-        <v>710</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>711</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>803</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>643</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>644</v>
-      </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>804</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>645</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="29" t="s">
-        <v>712</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>805</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>713</v>
-      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="29"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="29"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="29"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>806</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>714</v>
-      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>807</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>715</v>
-      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29" t="s">
-        <v>808</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>716</v>
-      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29" t="s">
-        <v>809</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>717</v>
-      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>810</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>737</v>
-      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>811</v>
-      </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>738</v>
-      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>812</v>
-      </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>739</v>
-      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29" t="s">
-        <v>813</v>
-      </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>740</v>
-      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="29"/>
-      <c r="D37" s="29" t="s">
-        <v>814</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="29"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
@@ -11369,69 +10672,6 @@
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="29"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="29"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="29"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="29"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="29"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="29"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="29"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="29"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="29"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="29"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="29"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="29"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="29"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="29"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="29"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="29"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="29"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="29"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="29"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20050,7 +19290,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>553</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -2304,43 +2304,43 @@
     <t>1.21.14</t>
   </si>
   <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_rmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>calibration_reports_enhanced20.gas_nmbe_within_limit</t>
-  </si>
-  <si>
     <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
   </si>
 </sst>
 </file>
@@ -6635,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -7576,10 +7576,10 @@
         <v>751</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="E23" s="35" t="s">
         <v>231</v>
@@ -10044,9 +10044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD25"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10193,7 +10193,7 @@
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10222,7 +10222,7 @@
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10251,7 +10251,7 @@
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10279,7 +10279,7 @@
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10307,7 +10307,7 @@
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10335,7 +10335,7 @@
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10363,7 +10363,7 @@
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10391,7 +10391,7 @@
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10419,7 +10419,7 @@
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10442,7 +10442,7 @@
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10465,7 +10465,7 @@
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -6635,7 +6635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6873,7 +6873,7 @@
         <v>566</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
@@ -6887,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
@@ -7048,7 +7048,7 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -10044,7 +10044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2555" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="770">
   <si>
     <t>type</t>
   </si>
@@ -2341,6 +2341,15 @@
   </si>
   <si>
     <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -6636,7 +6645,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6897,13 +6906,25 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29"/>
+      <c r="A24" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="B24" s="28">
+        <v>1E+18</v>
+      </c>
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
     <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="B25" s="29">
+        <v>0</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>769</v>
+      </c>
       <c r="D25" s="33"/>
     </row>
     <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -6645,7 +6645,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6882,7 +6882,7 @@
         <v>566</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C22" s="29" t="s">
         <v>568</v>
@@ -6896,7 +6896,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="29">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variables!$A$2:$AA$126</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -6644,7 +6644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -7066,11 +7066,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z200"/>
+  <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7589,167 +7589,166 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="b">
+    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>751</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>754</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>754</v>
-      </c>
-      <c r="E23" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-    </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="b">
+      <c r="B23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="38">
+        <v>0</v>
+      </c>
+      <c r="K25" s="40">
+        <v>0</v>
+      </c>
+      <c r="L25" s="40">
+        <v>100</v>
+      </c>
+      <c r="M25" s="40">
+        <v>15</v>
+      </c>
+      <c r="N25" s="40">
+        <f>(L25-K25)/6</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="O25" s="40">
         <v>1</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="62"/>
-      <c r="G25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="30"/>
-    </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="39" t="s">
-        <v>664</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="38" t="s">
+      <c r="R25" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="38">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="40">
-        <v>100</v>
-      </c>
-      <c r="M26" s="40">
-        <v>15</v>
-      </c>
-      <c r="N26" s="40">
-        <f>(L26-K26)/6</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="O26" s="40">
+      <c r="I26" s="29">
         <v>1</v>
       </c>
-      <c r="R26" s="38" t="s">
+    </row>
+    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>659</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="F27" s="62"/>
+      <c r="G27" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="54">
+        <v>0</v>
+      </c>
+      <c r="K27" s="56">
+        <v>0</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="M27" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="N27" s="56">
+        <f>(L27-K27)/6</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="O27" s="56">
+        <v>0.01</v>
+      </c>
+      <c r="R27" s="38" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="29" t="s">
+    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>660</v>
+      </c>
+      <c r="F28" s="62"/>
+      <c r="G28" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I27" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>659</v>
-      </c>
-      <c r="E28" s="54" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="K28" s="56">
-        <v>0</v>
-      </c>
-      <c r="L28" s="56">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="56">
-        <v>0.05</v>
-      </c>
-      <c r="N28" s="56">
-        <f>(L28-K28)/6</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="O28" s="56">
-        <v>0.01</v>
-      </c>
-      <c r="R28" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>660</v>
-      </c>
-      <c r="F29" s="62"/>
+        <v>662</v>
+      </c>
+      <c r="F29" s="63"/>
       <c r="G29" s="29" t="s">
         <v>62</v>
       </c>
@@ -7762,10 +7761,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>663</v>
+        <v>69</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>662</v>
+        <v>46</v>
       </c>
       <c r="F30" s="63"/>
       <c r="G30" s="29" t="s">
@@ -7780,10 +7779,10 @@
         <v>21</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E31" s="29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F31" s="63"/>
       <c r="G31" s="29" t="s">
@@ -7798,123 +7797,132 @@
         <v>21</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F32" s="63"/>
       <c r="G32" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="29">
+        <v>1</v>
+      </c>
+      <c r="P32" s="30"/>
+    </row>
+    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="29"/>
+      <c r="B34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="63"/>
+      <c r="G34" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="E35" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="63"/>
+      <c r="G35" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="29">
+      <c r="I35" s="50">
+        <v>0</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="52">
+        <v>-40</v>
+      </c>
+      <c r="L35" s="52">
+        <v>40</v>
+      </c>
+      <c r="M35" s="52">
+        <v>0</v>
+      </c>
+      <c r="N35" s="52">
+        <f>(L35-K35)/6</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="O35" s="52">
         <v>1</v>
       </c>
-      <c r="P33" s="30"/>
-    </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B34" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="63"/>
-      <c r="G35" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="Q35" s="37"/>
-    </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>44</v>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F36" s="63"/>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="50">
-        <v>0</v>
-      </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
-        <v>-40</v>
-      </c>
-      <c r="L36" s="52">
-        <v>40</v>
-      </c>
-      <c r="M36" s="52">
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f>(L36-K36)/6</f>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="O36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="38" t="s">
-        <v>752</v>
-      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="Q36" s="37"/>
     </row>
     <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="29"/>
@@ -7922,11 +7930,11 @@
         <v>21</v>
       </c>
       <c r="C37" s="29"/>
-      <c r="D37" s="42" t="s">
-        <v>45</v>
+      <c r="D37" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F37" s="63"/>
       <c r="G37" s="29" t="s">
@@ -7950,14 +7958,14 @@
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="63"/>
       <c r="G38" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29">
@@ -7977,18 +7985,18 @@
       </c>
       <c r="C39" s="29"/>
       <c r="D39" s="29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F39" s="63"/>
       <c r="G39" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H39" s="29"/>
-      <c r="I39" s="29">
-        <v>0</v>
+      <c r="I39" s="29" t="b">
+        <v>1</v>
       </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -8004,18 +8012,18 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F40" s="63"/>
       <c r="G40" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H40" s="29"/>
-      <c r="I40" s="29" t="b">
-        <v>1</v>
+      <c r="I40" s="29">
+        <v>15</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -8031,18 +8039,18 @@
       </c>
       <c r="C41" s="29"/>
       <c r="D41" s="29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F41" s="63"/>
       <c r="G41" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -8058,18 +8066,18 @@
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F42" s="63"/>
       <c r="G42" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -8078,123 +8086,117 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="63"/>
-      <c r="G43" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29">
+    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="b">
+      <c r="B43" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D43" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="63"/>
+      <c r="G44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="J44" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="48"/>
+      <c r="G45" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="I45" s="38">
+        <v>0</v>
+      </c>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40">
+        <v>-80</v>
+      </c>
+      <c r="L45" s="40">
+        <v>80</v>
+      </c>
+      <c r="M45" s="40">
+        <v>0</v>
+      </c>
+      <c r="N45" s="40">
+        <f>(L45-K45)/6</f>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="O45" s="40">
         <v>1</v>
       </c>
-      <c r="B44" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="E45" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="63"/>
-      <c r="G45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>641</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="38" t="s">
+      <c r="R45" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="E46" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="63"/>
+      <c r="G46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="38" t="s">
+      <c r="H46" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="I46" s="38">
-        <v>0</v>
-      </c>
-      <c r="J46" s="41"/>
-      <c r="K46" s="40">
-        <v>-80</v>
-      </c>
-      <c r="L46" s="40">
-        <v>80</v>
-      </c>
-      <c r="M46" s="40">
-        <v>0</v>
-      </c>
-      <c r="N46" s="40">
-        <f>(L46-K46)/6</f>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="O46" s="40">
-        <v>1</v>
-      </c>
-      <c r="R46" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E47" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="63"/>
+        <v>48</v>
+      </c>
+      <c r="F47" s="62"/>
       <c r="G47" s="29" t="s">
         <v>62</v>
       </c>
@@ -8210,17 +8212,17 @@
         <v>21</v>
       </c>
       <c r="D48" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E48" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="62"/>
       <c r="G48" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I48" s="29">
         <v>0</v>
@@ -8231,19 +8233,16 @@
         <v>21</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="62"/>
       <c r="G49" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H49" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I49" s="29">
+        <v>61</v>
+      </c>
+      <c r="I49" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8252,17 +8251,20 @@
         <v>21</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="62"/>
       <c r="G50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I50" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8270,141 +8272,138 @@
         <v>21</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="62"/>
       <c r="G51" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I51" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>650</v>
+      </c>
+      <c r="E52" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="H51" s="29" t="s">
+      <c r="H52" s="29" t="s">
         <v>646</v>
       </c>
-      <c r="I51" s="29">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>649</v>
-      </c>
-      <c r="E52" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="29" t="s">
+      <c r="I52" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>694</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>695</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="63"/>
+      <c r="G54" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H55" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I52" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H53" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I53" s="29">
+      <c r="I55" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40">
+        <v>0.78</v>
+      </c>
+      <c r="L55" s="40">
+        <v>0.98</v>
+      </c>
+      <c r="M55" s="40">
+        <v>0.8</v>
+      </c>
+      <c r="N55" s="40">
+        <f>(L55-K55)/6</f>
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="O55" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>694</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="D54" s="44" t="s">
-        <v>695</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J55" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>696</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>697</v>
-      </c>
-      <c r="F56" s="48"/>
-      <c r="G56" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.8</v>
-      </c>
-      <c r="J56" s="41"/>
-      <c r="K56" s="40">
-        <v>0.78</v>
-      </c>
-      <c r="L56" s="40">
-        <v>0.98</v>
-      </c>
-      <c r="M56" s="40">
-        <v>0.8</v>
-      </c>
-      <c r="N56" s="40">
-        <f>(L56-K56)/6</f>
-        <v>3.3333333333333326E-2</v>
-      </c>
-      <c r="O56" s="40">
-        <v>1</v>
-      </c>
-      <c r="R56" s="38" t="s">
+      <c r="R55" s="38" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="30"/>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -8412,16 +8411,19 @@
         <v>21</v>
       </c>
       <c r="D57" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F57" s="30"/>
       <c r="G57" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H57" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I57" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8430,10 +8432,10 @@
         <v>21</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="29" t="s">
@@ -8451,40 +8453,37 @@
         <v>21</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F59" s="30"/>
       <c r="G59" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H59" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I59" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E60" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="30"/>
+        <v>52</v>
+      </c>
+      <c r="F60" s="63"/>
       <c r="G60" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H60" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I60" s="29">
+        <v>61</v>
+      </c>
+      <c r="I60" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8493,17 +8492,20 @@
         <v>21</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E61" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F61" s="63"/>
       <c r="G61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I61" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8511,20 +8513,20 @@
         <v>21</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E62" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F62" s="63"/>
       <c r="G62" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I62" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8532,120 +8534,117 @@
         <v>21</v>
       </c>
       <c r="D63" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E63" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F63" s="63"/>
       <c r="G63" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I63" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" s="44" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="D64" s="44" t="s">
+        <v>700</v>
+      </c>
+      <c r="E64" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>702</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="63"/>
+      <c r="G65" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H63" s="29" t="s">
+      <c r="H66" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E64" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F64" s="63"/>
-      <c r="G64" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I64" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>701</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="D65" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D66" s="29" t="s">
-        <v>702</v>
-      </c>
-      <c r="E66" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="63"/>
-      <c r="G66" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="E67" s="38" t="s">
-        <v>704</v>
-      </c>
-      <c r="F67" s="48"/>
-      <c r="G67" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I67" s="38">
+      <c r="I66" s="38">
         <v>4</v>
       </c>
-      <c r="J67" s="41"/>
-      <c r="K67" s="40">
-        <v>2</v>
-      </c>
-      <c r="L67" s="40">
+      <c r="J66" s="41"/>
+      <c r="K66" s="40">
+        <v>2</v>
+      </c>
+      <c r="L66" s="40">
         <v>5</v>
       </c>
-      <c r="M67" s="40">
+      <c r="M66" s="40">
         <v>4</v>
       </c>
-      <c r="N67" s="40">
-        <f>(L67-K67)/6</f>
+      <c r="N66" s="40">
+        <f>(L66-K66)/6</f>
         <v>0.5</v>
       </c>
-      <c r="O67" s="40">
+      <c r="O66" s="40">
         <v>0.25</v>
       </c>
-      <c r="R67" s="38" t="s">
+      <c r="R66" s="38" t="s">
         <v>752</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E67" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="63"/>
+      <c r="G67" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8653,16 +8652,19 @@
         <v>21</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E68" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F68" s="63"/>
       <c r="G68" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I68" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H68" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I68" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8671,10 +8673,10 @@
         <v>21</v>
       </c>
       <c r="D69" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E69" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F69" s="63"/>
       <c r="G69" s="29" t="s">
@@ -8692,17 +8694,17 @@
         <v>21</v>
       </c>
       <c r="D70" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E70" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="63"/>
       <c r="G70" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H70" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I70" s="29">
         <v>0</v>
@@ -8713,19 +8715,16 @@
         <v>21</v>
       </c>
       <c r="D71" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E71" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F71" s="63"/>
       <c r="G71" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I71" s="29">
+        <v>61</v>
+      </c>
+      <c r="I71" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8734,17 +8733,20 @@
         <v>21</v>
       </c>
       <c r="D72" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E72" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F72" s="63"/>
       <c r="G72" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I72" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I72" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8752,20 +8754,20 @@
         <v>21</v>
       </c>
       <c r="D73" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E73" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F73" s="63"/>
       <c r="G73" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I73" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8773,79 +8775,99 @@
         <v>21</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E74" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F74" s="63"/>
       <c r="G74" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I74" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="63"/>
+      <c r="G76" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="I76" s="49" t="s">
+        <v>415</v>
+      </c>
+      <c r="J76" s="29" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B77" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="F77" s="48"/>
+      <c r="G77" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H74" s="29" t="s">
+      <c r="H77" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I74" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E75" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="63"/>
-      <c r="G75" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I75" s="29">
+      <c r="I77" s="38">
+        <v>0</v>
+      </c>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40">
+        <v>-20</v>
+      </c>
+      <c r="L77" s="40">
+        <v>14</v>
+      </c>
+      <c r="M77" s="40">
+        <v>0</v>
+      </c>
+      <c r="N77" s="40">
+        <f>(L77-K77)/6</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="O77" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="E76" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E77" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="F77" s="63"/>
-      <c r="G77" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" s="49" t="s">
-        <v>415</v>
-      </c>
-      <c r="J77" s="29" t="s">
-        <v>416</v>
+      <c r="R77" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8853,10 +8875,10 @@
         <v>22</v>
       </c>
       <c r="D78" s="38" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E78" s="38" t="s">
-        <v>243</v>
+        <v>707</v>
       </c>
       <c r="F78" s="48"/>
       <c r="G78" s="38" t="s">
@@ -8870,17 +8892,17 @@
       </c>
       <c r="J78" s="41"/>
       <c r="K78" s="40">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L78" s="40">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
         <f>(L78-K78)/6</f>
-        <v>5.666666666666667</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="O78" s="40">
         <v>1</v>
@@ -8889,45 +8911,22 @@
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B79" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>706</v>
-      </c>
-      <c r="E79" s="38" t="s">
-        <v>707</v>
-      </c>
-      <c r="F79" s="48"/>
-      <c r="G79" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I79" s="38">
-        <v>0</v>
-      </c>
-      <c r="J79" s="41"/>
-      <c r="K79" s="40">
-        <v>-25</v>
-      </c>
-      <c r="L79" s="40">
-        <v>30</v>
-      </c>
-      <c r="M79" s="40">
-        <v>0</v>
-      </c>
-      <c r="N79" s="40">
-        <f>(L79-K79)/6</f>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="O79" s="40">
-        <v>1</v>
-      </c>
-      <c r="R79" s="38" t="s">
-        <v>752</v>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B79" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="E79" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F79" s="63"/>
+      <c r="G79" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="I79" s="29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -8935,16 +8934,19 @@
         <v>21</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>347</v>
+        <v>643</v>
       </c>
       <c r="E80" s="29" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="F80" s="63"/>
       <c r="G80" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I80" s="29" t="b">
+        <v>62</v>
+      </c>
+      <c r="H80" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
@@ -8953,10 +8955,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="F81" s="63"/>
       <c r="G81" s="29" t="s">
@@ -8974,40 +8976,37 @@
         <v>21</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E82" s="29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F82" s="63"/>
       <c r="G82" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H82" s="29" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="I82" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E83" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="63"/>
+        <v>52</v>
+      </c>
+      <c r="F83" s="62"/>
       <c r="G83" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I83" s="29">
+        <v>61</v>
+      </c>
+      <c r="I83" s="29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9016,17 +9015,20 @@
         <v>21</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F84" s="62"/>
       <c r="G84" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="I84" s="29" t="b">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="H84" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I84" s="29">
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9034,20 +9036,20 @@
         <v>21</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F85" s="62"/>
       <c r="G85" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H85" s="29" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="I85" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -9055,58 +9057,78 @@
         <v>21</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F86" s="62"/>
       <c r="G86" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="I86" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D87" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="E87" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B88" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H86" s="29" t="s">
-        <v>642</v>
-      </c>
-      <c r="I86" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87" s="29" t="s">
-        <v>650</v>
-      </c>
-      <c r="E87" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="H87" s="29" t="s">
-        <v>646</v>
-      </c>
-      <c r="I87" s="29">
+      <c r="H88" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="I88" s="38">
+        <v>0</v>
+      </c>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40">
+        <v>-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>2</v>
+      </c>
+      <c r="M88" s="40">
+        <v>0</v>
+      </c>
+      <c r="N88" s="40">
+        <f>(L88-K88)/6</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="O88" s="40">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="D88" s="44" t="s">
-        <v>651</v>
-      </c>
-      <c r="E88" s="44" t="s">
-        <v>66</v>
+      <c r="R88" s="38" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -9114,10 +9136,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="38" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E89" s="38" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F89" s="48"/>
       <c r="G89" s="38" t="s">
@@ -9134,14 +9156,14 @@
         <v>-6</v>
       </c>
       <c r="L89" s="40">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="M89" s="40">
         <v>0</v>
       </c>
       <c r="N89" s="40">
         <f>(L89-K89)/6</f>
-        <v>1.3333333333333333</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O89" s="40">
         <v>1</v>
@@ -9150,112 +9172,114 @@
         <v>752</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="38" t="s">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B90" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="F90" s="62"/>
+      <c r="G90" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I90" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="R90" s="38"/>
+    </row>
+    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>682</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>683</v>
+      </c>
+      <c r="E91" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="44"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="47"/>
+      <c r="K91" s="47"/>
+      <c r="L91" s="47"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+    </row>
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D90" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="E90" s="38" t="s">
-        <v>190</v>
-      </c>
-      <c r="F90" s="48"/>
-      <c r="G90" s="38" t="s">
+      <c r="C92" s="48"/>
+      <c r="D92" s="48" t="s">
+        <v>676</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H90" s="38" t="s">
-        <v>653</v>
-      </c>
-      <c r="I90" s="38">
-        <v>0</v>
-      </c>
-      <c r="J90" s="41"/>
-      <c r="K90" s="40">
-        <v>-6</v>
-      </c>
-      <c r="L90" s="40">
-        <v>3.9</v>
-      </c>
-      <c r="M90" s="40">
-        <v>0</v>
-      </c>
-      <c r="N90" s="40">
-        <f>(L90-K90)/6</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="O90" s="40">
+      <c r="H92" s="48"/>
+      <c r="I92" s="48">
         <v>1</v>
       </c>
-      <c r="R90" s="38" t="s">
+      <c r="J92" s="48"/>
+      <c r="K92" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L92" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="M92" s="40">
+        <v>1.75</v>
+      </c>
+      <c r="N92" s="38">
+        <f>1.5/6</f>
+        <v>0.25</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="P92" s="38"/>
+      <c r="Q92" s="38"/>
+      <c r="R92" s="38" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D91" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="E91" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="F91" s="62"/>
-      <c r="G91" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I91" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="O91" s="3"/>
-      <c r="R91" s="38"/>
-    </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>682</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="D92" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="E92" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" s="44"/>
-      <c r="G92" s="47"/>
-      <c r="H92" s="47"/>
-      <c r="I92" s="47"/>
-      <c r="J92" s="47"/>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
-      <c r="Q92" s="44"/>
-      <c r="R92" s="44"/>
-    </row>
     <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C93" s="48"/>
       <c r="D93" s="48" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F93" s="48"/>
       <c r="G93" s="48" t="s">
@@ -9267,7 +9291,7 @@
       </c>
       <c r="J93" s="48"/>
       <c r="K93" s="48">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L93" s="48">
         <v>4.5</v>
@@ -9275,8 +9299,7 @@
       <c r="M93" s="40">
         <v>1.75</v>
       </c>
-      <c r="N93" s="38">
-        <f>1.5/6</f>
+      <c r="N93" s="48">
         <v>0.25</v>
       </c>
       <c r="O93" s="48">
@@ -9295,10 +9318,10 @@
       </c>
       <c r="C94" s="48"/>
       <c r="D94" s="48" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E94" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F94" s="48"/>
       <c r="G94" s="48" t="s">
@@ -9310,110 +9333,111 @@
       </c>
       <c r="J94" s="48"/>
       <c r="K94" s="48">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L94" s="48">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M94" s="40">
         <v>1.75</v>
       </c>
-      <c r="N94" s="48">
+      <c r="N94" s="40">
         <v>0.25</v>
       </c>
-      <c r="O94" s="48">
+      <c r="O94" s="40">
         <v>0.1</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="38"/>
+      <c r="P94" s="40"/>
+      <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="48" t="s">
+      <c r="T94" s="30"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>684</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>685</v>
+      </c>
+      <c r="E95" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="44"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="47"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="38"/>
+      <c r="B96" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="E95" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F95" s="48"/>
-      <c r="G95" s="48" t="s">
+      <c r="C96" s="48"/>
+      <c r="D96" s="48" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="48" t="s">
+        <v>677</v>
+      </c>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="H95" s="48"/>
-      <c r="I95" s="48">
+      <c r="H96" s="48"/>
+      <c r="I96" s="48">
         <v>1</v>
       </c>
-      <c r="J95" s="48"/>
-      <c r="K95" s="48">
+      <c r="J96" s="48"/>
+      <c r="K96" s="48">
         <v>0.5</v>
       </c>
-      <c r="L95" s="48">
-        <v>3</v>
-      </c>
-      <c r="M95" s="40">
+      <c r="L96" s="48">
+        <v>4</v>
+      </c>
+      <c r="M96" s="40">
         <v>1.75</v>
       </c>
-      <c r="N95" s="40">
+      <c r="N96" s="38">
+        <f>1.5/6</f>
         <v>0.25</v>
       </c>
-      <c r="O95" s="40">
+      <c r="O96" s="48">
         <v>0.1</v>
       </c>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="38" t="s">
+      <c r="P96" s="38"/>
+      <c r="Q96" s="38"/>
+      <c r="R96" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="T95" s="30"/>
-    </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="b">
-        <v>1</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="D96" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="E96" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" s="44"/>
-      <c r="G96" s="47"/>
-      <c r="H96" s="47"/>
-      <c r="I96" s="47"/>
-      <c r="J96" s="47"/>
-      <c r="K96" s="47"/>
-      <c r="L96" s="47"/>
-      <c r="M96" s="44"/>
-      <c r="N96" s="44"/>
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
-      <c r="Q96" s="44"/>
-      <c r="R96" s="44"/>
     </row>
     <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="38"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C97" s="48"/>
       <c r="D97" s="48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48" t="s">
@@ -9433,8 +9457,7 @@
       <c r="M97" s="40">
         <v>1.75</v>
       </c>
-      <c r="N97" s="38">
-        <f>1.5/6</f>
+      <c r="N97" s="48">
         <v>0.25</v>
       </c>
       <c r="O97" s="48">
@@ -9453,10 +9476,10 @@
       </c>
       <c r="C98" s="48"/>
       <c r="D98" s="48" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48" t="s">
@@ -9471,186 +9494,148 @@
         <v>0.5</v>
       </c>
       <c r="L98" s="48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M98" s="40">
         <v>1.75</v>
       </c>
-      <c r="N98" s="48">
+      <c r="N98" s="40">
         <v>0.25</v>
       </c>
-      <c r="O98" s="48">
+      <c r="O98" s="40">
         <v>0.1</v>
       </c>
-      <c r="P98" s="38"/>
-      <c r="Q98" s="38"/>
+      <c r="P98" s="40"/>
+      <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="48"/>
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>709</v>
+      </c>
+      <c r="C99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="D99" s="44" t="s">
+        <v>708</v>
+      </c>
+      <c r="E99" s="44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>710</v>
+      </c>
+      <c r="F100" s="62"/>
+      <c r="G100" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H100" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="I100" s="54">
+        <v>1</v>
+      </c>
+      <c r="J100" s="57"/>
+      <c r="K100" s="56">
+        <v>0.9</v>
+      </c>
+      <c r="L100" s="56">
+        <v>1</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="N100" s="56">
+        <f>(L100-K100)/6</f>
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="O100" s="56">
+        <v>0.1</v>
+      </c>
+      <c r="R100" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48" t="s">
-        <v>688</v>
-      </c>
-      <c r="E99" s="48" t="s">
-        <v>681</v>
-      </c>
-      <c r="F99" s="48"/>
-      <c r="G99" s="48" t="s">
+      <c r="D101" s="38" t="s">
+        <v>713</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>711</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48">
-        <v>1</v>
-      </c>
-      <c r="J99" s="48"/>
-      <c r="K99" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="L99" s="48">
-        <v>3</v>
-      </c>
-      <c r="M99" s="40">
-        <v>1.75</v>
-      </c>
-      <c r="N99" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="O99" s="40">
-        <v>0.1</v>
-      </c>
-      <c r="P99" s="40"/>
-      <c r="Q99" s="40"/>
-      <c r="R99" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="b">
-        <v>1</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="C100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="D100" s="44" t="s">
-        <v>708</v>
-      </c>
-      <c r="E100" s="44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D101" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E101" s="54" t="s">
-        <v>710</v>
-      </c>
-      <c r="F101" s="62"/>
-      <c r="G101" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H101" s="54" t="s">
+      <c r="H101" s="38" t="s">
         <v>642</v>
       </c>
-      <c r="I101" s="54">
-        <v>1</v>
-      </c>
-      <c r="J101" s="57"/>
-      <c r="K101" s="56">
-        <v>0.9</v>
-      </c>
-      <c r="L101" s="56">
-        <v>1</v>
-      </c>
-      <c r="M101" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="N101" s="56">
+      <c r="I101" s="38">
+        <v>1450</v>
+      </c>
+      <c r="J101" s="41"/>
+      <c r="K101" s="40">
+        <v>0</v>
+      </c>
+      <c r="L101" s="40">
+        <v>3000</v>
+      </c>
+      <c r="M101" s="40">
+        <v>1450</v>
+      </c>
+      <c r="N101" s="40">
         <f>(L101-K101)/6</f>
-        <v>1.6666666666666663E-2</v>
-      </c>
-      <c r="O101" s="56">
-        <v>0.1</v>
+        <v>500</v>
+      </c>
+      <c r="O101" s="40">
+        <v>50</v>
       </c>
       <c r="R101" s="38" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B102" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D102" s="38" t="s">
-        <v>713</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>711</v>
-      </c>
-      <c r="F102" s="48"/>
-      <c r="G102" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H102" s="38" t="s">
-        <v>642</v>
-      </c>
-      <c r="I102" s="38">
-        <v>1450</v>
-      </c>
-      <c r="J102" s="41"/>
-      <c r="K102" s="40">
-        <v>0</v>
-      </c>
-      <c r="L102" s="40">
-        <v>3000</v>
-      </c>
-      <c r="M102" s="40">
-        <v>1450</v>
-      </c>
-      <c r="N102" s="40">
-        <f>(L102-K102)/6</f>
-        <v>500</v>
-      </c>
-      <c r="O102" s="40">
-        <v>50</v>
-      </c>
-      <c r="R102" s="38" t="s">
-        <v>752</v>
-      </c>
+    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>751</v>
+      </c>
+      <c r="C102" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="D102" s="35" t="s">
+        <v>754</v>
+      </c>
+      <c r="E102" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="36"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="35"/>
-      <c r="B103" s="35"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="35"/>
-      <c r="E103" s="35"/>
-      <c r="F103" s="35"/>
-      <c r="G103" s="35"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="35"/>
-      <c r="K103" s="35"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="35"/>
-      <c r="N103" s="35"/>
-      <c r="O103" s="35"/>
-      <c r="P103" s="35"/>
-      <c r="Q103" s="35"/>
-      <c r="R103" s="35"/>
+      <c r="F103" s="62"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F104" s="62"/>
+      <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
@@ -9690,7 +9675,6 @@
       <c r="J111" s="30"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
@@ -10042,12 +10026,8 @@
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I200" s="30"/>
-      <c r="J200" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:AA127"/>
+  <autoFilter ref="A2:AA126"/>
   <mergeCells count="1">
     <mergeCell ref="U1:Z1"/>
   </mergeCells>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="23260" windowHeight="13180" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -6645,20 +6645,20 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6667,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6780,7 +6780,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6856,11 +6856,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>566</v>
       </c>
@@ -6891,12 +6891,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="29">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
@@ -6905,7 +6905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
         <v>767</v>
       </c>
@@ -6915,7 +6915,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
         <v>768</v>
       </c>
@@ -6927,45 +6927,45 @@
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="29"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -6978,7 +6978,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="30" customFormat="1">
       <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
@@ -7015,7 +7015,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>632</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="30" customFormat="1">
       <c r="B42" s="25"/>
       <c r="D42" s="2"/>
     </row>
@@ -7055,7 +7055,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7073,32 +7072,32 @@
       <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7134,7 +7133,7 @@
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7151,7 +7150,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
@@ -7247,7 +7246,7 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7266,7 +7265,7 @@
       </c>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7285,7 +7284,7 @@
       </c>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26">
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
@@ -7304,7 +7303,7 @@
       </c>
       <c r="J7" s="30"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26">
       <c r="B8" s="30" t="s">
         <v>21</v>
       </c>
@@ -7323,7 +7322,7 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
@@ -7342,7 +7341,7 @@
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7360,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7380,7 +7379,7 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
@@ -7399,7 +7398,7 @@
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
@@ -7418,7 +7417,7 @@
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
@@ -7437,7 +7436,7 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7456,7 +7455,7 @@
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7475,7 +7474,7 @@
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7494,7 +7493,7 @@
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7513,7 +7512,7 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7532,7 +7531,7 @@
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7551,7 +7550,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7570,7 +7569,7 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7589,7 +7588,7 @@
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="35" customFormat="1">
       <c r="A23" s="35" t="b">
         <v>1</v>
       </c>
@@ -7608,7 +7607,7 @@
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="43" customFormat="1">
       <c r="A24" s="43" t="b">
         <v>1</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="29" customFormat="1">
       <c r="B25" s="29" t="s">
         <v>21</v>
       </c>
@@ -7647,7 +7646,7 @@
       </c>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B26" s="38" t="s">
         <v>22</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="29" customFormat="1">
       <c r="B27" s="29" t="s">
         <v>21</v>
       </c>
@@ -7702,7 +7701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="54" customFormat="1">
       <c r="B28" s="54" t="s">
         <v>21</v>
       </c>
@@ -7739,7 +7738,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7811,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
@@ -7830,7 +7829,7 @@
       </c>
       <c r="P33" s="30"/>
     </row>
-    <row r="34" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="44" customFormat="1">
       <c r="A34" s="44" t="b">
         <v>1</v>
       </c>
@@ -7847,7 +7846,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15">
       <c r="A35" s="29"/>
       <c r="B35" s="29" t="s">
         <v>21</v>
@@ -7877,7 +7876,7 @@
       <c r="O35" s="3"/>
       <c r="Q35" s="37"/>
     </row>
-    <row r="36" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B36" s="50" t="s">
         <v>21</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -7943,7 +7942,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -7970,7 +7969,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -7997,7 +7996,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8024,7 +8023,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8051,7 +8050,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8078,7 +8077,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="15">
       <c r="A43" s="29"/>
       <c r="B43" s="29" t="s">
         <v>21</v>
@@ -8105,7 +8104,7 @@
       <c r="O43" s="3"/>
       <c r="Q43" s="37"/>
     </row>
-    <row r="44" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="44" customFormat="1">
       <c r="A44" s="44" t="b">
         <v>1</v>
       </c>
@@ -8122,7 +8121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B45" s="29" t="s">
         <v>21</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B46" s="38" t="s">
         <v>22</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8205,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8247,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8265,7 +8264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8307,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B53" s="29" t="s">
         <v>21</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="44" t="b">
         <v>1</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B55" s="29" t="s">
         <v>21</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B56" s="38" t="s">
         <v>22</v>
       </c>
@@ -8407,7 +8406,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8446,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8488,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8527,7 +8526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B64" s="29" t="s">
         <v>21</v>
       </c>
@@ -8569,7 +8568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="44" t="b">
         <v>1</v>
       </c>
@@ -8586,7 +8585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B66" s="29" t="s">
         <v>21</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B67" s="38" t="s">
         <v>22</v>
       </c>
@@ -8648,7 +8647,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8666,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8768,7 +8767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8789,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B75" s="29" t="s">
         <v>21</v>
       </c>
@@ -8810,7 +8809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="44" t="b">
         <v>1</v>
       </c>
@@ -8827,7 +8826,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B77" s="29" t="s">
         <v>21</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B79" s="38" t="s">
         <v>22</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -8948,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9029,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9050,7 +9049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="29" customFormat="1">
       <c r="B87" s="29" t="s">
         <v>21</v>
       </c>
@@ -9092,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="44" customFormat="1">
       <c r="A88" s="44" t="b">
         <v>1</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
@@ -9150,7 +9149,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="90" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B90" s="38" t="s">
         <v>22</v>
       </c>
@@ -9191,7 +9190,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="B91" s="30" t="s">
         <v>21</v>
       </c>
@@ -9215,7 +9214,7 @@
       <c r="O91" s="3"/>
       <c r="R91" s="38"/>
     </row>
-    <row r="92" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" ht="15">
       <c r="A92" s="47" t="b">
         <v>1</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="Q92" s="44"/>
       <c r="R92" s="44"/>
     </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="38"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -9288,7 +9287,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -9330,7 +9329,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="95" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A95" s="48"/>
       <c r="B95" s="48" t="s">
         <v>22</v>
@@ -9373,7 +9372,7 @@
       </c>
       <c r="T95" s="30"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="47" t="b">
         <v>1</v>
       </c>
@@ -9403,7 +9402,7 @@
       <c r="Q96" s="44"/>
       <c r="R96" s="44"/>
     </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="38"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -9446,7 +9445,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -9488,7 +9487,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="15">
       <c r="A99" s="48"/>
       <c r="B99" s="48" t="s">
         <v>22</v>
@@ -9530,7 +9529,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="44" t="b">
         <v>1</v>
       </c>
@@ -9547,7 +9546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" s="54" customFormat="1">
       <c r="B101" s="54" t="s">
         <v>21</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="102" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B102" s="38" t="s">
         <v>22</v>
       </c>
@@ -9629,7 +9628,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="A103" s="35"/>
       <c r="B103" s="35"/>
       <c r="C103" s="35"/>
@@ -9649,400 +9648,400 @@
       <c r="Q103" s="35"/>
       <c r="R103" s="35"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="62"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="F112" s="45"/>
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
-    <row r="200" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:10">
       <c r="I200" s="30"/>
       <c r="J200" s="30"/>
     </row>
@@ -10052,7 +10051,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10070,22 +10068,22 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10101,7 +10099,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10139,7 +10137,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10178,7 +10176,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10207,7 +10205,7 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
@@ -10236,7 +10234,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
@@ -10265,7 +10263,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
@@ -10293,7 +10291,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
@@ -10321,7 +10319,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
@@ -10349,7 +10347,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
@@ -10377,7 +10375,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
@@ -10405,7 +10403,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
@@ -10433,7 +10431,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
@@ -10456,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
@@ -10479,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
@@ -10502,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
@@ -10523,180 +10521,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10713,19 +10710,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10744,7 +10741,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10765,7 +10762,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10788,7 +10785,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10811,7 +10808,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10834,7 +10831,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10857,7 +10854,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10880,7 +10877,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10903,7 +10900,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10926,7 +10923,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10949,7 +10946,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10968,7 +10965,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10989,7 +10986,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11012,7 +11009,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11035,7 +11032,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11058,7 +11055,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11081,7 +11078,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11104,7 +11101,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11127,7 +11124,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11150,7 +11147,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11173,7 +11170,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11192,7 +11189,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11215,7 +11212,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11238,7 +11235,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11261,7 +11258,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11284,7 +11281,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11307,7 +11304,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11330,7 +11327,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11353,7 +11350,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11376,7 +11373,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11399,7 +11396,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11418,7 +11415,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11439,7 +11436,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11462,7 +11459,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11485,7 +11482,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11508,7 +11505,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11531,7 +11528,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11554,7 +11551,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11577,7 +11574,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11600,7 +11597,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11623,7 +11620,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11642,7 +11639,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11663,7 +11660,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11686,7 +11683,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11709,7 +11706,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11732,7 +11729,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11755,7 +11752,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11778,7 +11775,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11801,7 +11798,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11824,7 +11821,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11847,7 +11844,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11866,7 +11863,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11887,7 +11884,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11910,7 +11907,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11933,7 +11930,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11956,7 +11953,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11979,7 +11976,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12002,7 +11999,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12025,7 +12022,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12048,7 +12045,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12071,7 +12068,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12090,7 +12087,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12111,7 +12108,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12136,7 +12133,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12159,7 +12156,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12182,7 +12179,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12205,7 +12202,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12228,7 +12225,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12251,7 +12248,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12274,7 +12271,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12297,7 +12294,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12320,7 +12317,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12339,7 +12336,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12360,7 +12357,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12383,7 +12380,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12408,7 +12405,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12431,7 +12428,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12454,7 +12451,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12477,7 +12474,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12500,7 +12497,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12523,7 +12520,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12546,7 +12543,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12569,7 +12566,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12592,7 +12589,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12615,7 +12612,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12638,7 +12635,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12657,7 +12654,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12680,7 +12677,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12703,7 +12700,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12726,7 +12723,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12749,7 +12746,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12772,7 +12769,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12795,7 +12792,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12818,7 +12815,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12841,7 +12838,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12864,7 +12861,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12887,7 +12884,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12906,7 +12903,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12931,7 +12928,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12950,7 +12947,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12971,7 +12968,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12996,7 +12993,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13015,7 +13012,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13038,7 +13035,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13063,7 +13060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13086,7 +13083,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13107,7 +13104,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13126,7 +13123,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13151,7 +13148,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13174,7 +13171,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13197,7 +13194,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13220,7 +13217,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13243,7 +13240,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13266,7 +13263,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13289,7 +13286,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13308,7 +13305,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13331,7 +13328,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13354,7 +13351,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13377,7 +13374,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13396,7 +13393,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13419,7 +13416,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13442,7 +13439,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13465,7 +13462,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13488,7 +13485,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13511,7 +13508,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13534,7 +13531,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13553,7 +13550,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13578,7 +13575,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13601,7 +13598,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13624,7 +13621,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13647,7 +13644,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13670,7 +13667,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13693,7 +13690,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13716,7 +13713,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13739,7 +13736,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13762,7 +13759,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13781,7 +13778,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13806,7 +13803,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13827,7 +13824,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13850,7 +13847,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13873,7 +13870,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13896,7 +13893,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13919,7 +13916,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13942,7 +13939,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13965,7 +13962,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13988,7 +13985,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14011,7 +14008,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14034,7 +14031,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14057,7 +14054,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14080,7 +14077,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14103,7 +14100,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14122,7 +14119,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14145,7 +14142,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14164,7 +14161,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14187,7 +14184,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14210,7 +14207,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14229,7 +14226,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14254,7 +14251,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14277,7 +14274,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14300,7 +14297,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14323,7 +14320,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14346,7 +14343,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14369,7 +14366,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14392,7 +14389,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14415,7 +14412,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14438,7 +14435,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14461,7 +14458,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14480,7 +14477,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14505,7 +14502,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14528,7 +14525,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14551,7 +14548,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14574,7 +14571,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14597,7 +14594,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14620,7 +14617,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14643,7 +14640,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14666,7 +14663,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14689,7 +14686,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14712,7 +14709,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14731,7 +14728,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14754,7 +14751,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14777,7 +14774,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14800,7 +14797,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14823,7 +14820,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14842,7 +14839,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14865,7 +14862,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14888,7 +14885,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14911,7 +14908,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14934,7 +14931,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14953,7 +14950,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14974,7 +14971,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14997,7 +14994,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15016,7 +15013,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15039,7 +15036,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15064,7 +15061,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15085,7 +15082,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15110,7 +15107,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15135,7 +15132,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15154,7 +15151,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15179,7 +15176,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15202,7 +15199,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15225,7 +15222,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15248,7 +15245,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15271,7 +15268,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15294,7 +15291,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15317,7 +15314,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15340,7 +15337,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15363,7 +15360,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15382,7 +15379,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15407,7 +15404,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15430,7 +15427,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15453,7 +15450,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15476,7 +15473,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15499,7 +15496,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15522,7 +15519,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15545,7 +15542,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15568,7 +15565,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15591,7 +15588,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15610,7 +15607,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15631,7 +15628,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15654,7 +15651,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15677,7 +15674,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15700,7 +15697,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15723,7 +15720,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15746,7 +15743,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15769,7 +15766,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15792,7 +15789,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15815,7 +15812,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15838,7 +15835,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15861,7 +15858,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15884,7 +15881,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15907,7 +15904,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15930,7 +15927,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15953,7 +15950,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15976,7 +15973,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15995,7 +15992,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16016,7 +16013,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16039,7 +16036,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16062,7 +16059,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16085,7 +16082,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16108,7 +16105,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16131,7 +16128,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16154,7 +16151,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16177,7 +16174,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16200,7 +16197,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16223,7 +16220,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16246,7 +16243,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16269,7 +16266,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16292,7 +16289,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16315,7 +16312,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16338,7 +16335,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16361,7 +16358,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16380,7 +16377,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16405,7 +16402,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16428,7 +16425,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16451,7 +16448,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16474,7 +16471,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16497,7 +16494,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16516,7 +16513,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16541,7 +16538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16564,7 +16561,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16583,7 +16580,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16602,7 +16599,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16621,7 +16618,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16639,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16662,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16685,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16708,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16731,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16754,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16777,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16800,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16823,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16849,7 +16846,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16872,7 +16869,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16891,7 +16888,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16911,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16933,7 +16930,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16958,7 +16955,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16981,7 +16978,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17004,7 +17001,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17024,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17050,7 +17047,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17073,7 +17070,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17096,7 +17093,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17119,7 +17116,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17142,7 +17139,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17165,7 +17162,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17188,7 +17185,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17207,7 +17204,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17230,7 +17227,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17249,7 +17246,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17270,7 +17267,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17289,7 +17286,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17310,7 +17307,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17329,7 +17326,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17350,7 +17347,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17369,7 +17366,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17392,7 +17389,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17411,7 +17408,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17436,7 +17433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17459,7 +17456,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17482,7 +17479,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17505,7 +17502,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17528,7 +17525,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17551,7 +17548,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17574,7 +17571,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17597,7 +17594,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17620,7 +17617,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17639,7 +17636,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17662,7 +17659,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17685,7 +17682,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17708,7 +17705,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17731,7 +17728,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17750,7 +17747,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17773,7 +17770,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17796,7 +17793,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17821,7 +17818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17840,7 +17837,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17865,7 +17862,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17888,7 +17885,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17907,7 +17904,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17928,7 +17925,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17949,7 +17946,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17972,7 +17969,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17991,7 +17988,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18010,7 +18007,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18035,7 +18032,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18060,7 +18057,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18074,7 +18071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18097,7 +18094,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18117,7 +18114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18137,7 +18134,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18157,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18174,7 +18171,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18197,7 +18194,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18220,7 +18217,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18234,7 +18231,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18257,7 +18254,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18280,7 +18277,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18300,7 +18297,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18320,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18337,7 +18334,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18363,7 +18360,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18392,7 +18389,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18431,7 +18428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18445,7 +18442,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18465,7 +18462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18479,7 +18476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18499,7 +18496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18519,7 +18516,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18539,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18559,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18579,7 +18576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18599,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18619,7 +18616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18639,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18659,7 +18656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18673,7 +18670,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18693,7 +18690,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18713,7 +18710,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18729,7 +18726,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18755,7 +18752,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18796,7 +18793,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18810,7 +18807,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18830,7 +18827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18844,7 +18841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18866,7 +18863,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18883,17 +18879,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18904,7 +18900,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18918,7 +18914,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18932,7 +18928,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -18946,7 +18942,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -18960,7 +18956,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -18974,7 +18970,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -18988,7 +18984,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -19002,7 +18998,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -19016,7 +19012,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19030,7 +19026,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19044,7 +19040,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19055,8 +19051,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19082,7 +19078,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19123,7 +19119,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19164,7 +19160,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19196,7 +19192,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19228,7 +19224,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19257,7 +19253,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19289,7 +19285,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19309,7 +19305,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19332,7 +19328,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19343,7 +19339,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19351,7 +19347,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19364,7 +19360,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/projects/SEB_LHS_2013.xlsx
+++ b/projects/SEB_LHS_2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="562"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2196,160 +2196,160 @@
     <t>Short display names are used for plots and exported to metadata</t>
   </si>
   <si>
+    <t>AddMonthlyJSONUtilityDataElectric</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityData</t>
+  </si>
+  <si>
+    <t>Path to JSON</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/electric.json</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Electric Bill</t>
+  </si>
+  <si>
+    <t>Fuel Type</t>
+  </si>
+  <si>
+    <t>fuel_type</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Consumption Unit</t>
+  </si>
+  <si>
+    <t>consumption_unit</t>
+  </si>
+  <si>
+    <t>data key name</t>
+  </si>
+  <si>
+    <t>data_key_name</t>
+  </si>
+  <si>
+    <t>tot_kwh</t>
+  </si>
+  <si>
+    <t>remove existing Utility Bill data</t>
+  </si>
+  <si>
+    <t>remove_existing_data</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>AddMonthlyJSONUtilityDataGas</t>
+  </si>
+  <si>
+    <t>../../../lib/calibration_data/gas.json</t>
+  </si>
+  <si>
+    <t>Gas Bill</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>tot_therms</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Set RunPeriod</t>
+  </si>
+  <si>
+    <t>set_runperiod</t>
+  </si>
+  <si>
+    <t>../Calibration_example/measures</t>
+  </si>
+  <si>
+    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
+  </si>
+  <si>
+    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
+  </si>
+  <si>
+    <t>../Calibration_example/lib</t>
+  </si>
+  <si>
+    <t>SEB4 baseboard LHS 2013 184</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Calibration Reports Enhanced</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>CalibrationReportsEnhanced20</t>
+  </si>
+  <si>
+    <t>Failed F Value</t>
+  </si>
+  <si>
+    <t>Debug Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 or 0 </t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_rmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.electricity_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_cvrmse_within_limit</t>
+  </si>
+  <si>
+    <t>calibration_reports_enhanced.natural_gas_nmbe_within_limit</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataElectric</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityData</t>
-  </si>
-  <si>
-    <t>Path to JSON</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/electric.json</t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t>Electric Bill</t>
-  </si>
-  <si>
-    <t>Fuel Type</t>
-  </si>
-  <si>
-    <t>fuel_type</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Consumption Unit</t>
-  </si>
-  <si>
-    <t>consumption_unit</t>
-  </si>
-  <si>
-    <t>data key name</t>
-  </si>
-  <si>
-    <t>data_key_name</t>
-  </si>
-  <si>
-    <t>tot_kwh</t>
-  </si>
-  <si>
-    <t>remove existing Utility Bill data</t>
-  </si>
-  <si>
-    <t>remove_existing_data</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>AddMonthlyJSONUtilityDataGas</t>
-  </si>
-  <si>
-    <t>../../../lib/calibration_data/gas.json</t>
-  </si>
-  <si>
-    <t>Gas Bill</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>tot_therms</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>Set RunPeriod</t>
-  </si>
-  <si>
-    <t>set_runperiod</t>
-  </si>
-  <si>
-    <t>../Calibration_example/measures</t>
-  </si>
-  <si>
-    <t>../Calibration_example/weather/SRRL_2013AMY_60min.epw</t>
-  </si>
-  <si>
-    <t>../Calibration_example/seeds/SEB4_baseboard.osm</t>
-  </si>
-  <si>
-    <t>../Calibration_example/lib</t>
-  </si>
-  <si>
-    <t>SEB4 baseboard LHS 2013 184</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Calibration Reports Enhanced</t>
-  </si>
-  <si>
-    <t>uniform</t>
-  </si>
-  <si>
-    <t>1.21.14</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_modeled</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_rmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_cvrmse</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_consumption_nmbe</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.electricity_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_cvrmse_within_limit</t>
-  </si>
-  <si>
-    <t>CalibrationReportsEnhanced20.natural_gas_nmbe_within_limit</t>
-  </si>
-  <si>
-    <t>Failed F Value</t>
-  </si>
-  <si>
-    <t>Debug Messages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 or 0 </t>
   </si>
 </sst>
 </file>
@@ -6644,21 +6644,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="27"/>
       <c r="C1" s="19"/>
@@ -6667,7 +6667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>433</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>434</v>
       </c>
@@ -6687,40 +6687,40 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>718</v>
+        <v>769</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>465</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.25" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28">
       <c r="A7" s="1" t="s">
         <v>440</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>441</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>456</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
@@ -6780,29 +6780,29 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>460</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>462</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>449</v>
       </c>
@@ -6856,11 +6856,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="30" customFormat="1">
       <c r="B20" s="25"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A21" s="11" t="s">
         <v>448</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="30" customFormat="1">
       <c r="A22" s="29" t="s">
         <v>566</v>
       </c>
@@ -6891,23 +6891,21 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="30" customFormat="1">
       <c r="A23" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="29">
-        <v>300</v>
+        <v>3</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="D23" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" s="30" customFormat="1">
       <c r="A24" s="30" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="B24" s="28">
         <v>1E+18</v>
@@ -6915,57 +6913,57 @@
       <c r="C24" s="29"/>
       <c r="D24" s="33"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="30" customFormat="1">
       <c r="A25" s="30" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="B25" s="29">
         <v>0</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="D25" s="33"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="30" customFormat="1">
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
       <c r="D26" s="33"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="30" customFormat="1">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="33"/>
     </row>
-    <row r="28" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="30" customFormat="1">
       <c r="C28" s="29"/>
       <c r="D28" s="33"/>
     </row>
-    <row r="29" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="30" customFormat="1">
       <c r="C29" s="29"/>
       <c r="D29" s="33"/>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="30" customFormat="1">
       <c r="B30" s="29"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="30" customFormat="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
       <c r="D31" s="33"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="30" customFormat="1">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
       <c r="D32" s="33"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="30" customFormat="1">
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
@@ -6978,15 +6976,15 @@
       <c r="D34" s="11"/>
       <c r="E34" s="13"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A37" s="11" t="s">
         <v>29</v>
       </c>
@@ -7003,7 +7001,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="30" customFormat="1">
       <c r="A38" s="30" t="s">
         <v>31</v>
       </c>
@@ -7011,11 +7009,11 @@
         <v>629</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="40" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A40" s="11" t="s">
         <v>34</v>
       </c>
@@ -7030,7 +7028,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5">
       <c r="A41" s="30" t="s">
         <v>632</v>
       </c>
@@ -7038,10 +7036,10 @@
         <v>631</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="30" customFormat="1">
       <c r="B42" s="25"/>
       <c r="D42" s="2"/>
     </row>
@@ -7055,7 +7053,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7068,37 +7065,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="47" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="30" customWidth="1"/>
-    <col min="5" max="6" width="24.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="30" customWidth="1"/>
+    <col min="5" max="6" width="24.1640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="30" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="8.1640625" style="30" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="30" customWidth="1"/>
     <col min="14" max="15" width="7.6640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="30"/>
-    <col min="17" max="17" width="11.44140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="11.5" style="30"/>
+    <col min="17" max="17" width="11.5" style="30" customWidth="1"/>
     <col min="18" max="18" width="23" style="30" customWidth="1"/>
     <col min="19" max="19" width="27.6640625" style="30" customWidth="1"/>
-    <col min="20" max="20" width="46.109375" style="30" customWidth="1"/>
-    <col min="21" max="23" width="11.44140625" style="30"/>
+    <col min="20" max="20" width="46.1640625" style="30" customWidth="1"/>
+    <col min="21" max="23" width="11.5" style="30"/>
     <col min="24" max="24" width="13.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="11.44140625" style="30"/>
+    <col min="25" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7134,7 +7131,7 @@
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
     </row>
-    <row r="2" spans="1:26" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7151,7 +7148,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:26" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7228,18 +7225,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="35" customFormat="1">
       <c r="A4" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>719</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>720</v>
-      </c>
       <c r="D4" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>66</v>
@@ -7247,31 +7244,31 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>721</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>722</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>722</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="30" t="s">
         <v>723</v>
-      </c>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>724</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>164</v>
@@ -7281,38 +7278,38 @@
         <v>671</v>
       </c>
       <c r="I6" s="30" t="s">
+        <v>724</v>
+      </c>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="30" t="s">
         <v>725</v>
       </c>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="E7" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>727</v>
       </c>
       <c r="F7" s="62"/>
       <c r="G7" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I7" s="30" t="s">
+        <v>727</v>
+      </c>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="B8" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="30" t="s">
         <v>728</v>
       </c>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B8" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="E8" s="30" t="s">
         <v>729</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>730</v>
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="30" t="s">
@@ -7323,26 +7320,26 @@
       </c>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26">
       <c r="B9" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>731</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>732</v>
       </c>
       <c r="F9" s="62"/>
       <c r="G9" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26">
       <c r="B10" s="30" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7358,7 @@
       </c>
       <c r="J10" s="30"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26">
       <c r="B11" s="30" t="s">
         <v>21</v>
       </c>
@@ -7380,56 +7377,56 @@
       </c>
       <c r="J11" s="30"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26">
       <c r="B12" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>734</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J12" s="30"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26">
       <c r="B13" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>742</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>743</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>744</v>
       </c>
       <c r="F13" s="62"/>
       <c r="G13" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J13" s="30"/>
     </row>
-    <row r="14" spans="1:26" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="35" customFormat="1">
       <c r="A14" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>66</v>
@@ -7437,31 +7434,31 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="30" t="s">
+        <v>720</v>
+      </c>
+      <c r="E15" s="30" t="s">
         <v>721</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>722</v>
       </c>
       <c r="F15" s="62"/>
       <c r="G15" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>164</v>
@@ -7471,38 +7468,38 @@
         <v>671</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>726</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>727</v>
       </c>
       <c r="F17" s="62"/>
       <c r="G17" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>728</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>729</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>730</v>
       </c>
       <c r="F18" s="62"/>
       <c r="G18" s="30" t="s">
@@ -7513,26 +7510,26 @@
       </c>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>730</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>731</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>732</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="30" t="s">
         <v>671</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7551,7 +7548,7 @@
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7570,26 +7567,26 @@
       </c>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>734</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>735</v>
       </c>
       <c r="F22" s="62"/>
       <c r="G22" s="30" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="43" customFormat="1">
       <c r="A23" s="43" t="b">
         <v>1</v>
       </c>
@@ -7606,7 +7603,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="29" customFormat="1">
       <c r="B24" s="29" t="s">
         <v>21</v>
       </c>
@@ -7628,7 +7625,7 @@
       </c>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B25" s="38" t="s">
         <v>22</v>
       </c>
@@ -7662,10 +7659,10 @@
         <v>1</v>
       </c>
       <c r="R25" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="29" customFormat="1">
       <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
@@ -7683,7 +7680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="54" customFormat="1">
       <c r="B27" s="54" t="s">
         <v>21</v>
       </c>
@@ -7717,10 +7714,10 @@
         <v>0.01</v>
       </c>
       <c r="R27" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="29" customFormat="1">
       <c r="B28" s="29" t="s">
         <v>21</v>
       </c>
@@ -7738,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B29" s="29" t="s">
         <v>21</v>
       </c>
@@ -7756,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B30" s="29" t="s">
         <v>21</v>
       </c>
@@ -7774,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B31" s="29" t="s">
         <v>21</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B32" s="29" t="s">
         <v>21</v>
       </c>
@@ -7811,7 +7808,7 @@
       </c>
       <c r="P32" s="30"/>
     </row>
-    <row r="33" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="44" customFormat="1">
       <c r="A33" s="44" t="b">
         <v>1</v>
       </c>
@@ -7828,7 +7825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="15">
       <c r="A34" s="29"/>
       <c r="B34" s="29" t="s">
         <v>21</v>
@@ -7858,7 +7855,7 @@
       <c r="O34" s="3"/>
       <c r="Q34" s="37"/>
     </row>
-    <row r="35" spans="1:18" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" s="50" customFormat="1" ht="15">
       <c r="B35" s="50" t="s">
         <v>21</v>
       </c>
@@ -7894,10 +7891,10 @@
       </c>
       <c r="Q35" s="53"/>
       <c r="R35" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15">
       <c r="A36" s="29"/>
       <c r="B36" s="29" t="s">
         <v>21</v>
@@ -7924,7 +7921,7 @@
       <c r="O36" s="3"/>
       <c r="Q36" s="37"/>
     </row>
-    <row r="37" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="15">
       <c r="A37" s="29"/>
       <c r="B37" s="29" t="s">
         <v>21</v>
@@ -7951,7 +7948,7 @@
       <c r="O37" s="3"/>
       <c r="Q37" s="37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="15">
       <c r="A38" s="29"/>
       <c r="B38" s="29" t="s">
         <v>21</v>
@@ -7978,7 +7975,7 @@
       <c r="O38" s="3"/>
       <c r="Q38" s="37"/>
     </row>
-    <row r="39" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="15">
       <c r="A39" s="29"/>
       <c r="B39" s="29" t="s">
         <v>21</v>
@@ -8005,7 +8002,7 @@
       <c r="O39" s="3"/>
       <c r="Q39" s="37"/>
     </row>
-    <row r="40" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="15">
       <c r="A40" s="29"/>
       <c r="B40" s="29" t="s">
         <v>21</v>
@@ -8032,7 +8029,7 @@
       <c r="O40" s="3"/>
       <c r="Q40" s="37"/>
     </row>
-    <row r="41" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="15">
       <c r="A41" s="29"/>
       <c r="B41" s="29" t="s">
         <v>21</v>
@@ -8059,7 +8056,7 @@
       <c r="O41" s="3"/>
       <c r="Q41" s="37"/>
     </row>
-    <row r="42" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="15">
       <c r="A42" s="29"/>
       <c r="B42" s="29" t="s">
         <v>21</v>
@@ -8086,7 +8083,7 @@
       <c r="O42" s="3"/>
       <c r="Q42" s="37"/>
     </row>
-    <row r="43" spans="1:18" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="44" customFormat="1">
       <c r="A43" s="44" t="b">
         <v>1</v>
       </c>
@@ -8103,7 +8100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B44" s="29" t="s">
         <v>21</v>
       </c>
@@ -8124,7 +8121,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B45" s="38" t="s">
         <v>22</v>
       </c>
@@ -8162,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="R45" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B46" s="29" t="s">
         <v>21</v>
       </c>
@@ -8186,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="29" customFormat="1">
       <c r="B47" s="29" t="s">
         <v>21</v>
       </c>
@@ -8207,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="29" customFormat="1">
       <c r="B48" s="29" t="s">
         <v>21</v>
       </c>
@@ -8228,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="29" customFormat="1">
       <c r="B49" s="29" t="s">
         <v>21</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="29" customFormat="1">
       <c r="B50" s="29" t="s">
         <v>21</v>
       </c>
@@ -8267,7 +8264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="29" customFormat="1">
       <c r="B51" s="29" t="s">
         <v>21</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B52" s="29" t="s">
         <v>21</v>
       </c>
@@ -8309,7 +8306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="44" t="b">
         <v>1</v>
       </c>
@@ -8326,7 +8323,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B54" s="29" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8344,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B55" s="38" t="s">
         <v>22</v>
       </c>
@@ -8385,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="R55" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="29" customFormat="1">
       <c r="B56" s="29" t="s">
         <v>21</v>
       </c>
@@ -8406,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="29" customFormat="1">
       <c r="B57" s="29" t="s">
         <v>21</v>
       </c>
@@ -8427,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="29" customFormat="1">
       <c r="B58" s="29" t="s">
         <v>21</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="29" customFormat="1">
       <c r="B59" s="29" t="s">
         <v>21</v>
       </c>
@@ -8469,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B60" s="29" t="s">
         <v>21</v>
       </c>
@@ -8487,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B61" s="29" t="s">
         <v>21</v>
       </c>
@@ -8508,7 +8505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B62" s="29" t="s">
         <v>21</v>
       </c>
@@ -8529,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B63" s="29" t="s">
         <v>21</v>
       </c>
@@ -8550,7 +8547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="44" t="b">
         <v>1</v>
       </c>
@@ -8567,7 +8564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B65" s="29" t="s">
         <v>21</v>
       </c>
@@ -8588,7 +8585,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B66" s="38" t="s">
         <v>22</v>
       </c>
@@ -8626,10 +8623,10 @@
         <v>0.25</v>
       </c>
       <c r="R66" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B67" s="29" t="s">
         <v>21</v>
       </c>
@@ -8647,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B68" s="29" t="s">
         <v>21</v>
       </c>
@@ -8668,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B69" s="29" t="s">
         <v>21</v>
       </c>
@@ -8689,7 +8686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B70" s="29" t="s">
         <v>21</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B71" s="29" t="s">
         <v>21</v>
       </c>
@@ -8728,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B72" s="29" t="s">
         <v>21</v>
       </c>
@@ -8749,7 +8746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B73" s="29" t="s">
         <v>21</v>
       </c>
@@ -8770,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B74" s="29" t="s">
         <v>21</v>
       </c>
@@ -8791,7 +8788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="44" t="b">
         <v>1</v>
       </c>
@@ -8808,7 +8805,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B76" s="29" t="s">
         <v>21</v>
       </c>
@@ -8829,7 +8826,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B77" s="38" t="s">
         <v>22</v>
       </c>
@@ -8867,10 +8864,10 @@
         <v>1</v>
       </c>
       <c r="R77" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B78" s="38" t="s">
         <v>22</v>
       </c>
@@ -8908,10 +8905,10 @@
         <v>1</v>
       </c>
       <c r="R78" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B79" s="29" t="s">
         <v>21</v>
       </c>
@@ -8929,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="15">
       <c r="B80" s="29" t="s">
         <v>21</v>
       </c>
@@ -8950,7 +8947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B81" s="29" t="s">
         <v>21</v>
       </c>
@@ -8971,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="B82" s="29" t="s">
         <v>21</v>
       </c>
@@ -8992,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" s="29" customFormat="1">
       <c r="B83" s="29" t="s">
         <v>21</v>
       </c>
@@ -9010,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" s="29" customFormat="1">
       <c r="B84" s="29" t="s">
         <v>21</v>
       </c>
@@ -9031,7 +9028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" s="29" customFormat="1">
       <c r="B85" s="29" t="s">
         <v>21</v>
       </c>
@@ -9052,7 +9049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" s="29" customFormat="1">
       <c r="B86" s="29" t="s">
         <v>21</v>
       </c>
@@ -9073,7 +9070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:20" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" s="44" customFormat="1">
       <c r="A87" s="44" t="b">
         <v>1</v>
       </c>
@@ -9090,7 +9087,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B88" s="38" t="s">
         <v>22</v>
       </c>
@@ -9128,10 +9125,10 @@
         <v>1</v>
       </c>
       <c r="R88" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" s="38" customFormat="1" ht="15">
       <c r="B89" s="38" t="s">
         <v>22</v>
       </c>
@@ -9169,10 +9166,10 @@
         <v>1</v>
       </c>
       <c r="R89" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="B90" s="30" t="s">
         <v>21</v>
       </c>
@@ -9196,7 +9193,7 @@
       <c r="O90" s="3"/>
       <c r="R90" s="38"/>
     </row>
-    <row r="91" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" ht="15">
       <c r="A91" s="47" t="b">
         <v>1</v>
       </c>
@@ -9226,7 +9223,7 @@
       <c r="Q91" s="44"/>
       <c r="R91" s="44"/>
     </row>
-    <row r="92" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A92" s="38"/>
       <c r="B92" s="48" t="s">
         <v>22</v>
@@ -9266,10 +9263,10 @@
       <c r="P92" s="38"/>
       <c r="Q92" s="38"/>
       <c r="R92" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A93" s="48"/>
       <c r="B93" s="48" t="s">
         <v>22</v>
@@ -9308,10 +9305,10 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="38"/>
       <c r="R93" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="29" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="29" customFormat="1" ht="15">
       <c r="A94" s="48"/>
       <c r="B94" s="48" t="s">
         <v>22</v>
@@ -9350,11 +9347,11 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="T94" s="30"/>
     </row>
-    <row r="95" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" ht="15">
       <c r="A95" s="47" t="b">
         <v>1</v>
       </c>
@@ -9384,7 +9381,7 @@
       <c r="Q95" s="44"/>
       <c r="R95" s="44"/>
     </row>
-    <row r="96" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" ht="15">
       <c r="A96" s="38"/>
       <c r="B96" s="48" t="s">
         <v>22</v>
@@ -9424,10 +9421,10 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="38"/>
       <c r="R96" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="15">
       <c r="A97" s="48"/>
       <c r="B97" s="48" t="s">
         <v>22</v>
@@ -9466,10 +9463,10 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="38"/>
       <c r="R97" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15">
       <c r="A98" s="48"/>
       <c r="B98" s="48" t="s">
         <v>22</v>
@@ -9508,10 +9505,10 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="44" t="b">
         <v>1</v>
       </c>
@@ -9528,7 +9525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" s="54" customFormat="1">
       <c r="B100" s="54" t="s">
         <v>21</v>
       </c>
@@ -9566,10 +9563,10 @@
         <v>0.1</v>
       </c>
       <c r="R100" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" s="38" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" s="38" customFormat="1" ht="15">
       <c r="B101" s="38" t="s">
         <v>22</v>
       </c>
@@ -9607,21 +9604,21 @@
         <v>50</v>
       </c>
       <c r="R101" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" s="35" customFormat="1" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" s="35" customFormat="1">
       <c r="A102" s="35" t="b">
         <v>1</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C102" s="35" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D102" s="35" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E102" s="35" t="s">
         <v>231</v>
@@ -9629,400 +9626,400 @@
       <c r="H102" s="36"/>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="F103" s="62"/>
       <c r="I103" s="30"/>
       <c r="J103" s="30"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="F104" s="45"/>
       <c r="I104" s="30"/>
       <c r="J104" s="30"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="F105" s="45"/>
       <c r="I105" s="30"/>
       <c r="J105" s="30"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="F106" s="45"/>
       <c r="I106" s="30"/>
       <c r="J106" s="30"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="F107" s="45"/>
       <c r="I107" s="30"/>
       <c r="J107" s="30"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="F108" s="45"/>
       <c r="I108" s="30"/>
       <c r="J108" s="30"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="F109" s="45"/>
       <c r="I109" s="30"/>
       <c r="J109" s="30"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="F110" s="45"/>
       <c r="I110" s="30"/>
       <c r="J110" s="30"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="F111" s="45"/>
       <c r="I111" s="30"/>
       <c r="J111" s="30"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="I112" s="30"/>
       <c r="J112" s="30"/>
     </row>
-    <row r="113" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:10">
       <c r="I113" s="30"/>
       <c r="J113" s="30"/>
     </row>
-    <row r="114" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:10">
       <c r="I114" s="30"/>
       <c r="J114" s="30"/>
     </row>
-    <row r="115" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:10">
       <c r="I115" s="30"/>
       <c r="J115" s="30"/>
     </row>
-    <row r="116" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:10">
       <c r="I116" s="30"/>
       <c r="J116" s="30"/>
     </row>
-    <row r="117" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:10">
       <c r="I117" s="30"/>
       <c r="J117" s="30"/>
     </row>
-    <row r="118" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:10">
       <c r="I118" s="30"/>
       <c r="J118" s="30"/>
     </row>
-    <row r="119" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:10">
       <c r="I119" s="30"/>
       <c r="J119" s="30"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:10">
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:10">
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:10">
       <c r="I122" s="30"/>
       <c r="J122" s="30"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:10">
       <c r="I123" s="30"/>
       <c r="J123" s="30"/>
     </row>
-    <row r="124" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:10">
       <c r="I124" s="30"/>
       <c r="J124" s="30"/>
     </row>
-    <row r="125" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:10">
       <c r="I125" s="30"/>
       <c r="J125" s="30"/>
     </row>
-    <row r="126" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:10">
       <c r="I126" s="30"/>
       <c r="J126" s="30"/>
     </row>
-    <row r="127" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:10">
       <c r="I127" s="30"/>
       <c r="J127" s="30"/>
     </row>
-    <row r="128" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:10">
       <c r="I128" s="30"/>
       <c r="J128" s="30"/>
     </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:10">
       <c r="I129" s="30"/>
       <c r="J129" s="30"/>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:10">
       <c r="I130" s="30"/>
       <c r="J130" s="30"/>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:10">
       <c r="I131" s="30"/>
       <c r="J131" s="30"/>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:10">
       <c r="I132" s="30"/>
       <c r="J132" s="30"/>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:10">
       <c r="I133" s="30"/>
       <c r="J133" s="30"/>
     </row>
-    <row r="134" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:10">
       <c r="I134" s="30"/>
       <c r="J134" s="30"/>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:10">
       <c r="I135" s="30"/>
       <c r="J135" s="30"/>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:10">
       <c r="I136" s="30"/>
       <c r="J136" s="30"/>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:10">
       <c r="I137" s="30"/>
       <c r="J137" s="30"/>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:10">
       <c r="I138" s="30"/>
       <c r="J138" s="30"/>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:10">
       <c r="I139" s="30"/>
       <c r="J139" s="30"/>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:10">
       <c r="I140" s="30"/>
       <c r="J140" s="30"/>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:10">
       <c r="I141" s="30"/>
       <c r="J141" s="30"/>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:10">
       <c r="I142" s="30"/>
       <c r="J142" s="30"/>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:10">
       <c r="I143" s="30"/>
       <c r="J143" s="30"/>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:10">
       <c r="I144" s="30"/>
       <c r="J144" s="30"/>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:10">
       <c r="I145" s="30"/>
       <c r="J145" s="30"/>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:10">
       <c r="I146" s="30"/>
       <c r="J146" s="30"/>
     </row>
-    <row r="147" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:10">
       <c r="I147" s="30"/>
       <c r="J147" s="30"/>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:10">
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:10">
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:10">
       <c r="I150" s="30"/>
       <c r="J150" s="30"/>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:10">
       <c r="I151" s="30"/>
       <c r="J151" s="30"/>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:10">
       <c r="I152" s="30"/>
       <c r="J152" s="30"/>
     </row>
-    <row r="153" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:10">
       <c r="I153" s="30"/>
       <c r="J153" s="30"/>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:10">
       <c r="I154" s="30"/>
       <c r="J154" s="30"/>
     </row>
-    <row r="155" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:10">
       <c r="I155" s="30"/>
       <c r="J155" s="30"/>
     </row>
-    <row r="156" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:10">
       <c r="I156" s="30"/>
       <c r="J156" s="30"/>
     </row>
-    <row r="157" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:10">
       <c r="I157" s="30"/>
       <c r="J157" s="30"/>
     </row>
-    <row r="158" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:10">
       <c r="I158" s="30"/>
       <c r="J158" s="30"/>
     </row>
-    <row r="159" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:10">
       <c r="I159" s="30"/>
       <c r="J159" s="30"/>
     </row>
-    <row r="160" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:10">
       <c r="I160" s="30"/>
       <c r="J160" s="30"/>
     </row>
-    <row r="161" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:10">
       <c r="I161" s="30"/>
       <c r="J161" s="30"/>
     </row>
-    <row r="162" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:10">
       <c r="I162" s="30"/>
       <c r="J162" s="30"/>
     </row>
-    <row r="163" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:10">
       <c r="I163" s="30"/>
       <c r="J163" s="30"/>
     </row>
-    <row r="164" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:10">
       <c r="I164" s="30"/>
       <c r="J164" s="30"/>
     </row>
-    <row r="165" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:10">
       <c r="I165" s="30"/>
       <c r="J165" s="30"/>
     </row>
-    <row r="166" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:10">
       <c r="I166" s="30"/>
       <c r="J166" s="30"/>
     </row>
-    <row r="167" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:10">
       <c r="I167" s="30"/>
       <c r="J167" s="30"/>
     </row>
-    <row r="168" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:10">
       <c r="I168" s="30"/>
       <c r="J168" s="30"/>
     </row>
-    <row r="169" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:10">
       <c r="I169" s="30"/>
       <c r="J169" s="30"/>
     </row>
-    <row r="170" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:10">
       <c r="I170" s="30"/>
       <c r="J170" s="30"/>
     </row>
-    <row r="171" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:10">
       <c r="I171" s="30"/>
       <c r="J171" s="30"/>
     </row>
-    <row r="172" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:10">
       <c r="I172" s="30"/>
       <c r="J172" s="30"/>
     </row>
-    <row r="173" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:10">
       <c r="I173" s="30"/>
       <c r="J173" s="30"/>
     </row>
-    <row r="174" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:10">
       <c r="I174" s="30"/>
       <c r="J174" s="30"/>
     </row>
-    <row r="175" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:10">
       <c r="I175" s="30"/>
       <c r="J175" s="30"/>
     </row>
-    <row r="176" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:10">
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
     </row>
-    <row r="177" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:10">
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
     </row>
-    <row r="178" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:10">
       <c r="I178" s="30"/>
       <c r="J178" s="30"/>
     </row>
-    <row r="179" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:10">
       <c r="I179" s="30"/>
       <c r="J179" s="30"/>
     </row>
-    <row r="180" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:10">
       <c r="I180" s="30"/>
       <c r="J180" s="30"/>
     </row>
-    <row r="181" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:10">
       <c r="I181" s="30"/>
       <c r="J181" s="30"/>
     </row>
-    <row r="182" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:10">
       <c r="I182" s="30"/>
       <c r="J182" s="30"/>
     </row>
-    <row r="183" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:10">
       <c r="I183" s="30"/>
       <c r="J183" s="30"/>
     </row>
-    <row r="184" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:10">
       <c r="I184" s="30"/>
       <c r="J184" s="30"/>
     </row>
-    <row r="185" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:10">
       <c r="I185" s="30"/>
       <c r="J185" s="30"/>
     </row>
-    <row r="186" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:10">
       <c r="I186" s="30"/>
       <c r="J186" s="30"/>
     </row>
-    <row r="187" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:10">
       <c r="I187" s="30"/>
       <c r="J187" s="30"/>
     </row>
-    <row r="188" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:10">
       <c r="I188" s="30"/>
       <c r="J188" s="30"/>
     </row>
-    <row r="189" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:10">
       <c r="I189" s="30"/>
       <c r="J189" s="30"/>
     </row>
-    <row r="190" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:10">
       <c r="I190" s="30"/>
       <c r="J190" s="30"/>
     </row>
-    <row r="191" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:10">
       <c r="I191" s="30"/>
       <c r="J191" s="30"/>
     </row>
-    <row r="192" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:10">
       <c r="I192" s="30"/>
       <c r="J192" s="30"/>
     </row>
-    <row r="193" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:10">
       <c r="I193" s="30"/>
       <c r="J193" s="30"/>
     </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:10">
       <c r="I194" s="30"/>
       <c r="J194" s="30"/>
     </row>
-    <row r="195" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:10">
       <c r="I195" s="30"/>
       <c r="J195" s="30"/>
     </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:10">
       <c r="I196" s="30"/>
       <c r="J196" s="30"/>
     </row>
-    <row r="197" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:10">
       <c r="I197" s="30"/>
       <c r="J197" s="30"/>
     </row>
-    <row r="198" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:10">
       <c r="I198" s="30"/>
       <c r="J198" s="30"/>
     </row>
-    <row r="199" spans="9:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:10">
       <c r="I199" s="30"/>
       <c r="J199" s="30"/>
     </row>
@@ -10032,7 +10029,6 @@
     <mergeCell ref="U1:Z1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10047,25 +10043,25 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD16"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="30" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="30" customWidth="1"/>
     <col min="4" max="4" width="71" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="30" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.44140625" style="30" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="30" customWidth="1"/>
+    <col min="7" max="8" width="10.5" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="30" customWidth="1"/>
     <col min="10" max="10" width="14.6640625" style="30" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="30" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" style="30"/>
+    <col min="12" max="16384" width="11.5" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="58"/>
       <c r="C1" s="5"/>
@@ -10081,7 +10077,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:13" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>457</v>
       </c>
@@ -10119,7 +10115,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>619</v>
       </c>
@@ -10158,7 +10154,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="29" t="s">
         <v>628</v>
       </c>
@@ -10187,14 +10183,14 @@
       <c r="K4" s="29"/>
       <c r="L4" s="29"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="29" t="s">
         <v>633</v>
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="29"/>
       <c r="D5" s="29" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E5" s="29" t="s">
         <v>634</v>
@@ -10216,14 +10212,14 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" s="29" t="s">
         <v>635</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>636</v>
@@ -10245,14 +10241,14 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="29" t="s">
         <v>665</v>
       </c>
       <c r="B7" s="45"/>
       <c r="C7" s="29"/>
       <c r="D7" s="29" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>642</v>
@@ -10273,14 +10269,14 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="29" t="s">
         <v>666</v>
       </c>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E8" s="29" t="s">
         <v>642</v>
@@ -10301,14 +10297,14 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="29" t="s">
         <v>667</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>642</v>
@@ -10329,14 +10325,14 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" s="29" t="s">
         <v>668</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>642</v>
@@ -10357,14 +10353,14 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="29" t="s">
         <v>669</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>642</v>
@@ -10385,14 +10381,14 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="29" t="s">
         <v>670</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
       <c r="D12" s="29" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>642</v>
@@ -10413,14 +10409,14 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
@@ -10436,14 +10432,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
       <c r="D14" s="29" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
@@ -10459,14 +10455,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" s="29" t="s">
         <v>692</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
@@ -10482,13 +10478,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" s="29" t="s">
         <v>693</v>
       </c>
       <c r="B16" s="29"/>
       <c r="D16" s="29" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="F16" s="30" t="s">
         <v>62</v>
@@ -10503,180 +10499,179 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2">
       <c r="B17" s="29"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2">
       <c r="B18" s="29"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2">
       <c r="B19" s="29"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2">
       <c r="B20" s="29"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2">
       <c r="B21" s="29"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2">
       <c r="B22" s="29"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2">
       <c r="B23" s="29"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2">
       <c r="B24" s="29"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2">
       <c r="B25" s="29"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2">
       <c r="B26" s="29"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2">
       <c r="B28" s="29"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2">
       <c r="B29" s="29"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2">
       <c r="B30" s="29"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2">
       <c r="B31" s="29"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="29"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="29"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="29"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2">
       <c r="B35" s="29"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2">
       <c r="B36" s="29"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2">
       <c r="B37" s="29"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2">
       <c r="B38" s="29"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2">
       <c r="B39" s="29"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2">
       <c r="B40" s="29"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2">
       <c r="B41" s="29"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:2">
       <c r="B42" s="29"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:2">
       <c r="B43" s="29"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:2">
       <c r="B44" s="29"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:2">
       <c r="B45" s="29"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:2">
       <c r="B46" s="29"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:2">
       <c r="B47" s="29"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:2">
       <c r="B48" s="29"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:2">
       <c r="B49" s="29"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:2">
       <c r="B50" s="29"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:2">
       <c r="B51" s="29"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:2">
       <c r="B52" s="29"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2">
       <c r="B53" s="29"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:2">
       <c r="B54" s="29"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:2">
       <c r="B55" s="29"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:2">
       <c r="B56" s="29"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:2">
       <c r="B57" s="29"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:2">
       <c r="B58" s="29"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:2">
       <c r="B59" s="29"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:2">
       <c r="B60" s="29"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:2">
       <c r="B61" s="29"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:2">
       <c r="B62" s="29"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:2">
       <c r="B63" s="29"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:2">
       <c r="B64" s="29"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:2">
       <c r="B65" s="29"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:2">
       <c r="B66" s="29"/>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2">
       <c r="B67" s="29"/>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2">
       <c r="B68" s="29"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:2">
       <c r="B69" s="29"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:2">
       <c r="B70" s="29"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:2">
       <c r="B71" s="29"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:2">
       <c r="B72" s="29"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:2">
       <c r="B73" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10693,19 +10688,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -10724,7 +10719,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10745,7 +10740,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10768,7 +10763,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10791,7 +10786,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10814,7 +10809,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10837,7 +10832,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10860,7 +10855,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10883,7 +10878,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10906,7 +10901,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10929,7 +10924,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10948,7 +10943,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10969,7 +10964,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10992,7 +10987,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11015,7 +11010,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11038,7 +11033,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11061,7 +11056,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11084,7 +11079,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11107,7 +11102,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11130,7 +11125,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11153,7 +11148,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -11172,7 +11167,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -11195,7 +11190,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -11218,7 +11213,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -11241,7 +11236,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -11264,7 +11259,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -11287,7 +11282,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -11310,7 +11305,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -11333,7 +11328,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -11356,7 +11351,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -11379,7 +11374,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -11398,7 +11393,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -11419,7 +11414,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -11442,7 +11437,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -11465,7 +11460,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -11488,7 +11483,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -11511,7 +11506,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -11534,7 +11529,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -11557,7 +11552,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -11580,7 +11575,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -11603,7 +11598,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -11622,7 +11617,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -11643,7 +11638,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -11666,7 +11661,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -11689,7 +11684,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -11712,7 +11707,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11735,7 +11730,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11758,7 +11753,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11781,7 +11776,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11804,7 +11799,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11827,7 +11822,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11846,7 +11841,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11867,7 +11862,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11890,7 +11885,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11913,7 +11908,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11936,7 +11931,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11959,7 +11954,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11982,7 +11977,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12005,7 +12000,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12028,7 +12023,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12051,7 +12046,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12070,7 +12065,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12091,7 +12086,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12116,7 +12111,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12139,7 +12134,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12162,7 +12157,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12185,7 +12180,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12208,7 +12203,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12231,7 +12226,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12254,7 +12249,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12277,7 +12272,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12300,7 +12295,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12319,7 +12314,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12340,7 +12335,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12363,7 +12358,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12388,7 +12383,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12411,7 +12406,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12434,7 +12429,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12457,7 +12452,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12480,7 +12475,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12503,7 +12498,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12526,7 +12521,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12549,7 +12544,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12572,7 +12567,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12595,7 +12590,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12618,7 +12613,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12637,7 +12632,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12660,7 +12655,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12683,7 +12678,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12706,7 +12701,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12729,7 +12724,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12752,7 +12747,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12775,7 +12770,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12798,7 +12793,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12821,7 +12816,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12844,7 +12839,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12867,7 +12862,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12886,7 +12881,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12911,7 +12906,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12930,7 +12925,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12951,7 +12946,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12976,7 +12971,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12995,7 +12990,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13018,7 +13013,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13043,7 +13038,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13066,7 +13061,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13087,7 +13082,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13106,7 +13101,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13131,7 +13126,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13154,7 +13149,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13177,7 +13172,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13200,7 +13195,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13223,7 +13218,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13246,7 +13241,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13269,7 +13264,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13288,7 +13283,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13311,7 +13306,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13334,7 +13329,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13357,7 +13352,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13376,7 +13371,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13399,7 +13394,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13422,7 +13417,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13445,7 +13440,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13468,7 +13463,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13491,7 +13486,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13514,7 +13509,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13533,7 +13528,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13558,7 +13553,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13581,7 +13576,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13604,7 +13599,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13627,7 +13622,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13650,7 +13645,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13673,7 +13668,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13696,7 +13691,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13719,7 +13714,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13742,7 +13737,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13761,7 +13756,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13786,7 +13781,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13807,7 +13802,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13830,7 +13825,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13853,7 +13848,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13876,7 +13871,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13899,7 +13894,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13922,7 +13917,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13945,7 +13940,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13968,7 +13963,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13991,7 +13986,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14014,7 +14009,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14037,7 +14032,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14060,7 +14055,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14083,7 +14078,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14102,7 +14097,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14125,7 +14120,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14144,7 +14139,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14167,7 +14162,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14190,7 +14185,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14209,7 +14204,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14234,7 +14229,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14257,7 +14252,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14280,7 +14275,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14303,7 +14298,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14326,7 +14321,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14349,7 +14344,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14372,7 +14367,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14395,7 +14390,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14418,7 +14413,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14441,7 +14436,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14460,7 +14455,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14485,7 +14480,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14508,7 +14503,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14531,7 +14526,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14554,7 +14549,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14577,7 +14572,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14600,7 +14595,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14623,7 +14618,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14646,7 +14641,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14669,7 +14664,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14692,7 +14687,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14711,7 +14706,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14734,7 +14729,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14757,7 +14752,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14780,7 +14775,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14803,7 +14798,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14822,7 +14817,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14845,7 +14840,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14868,7 +14863,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14891,7 +14886,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14914,7 +14909,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14933,7 +14928,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14954,7 +14949,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14977,7 +14972,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14996,7 +14991,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15019,7 +15014,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15044,7 +15039,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15065,7 +15060,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15090,7 +15085,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15115,7 +15110,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15134,7 +15129,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15159,7 +15154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15182,7 +15177,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15205,7 +15200,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15228,7 +15223,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15251,7 +15246,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15274,7 +15269,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15297,7 +15292,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15320,7 +15315,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15343,7 +15338,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15362,7 +15357,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15387,7 +15382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15410,7 +15405,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15433,7 +15428,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15456,7 +15451,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15479,7 +15474,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15502,7 +15497,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15525,7 +15520,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15548,7 +15543,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15571,7 +15566,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15590,7 +15585,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15611,7 +15606,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15634,7 +15629,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15657,7 +15652,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15680,7 +15675,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15698,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15726,7 +15721,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15749,7 +15744,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15772,7 +15767,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15795,7 +15790,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15818,7 +15813,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15841,7 +15836,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15864,7 +15859,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15887,7 +15882,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15910,7 +15905,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15933,7 +15928,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15956,7 +15951,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15975,7 +15970,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15996,7 +15991,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16019,7 +16014,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16042,7 +16037,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16065,7 +16060,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16088,7 +16083,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16111,7 +16106,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16134,7 +16129,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16157,7 +16152,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16180,7 +16175,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16203,7 +16198,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16226,7 +16221,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16249,7 +16244,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16272,7 +16267,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16295,7 +16290,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16318,7 +16313,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16341,7 +16336,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16360,7 +16355,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16385,7 +16380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16408,7 +16403,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16431,7 +16426,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16454,7 +16449,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16477,7 +16472,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16496,7 +16491,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16521,7 +16516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16544,7 +16539,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16563,7 +16558,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16582,7 +16577,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16601,7 +16596,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16622,7 +16617,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16645,7 +16640,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16668,7 +16663,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16691,7 +16686,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16714,7 +16709,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16737,7 +16732,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16760,7 +16755,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16783,7 +16778,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16806,7 +16801,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16829,7 +16824,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16852,7 +16847,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16871,7 +16866,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16894,7 +16889,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16913,7 +16908,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16938,7 +16933,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16961,7 +16956,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16984,7 +16979,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17007,7 +17002,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17030,7 +17025,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17053,7 +17048,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17076,7 +17071,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17099,7 +17094,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17122,7 +17117,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17145,7 +17140,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17168,7 +17163,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17187,7 +17182,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17210,7 +17205,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17229,7 +17224,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17250,7 +17245,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17269,7 +17264,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17290,7 +17285,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17309,7 +17304,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17330,7 +17325,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17349,7 +17344,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17372,7 +17367,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17391,7 +17386,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17416,7 +17411,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17439,7 +17434,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17462,7 +17457,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17485,7 +17480,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17508,7 +17503,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17531,7 +17526,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17554,7 +17549,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17577,7 +17572,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17600,7 +17595,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17619,7 +17614,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17642,7 +17637,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17665,7 +17660,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17688,7 +17683,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17711,7 +17706,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17730,7 +17725,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17753,7 +17748,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17776,7 +17771,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17801,7 +17796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17820,7 +17815,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17845,7 +17840,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17868,7 +17863,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17887,7 +17882,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17908,7 +17903,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17929,7 +17924,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17952,7 +17947,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17971,7 +17966,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17990,7 +17985,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18015,7 +18010,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -18040,7 +18035,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -18054,7 +18049,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -18077,7 +18072,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18097,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18117,7 +18112,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18137,7 +18132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18154,7 +18149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18177,7 +18172,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18200,7 +18195,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18214,7 +18209,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18237,7 +18232,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18260,7 +18255,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18280,7 +18275,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18300,7 +18295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18317,7 +18312,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18343,7 +18338,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18372,7 +18367,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18411,7 +18406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18425,7 +18420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18445,7 +18440,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18459,7 +18454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18479,7 +18474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18499,7 +18494,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18519,7 +18514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18539,7 +18534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18559,7 +18554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18579,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18599,7 +18594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18619,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18639,7 +18634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18653,7 +18648,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18673,7 +18668,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18693,7 +18688,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18709,7 +18704,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18735,7 +18730,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18776,7 +18771,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18790,7 +18785,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18810,7 +18805,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18824,7 +18819,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18846,7 +18841,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -18863,17 +18857,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>439</v>
       </c>
@@ -18884,7 +18878,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="29" customFormat="1">
       <c r="A2" s="29" t="s">
         <v>585</v>
       </c>
@@ -18898,7 +18892,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="29" customFormat="1">
       <c r="A3" s="29" t="s">
         <v>588</v>
       </c>
@@ -18912,7 +18906,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="29" customFormat="1">
       <c r="A4" s="29" t="s">
         <v>590</v>
       </c>
@@ -18926,7 +18920,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="29" customFormat="1">
       <c r="A5" s="29" t="s">
         <v>592</v>
       </c>
@@ -18940,7 +18934,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="29" customFormat="1">
       <c r="A6" s="29" t="s">
         <v>594</v>
       </c>
@@ -18954,7 +18948,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="29" customFormat="1">
       <c r="A7" s="29" t="s">
         <v>438</v>
       </c>
@@ -18968,7 +18962,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="29" customFormat="1">
       <c r="A8" s="29" t="s">
         <v>597</v>
       </c>
@@ -18982,7 +18976,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="29" customFormat="1">
       <c r="A9" s="29" t="s">
         <v>599</v>
       </c>
@@ -18996,7 +18990,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>565</v>
       </c>
@@ -19010,7 +19004,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>452</v>
       </c>
@@ -19024,7 +19018,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>450</v>
       </c>
@@ -19035,8 +19029,8 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="29" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>543</v>
       </c>
@@ -19062,7 +19056,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>544</v>
       </c>
@@ -19103,7 +19097,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19144,7 +19138,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>538</v>
       </c>
@@ -19176,7 +19170,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>546</v>
       </c>
@@ -19208,7 +19202,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>545</v>
       </c>
@@ -19237,7 +19231,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>547</v>
       </c>
@@ -19269,7 +19263,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>548</v>
       </c>
@@ -19289,7 +19283,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>630</v>
       </c>
@@ -19312,7 +19306,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>554</v>
       </c>
@@ -19323,7 +19317,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>535</v>
       </c>
@@ -19331,7 +19325,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>537</v>
       </c>
@@ -19344,7 +19338,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
